--- a/Database/Norbert/Cazuri_pe_judete_A-Z_tr.xlsx
+++ b/Database/Norbert/Cazuri_pe_judete_A-Z_tr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C1E764-5690-48DA-8617-0A99DAB05158}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C20D7D3-E7B8-4228-BFBF-17273BA71212}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="37340" windowHeight="18590" xr2:uid="{06F61592-3106-4B32-B324-A85F3BE76E2A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{06F61592-3106-4B32-B324-A85F3BE76E2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -517,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F331728F-2889-451A-AC65-AF010E569640}">
   <dimension ref="A1:GH44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="GJ8" sqref="GJ8"/>
+    <sheetView tabSelected="1" topLeftCell="FB1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="GA1" sqref="GA1:GH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -532,6 +532,8 @@
     <col min="179" max="179" width="9.81640625" customWidth="1"/>
     <col min="182" max="182" width="10.54296875" customWidth="1"/>
     <col min="183" max="183" width="9.90625" customWidth="1"/>
+    <col min="184" max="186" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="187" max="190" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:190" x14ac:dyDescent="0.35">
@@ -1081,28 +1083,28 @@
       <c r="FZ1" s="1">
         <v>44070</v>
       </c>
-      <c r="GA1">
+      <c r="GA1" s="1">
         <v>44071</v>
       </c>
-      <c r="GB1">
+      <c r="GB1" s="1">
         <v>44072</v>
       </c>
-      <c r="GC1">
+      <c r="GC1" s="1">
         <v>44073</v>
       </c>
-      <c r="GD1">
+      <c r="GD1" s="1">
         <v>44074</v>
       </c>
-      <c r="GE1">
+      <c r="GE1" s="1">
         <v>44075</v>
       </c>
-      <c r="GF1">
+      <c r="GF1" s="1">
         <v>44076</v>
       </c>
-      <c r="GG1">
+      <c r="GG1" s="1">
         <v>44077</v>
       </c>
-      <c r="GH1">
+      <c r="GH1" s="1">
         <v>44078</v>
       </c>
     </row>

--- a/Database/Norbert/Cazuri_pe_judete_A-Z_tr.xlsx
+++ b/Database/Norbert/Cazuri_pe_judete_A-Z_tr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C20D7D3-E7B8-4228-BFBF-17273BA71212}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272C13EF-0960-47E5-B0E5-5FBE8CE63BAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{06F61592-3106-4B32-B324-A85F3BE76E2A}"/>
   </bookViews>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Alba</t>
   </si>
@@ -159,9 +160,6 @@
   </si>
   <si>
     <t>Satu Mare</t>
-  </si>
-  <si>
-    <t>data</t>
   </si>
 </sst>
 </file>
@@ -515,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F331728F-2889-451A-AC65-AF010E569640}">
-  <dimension ref="A1:GH44"/>
+  <dimension ref="A1:HB44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="FB1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="GA1" sqref="GA1:GH1"/>
+    <sheetView tabSelected="1" topLeftCell="EK1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="EZ3" sqref="EZ3:FB44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -534,11 +532,12 @@
     <col min="183" max="183" width="9.90625" customWidth="1"/>
     <col min="184" max="186" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="187" max="190" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="10.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1">
         <v>43890</v>
@@ -1107,8 +1106,66 @@
       <c r="GH1" s="1">
         <v>44078</v>
       </c>
+      <c r="GI1" s="1">
+        <v>44079</v>
+      </c>
+      <c r="GJ1" s="1">
+        <v>44080</v>
+      </c>
+      <c r="GK1" s="1">
+        <v>44081</v>
+      </c>
+      <c r="GL1" s="1">
+        <v>44082</v>
+      </c>
+      <c r="GM1" s="1">
+        <v>44083</v>
+      </c>
+      <c r="GN1" s="1">
+        <v>44084</v>
+      </c>
+      <c r="GO1" s="1">
+        <v>44085</v>
+      </c>
+      <c r="GP1" s="1">
+        <v>44086</v>
+      </c>
+      <c r="GQ1" s="1">
+        <v>44087</v>
+      </c>
+      <c r="GR1" s="1">
+        <v>44088</v>
+      </c>
+      <c r="GS1" s="1">
+        <v>44089</v>
+      </c>
+      <c r="GT1" s="1">
+        <v>44090</v>
+      </c>
+      <c r="GU1" s="1">
+        <v>44091</v>
+      </c>
+      <c r="GV1" s="1">
+        <v>44092</v>
+      </c>
+      <c r="GW1" s="1">
+        <v>44093</v>
+      </c>
+      <c r="GX1" s="1">
+        <v>44094</v>
+      </c>
+      <c r="GY1" s="1">
+        <v>44095</v>
+      </c>
+      <c r="GZ1" s="1">
+        <v>44096</v>
+      </c>
+      <c r="HA1" s="1">
+        <v>44097</v>
+      </c>
+      <c r="HB1" s="1"/>
     </row>
-    <row r="2" spans="1:190" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:210" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -1679,8 +1736,65 @@
       <c r="GH2" s="2">
         <v>189</v>
       </c>
+      <c r="GI2" s="2">
+        <v>190</v>
+      </c>
+      <c r="GJ2" s="2">
+        <v>191</v>
+      </c>
+      <c r="GK2" s="2">
+        <v>192</v>
+      </c>
+      <c r="GL2" s="2">
+        <v>193</v>
+      </c>
+      <c r="GM2" s="2">
+        <v>194</v>
+      </c>
+      <c r="GN2" s="2">
+        <v>195</v>
+      </c>
+      <c r="GO2" s="2">
+        <v>196</v>
+      </c>
+      <c r="GP2" s="2">
+        <v>197</v>
+      </c>
+      <c r="GQ2" s="2">
+        <v>198</v>
+      </c>
+      <c r="GR2" s="2">
+        <v>199</v>
+      </c>
+      <c r="GS2" s="2">
+        <v>200</v>
+      </c>
+      <c r="GT2" s="2">
+        <v>201</v>
+      </c>
+      <c r="GU2" s="2">
+        <v>202</v>
+      </c>
+      <c r="GV2" s="2">
+        <v>203</v>
+      </c>
+      <c r="GW2" s="2">
+        <v>204</v>
+      </c>
+      <c r="GX2" s="2">
+        <v>205</v>
+      </c>
+      <c r="GY2" s="2">
+        <v>206</v>
+      </c>
+      <c r="GZ2" s="2">
+        <v>207</v>
+      </c>
+      <c r="HA2" s="2">
+        <v>208</v>
+      </c>
     </row>
-    <row r="3" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2140,20 +2254,20 @@
       <c r="EW3">
         <v>75</v>
       </c>
-      <c r="EX3" s="2">
+      <c r="EX3">
         <v>223</v>
       </c>
-      <c r="EY3" s="2">
+      <c r="EY3">
         <v>164</v>
       </c>
-      <c r="EZ3" s="2">
-        <v>0</v>
+      <c r="EZ3">
+        <v>107</v>
       </c>
       <c r="FA3">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="FB3">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="FC3">
         <v>158</v>
@@ -2251,8 +2365,65 @@
       <c r="GH3">
         <v>114</v>
       </c>
+      <c r="GI3">
+        <v>352</v>
+      </c>
+      <c r="GJ3">
+        <v>201</v>
+      </c>
+      <c r="GK3">
+        <v>187</v>
+      </c>
+      <c r="GL3">
+        <v>257</v>
+      </c>
+      <c r="GM3">
+        <v>180</v>
+      </c>
+      <c r="GN3">
+        <v>201</v>
+      </c>
+      <c r="GO3">
+        <v>140</v>
+      </c>
+      <c r="GP3">
+        <v>220</v>
+      </c>
+      <c r="GQ3">
+        <v>232</v>
+      </c>
+      <c r="GR3">
+        <v>168</v>
+      </c>
+      <c r="GS3">
+        <v>214</v>
+      </c>
+      <c r="GT3">
+        <v>211</v>
+      </c>
+      <c r="GU3">
+        <v>244</v>
+      </c>
+      <c r="GV3">
+        <v>171</v>
+      </c>
+      <c r="GW3">
+        <v>220</v>
+      </c>
+      <c r="GX3">
+        <v>270</v>
+      </c>
+      <c r="GY3">
+        <v>228</v>
+      </c>
+      <c r="GZ3">
+        <v>99</v>
+      </c>
+      <c r="HA3">
+        <v>301</v>
+      </c>
     </row>
-    <row r="4" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -2712,20 +2883,20 @@
       <c r="EW4">
         <v>33</v>
       </c>
-      <c r="EX4" s="2">
+      <c r="EX4">
         <v>42</v>
       </c>
-      <c r="EY4" s="2">
-        <v>0</v>
-      </c>
-      <c r="EZ4" s="2">
-        <v>0</v>
+      <c r="EY4">
+        <v>0</v>
+      </c>
+      <c r="EZ4">
+        <v>23</v>
       </c>
       <c r="FA4">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="FB4">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="FC4">
         <v>15</v>
@@ -2823,8 +2994,65 @@
       <c r="GH4">
         <v>39</v>
       </c>
+      <c r="GI4">
+        <v>45</v>
+      </c>
+      <c r="GJ4">
+        <v>28</v>
+      </c>
+      <c r="GK4">
+        <v>11</v>
+      </c>
+      <c r="GL4">
+        <v>28</v>
+      </c>
+      <c r="GM4">
+        <v>40</v>
+      </c>
+      <c r="GN4">
+        <v>54</v>
+      </c>
+      <c r="GO4">
+        <v>75</v>
+      </c>
+      <c r="GP4">
+        <v>49</v>
+      </c>
+      <c r="GQ4">
+        <v>21</v>
+      </c>
+      <c r="GR4">
+        <v>22</v>
+      </c>
+      <c r="GS4">
+        <v>53</v>
+      </c>
+      <c r="GT4">
+        <v>91</v>
+      </c>
+      <c r="GU4">
+        <v>60</v>
+      </c>
+      <c r="GV4">
+        <v>49</v>
+      </c>
+      <c r="GW4">
+        <v>55</v>
+      </c>
+      <c r="GX4">
+        <v>32</v>
+      </c>
+      <c r="GY4">
+        <v>16</v>
+      </c>
+      <c r="GZ4">
+        <v>60</v>
+      </c>
+      <c r="HA4">
+        <v>40</v>
+      </c>
     </row>
-    <row r="5" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3284,20 +3512,20 @@
       <c r="EW5">
         <v>98</v>
       </c>
-      <c r="EX5" s="2">
+      <c r="EX5">
         <v>103</v>
       </c>
-      <c r="EY5" s="2">
+      <c r="EY5">
         <v>112</v>
       </c>
-      <c r="EZ5" s="2">
-        <v>0</v>
+      <c r="EZ5">
+        <v>96</v>
       </c>
       <c r="FA5">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="FB5">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="FC5">
         <v>95</v>
@@ -3395,8 +3623,65 @@
       <c r="GH5">
         <v>40</v>
       </c>
+      <c r="GI5">
+        <v>14</v>
+      </c>
+      <c r="GJ5">
+        <v>2</v>
+      </c>
+      <c r="GK5">
+        <v>18</v>
+      </c>
+      <c r="GL5">
+        <v>26</v>
+      </c>
+      <c r="GM5">
+        <v>25</v>
+      </c>
+      <c r="GN5">
+        <v>19</v>
+      </c>
+      <c r="GO5">
+        <v>22</v>
+      </c>
+      <c r="GP5">
+        <v>10</v>
+      </c>
+      <c r="GQ5">
+        <v>5</v>
+      </c>
+      <c r="GR5">
+        <v>5</v>
+      </c>
+      <c r="GS5">
+        <v>18</v>
+      </c>
+      <c r="GT5">
+        <v>16</v>
+      </c>
+      <c r="GU5">
+        <v>35</v>
+      </c>
+      <c r="GV5">
+        <v>19</v>
+      </c>
+      <c r="GW5">
+        <v>12</v>
+      </c>
+      <c r="GX5">
+        <v>7</v>
+      </c>
+      <c r="GY5">
+        <v>11</v>
+      </c>
+      <c r="GZ5">
+        <v>8</v>
+      </c>
+      <c r="HA5">
+        <v>24</v>
+      </c>
     </row>
-    <row r="6" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -3856,20 +4141,20 @@
       <c r="EW6">
         <v>49</v>
       </c>
-      <c r="EX6" s="2">
+      <c r="EX6">
         <v>60</v>
       </c>
-      <c r="EY6" s="2">
+      <c r="EY6">
         <v>71</v>
       </c>
-      <c r="EZ6" s="2">
-        <v>0</v>
+      <c r="EZ6">
+        <v>54</v>
       </c>
       <c r="FA6">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="FB6">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="FC6">
         <v>95</v>
@@ -3967,8 +4252,65 @@
       <c r="GH6">
         <v>75</v>
       </c>
+      <c r="GI6">
+        <v>32</v>
+      </c>
+      <c r="GJ6">
+        <v>46</v>
+      </c>
+      <c r="GK6">
+        <v>6</v>
+      </c>
+      <c r="GL6">
+        <v>44</v>
+      </c>
+      <c r="GM6">
+        <v>56</v>
+      </c>
+      <c r="GN6">
+        <v>50</v>
+      </c>
+      <c r="GO6">
+        <v>50</v>
+      </c>
+      <c r="GP6">
+        <v>53</v>
+      </c>
+      <c r="GQ6">
+        <v>42</v>
+      </c>
+      <c r="GR6">
+        <v>24</v>
+      </c>
+      <c r="GS6">
+        <v>42</v>
+      </c>
+      <c r="GT6">
+        <v>35</v>
+      </c>
+      <c r="GU6">
+        <v>60</v>
+      </c>
+      <c r="GV6">
+        <v>56</v>
+      </c>
+      <c r="GW6">
+        <v>51</v>
+      </c>
+      <c r="GX6">
+        <v>83</v>
+      </c>
+      <c r="GY6">
+        <v>23</v>
+      </c>
+      <c r="GZ6">
+        <v>38</v>
+      </c>
+      <c r="HA6">
+        <v>97</v>
+      </c>
     </row>
-    <row r="7" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -4428,20 +4770,20 @@
       <c r="EW7">
         <v>101</v>
       </c>
-      <c r="EX7" s="2">
+      <c r="EX7">
         <v>78</v>
       </c>
-      <c r="EY7" s="2">
-        <v>0</v>
-      </c>
-      <c r="EZ7" s="2">
-        <v>0</v>
+      <c r="EY7">
+        <v>0</v>
+      </c>
+      <c r="EZ7">
+        <v>87</v>
       </c>
       <c r="FA7">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="FB7">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="FC7">
         <v>61</v>
@@ -4539,8 +4881,65 @@
       <c r="GH7">
         <v>64</v>
       </c>
+      <c r="GI7">
+        <v>33</v>
+      </c>
+      <c r="GJ7">
+        <v>69</v>
+      </c>
+      <c r="GK7">
+        <v>55</v>
+      </c>
+      <c r="GL7">
+        <v>37</v>
+      </c>
+      <c r="GM7">
+        <v>33</v>
+      </c>
+      <c r="GN7">
+        <v>65</v>
+      </c>
+      <c r="GO7">
+        <v>74</v>
+      </c>
+      <c r="GP7">
+        <v>70</v>
+      </c>
+      <c r="GQ7">
+        <v>58</v>
+      </c>
+      <c r="GR7">
+        <v>33</v>
+      </c>
+      <c r="GS7">
+        <v>43</v>
+      </c>
+      <c r="GT7">
+        <v>84</v>
+      </c>
+      <c r="GU7">
+        <v>59</v>
+      </c>
+      <c r="GV7">
+        <v>59</v>
+      </c>
+      <c r="GW7">
+        <v>42</v>
+      </c>
+      <c r="GX7">
+        <v>47</v>
+      </c>
+      <c r="GY7">
+        <v>30</v>
+      </c>
+      <c r="GZ7">
+        <v>40</v>
+      </c>
+      <c r="HA7">
+        <v>41</v>
+      </c>
     </row>
-    <row r="8" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -5000,20 +5399,20 @@
       <c r="EW8">
         <v>67</v>
       </c>
-      <c r="EX8" s="2">
+      <c r="EX8">
         <v>55</v>
       </c>
-      <c r="EY8" s="2">
-        <v>0</v>
-      </c>
-      <c r="EZ8" s="2">
-        <v>0</v>
+      <c r="EY8">
+        <v>0</v>
+      </c>
+      <c r="EZ8">
+        <v>66</v>
       </c>
       <c r="FA8">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="FB8">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="FC8">
         <v>40</v>
@@ -5111,8 +5510,65 @@
       <c r="GH8">
         <v>30</v>
       </c>
+      <c r="GI8">
+        <v>21</v>
+      </c>
+      <c r="GJ8">
+        <v>26</v>
+      </c>
+      <c r="GK8">
+        <v>15</v>
+      </c>
+      <c r="GL8">
+        <v>14</v>
+      </c>
+      <c r="GM8">
+        <v>36</v>
+      </c>
+      <c r="GN8">
+        <v>25</v>
+      </c>
+      <c r="GO8">
+        <v>34</v>
+      </c>
+      <c r="GP8">
+        <v>19</v>
+      </c>
+      <c r="GQ8">
+        <v>19</v>
+      </c>
+      <c r="GR8">
+        <v>11</v>
+      </c>
+      <c r="GS8">
+        <v>18</v>
+      </c>
+      <c r="GT8">
+        <v>32</v>
+      </c>
+      <c r="GU8">
+        <v>29</v>
+      </c>
+      <c r="GV8">
+        <v>40</v>
+      </c>
+      <c r="GW8">
+        <v>9</v>
+      </c>
+      <c r="GX8">
+        <v>44</v>
+      </c>
+      <c r="GY8">
+        <v>37</v>
+      </c>
+      <c r="GZ8">
+        <v>31</v>
+      </c>
+      <c r="HA8">
+        <v>40</v>
+      </c>
     </row>
-    <row r="9" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -5572,20 +6028,20 @@
       <c r="EW9">
         <v>26</v>
       </c>
-      <c r="EX9" s="2">
+      <c r="EX9">
         <v>45</v>
       </c>
-      <c r="EY9" s="2">
-        <v>0</v>
-      </c>
-      <c r="EZ9" s="2">
-        <v>0</v>
+      <c r="EY9">
+        <v>0</v>
+      </c>
+      <c r="EZ9">
+        <v>44</v>
       </c>
       <c r="FA9">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="FB9">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="FC9">
         <v>22</v>
@@ -5683,8 +6139,65 @@
       <c r="GH9">
         <v>62</v>
       </c>
+      <c r="GI9">
+        <v>60</v>
+      </c>
+      <c r="GJ9">
+        <v>57</v>
+      </c>
+      <c r="GK9">
+        <v>55</v>
+      </c>
+      <c r="GL9">
+        <v>44</v>
+      </c>
+      <c r="GM9">
+        <v>59</v>
+      </c>
+      <c r="GN9">
+        <v>63</v>
+      </c>
+      <c r="GO9">
+        <v>62</v>
+      </c>
+      <c r="GP9">
+        <v>65</v>
+      </c>
+      <c r="GQ9">
+        <v>55</v>
+      </c>
+      <c r="GR9">
+        <v>41</v>
+      </c>
+      <c r="GS9">
+        <v>46</v>
+      </c>
+      <c r="GT9">
+        <v>71</v>
+      </c>
+      <c r="GU9">
+        <v>110</v>
+      </c>
+      <c r="GV9">
+        <v>91</v>
+      </c>
+      <c r="GW9">
+        <v>39</v>
+      </c>
+      <c r="GX9">
+        <v>69</v>
+      </c>
+      <c r="GY9">
+        <v>35</v>
+      </c>
+      <c r="GZ9">
+        <v>57</v>
+      </c>
+      <c r="HA9">
+        <v>93</v>
+      </c>
     </row>
-    <row r="10" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -6144,20 +6657,20 @@
       <c r="EW10">
         <v>84</v>
       </c>
-      <c r="EX10" s="2">
+      <c r="EX10">
         <v>26</v>
       </c>
-      <c r="EY10" s="2">
+      <c r="EY10">
         <v>50</v>
       </c>
-      <c r="EZ10" s="2">
-        <v>0</v>
+      <c r="EZ10">
+        <v>50</v>
       </c>
       <c r="FA10">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="FB10">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="FC10">
         <v>51</v>
@@ -6255,8 +6768,65 @@
       <c r="GH10">
         <v>31</v>
       </c>
+      <c r="GI10">
+        <v>35</v>
+      </c>
+      <c r="GJ10">
+        <v>7</v>
+      </c>
+      <c r="GK10">
+        <v>47</v>
+      </c>
+      <c r="GL10">
+        <v>23</v>
+      </c>
+      <c r="GM10">
+        <v>45</v>
+      </c>
+      <c r="GN10">
+        <v>34</v>
+      </c>
+      <c r="GO10">
+        <v>12</v>
+      </c>
+      <c r="GP10">
+        <v>34</v>
+      </c>
+      <c r="GQ10">
+        <v>23</v>
+      </c>
+      <c r="GR10">
+        <v>29</v>
+      </c>
+      <c r="GS10">
+        <v>22</v>
+      </c>
+      <c r="GT10">
+        <v>32</v>
+      </c>
+      <c r="GU10">
+        <v>25</v>
+      </c>
+      <c r="GV10">
+        <v>52</v>
+      </c>
+      <c r="GW10">
+        <v>45</v>
+      </c>
+      <c r="GX10">
+        <v>28</v>
+      </c>
+      <c r="GY10">
+        <v>15</v>
+      </c>
+      <c r="GZ10">
+        <v>22</v>
+      </c>
+      <c r="HA10">
+        <v>32</v>
+      </c>
     </row>
-    <row r="11" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -6716,20 +7286,20 @@
       <c r="EW11">
         <v>40</v>
       </c>
-      <c r="EX11" s="2">
+      <c r="EX11">
         <v>76</v>
       </c>
-      <c r="EY11" s="2">
-        <v>0</v>
-      </c>
-      <c r="EZ11" s="2">
-        <v>0</v>
+      <c r="EY11">
+        <v>0</v>
+      </c>
+      <c r="EZ11">
+        <v>46</v>
       </c>
       <c r="FA11">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="FB11">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="FC11">
         <v>43</v>
@@ -6827,8 +7397,65 @@
       <c r="GH11">
         <v>78</v>
       </c>
+      <c r="GI11">
+        <v>37</v>
+      </c>
+      <c r="GJ11">
+        <v>22</v>
+      </c>
+      <c r="GK11">
+        <v>12</v>
+      </c>
+      <c r="GL11">
+        <v>40</v>
+      </c>
+      <c r="GM11">
+        <v>44</v>
+      </c>
+      <c r="GN11">
+        <v>69</v>
+      </c>
+      <c r="GO11">
+        <v>36</v>
+      </c>
+      <c r="GP11">
+        <v>40</v>
+      </c>
+      <c r="GQ11">
+        <v>48</v>
+      </c>
+      <c r="GR11">
+        <v>3</v>
+      </c>
+      <c r="GS11">
+        <v>32</v>
+      </c>
+      <c r="GT11">
+        <v>65</v>
+      </c>
+      <c r="GU11">
+        <v>57</v>
+      </c>
+      <c r="GV11">
+        <v>61</v>
+      </c>
+      <c r="GW11">
+        <v>61</v>
+      </c>
+      <c r="GX11">
+        <v>57</v>
+      </c>
+      <c r="GY11">
+        <v>18</v>
+      </c>
+      <c r="GZ11">
+        <v>37</v>
+      </c>
+      <c r="HA11">
+        <v>75</v>
+      </c>
     </row>
-    <row r="12" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -7288,20 +7915,20 @@
       <c r="EW12">
         <v>23</v>
       </c>
-      <c r="EX12" s="2">
+      <c r="EX12">
         <v>44</v>
       </c>
-      <c r="EY12" s="2">
+      <c r="EY12">
         <v>25</v>
       </c>
-      <c r="EZ12" s="2">
-        <v>0</v>
+      <c r="EZ12">
+        <v>38</v>
       </c>
       <c r="FA12">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="FB12">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="FC12">
         <v>11</v>
@@ -7394,13 +8021,70 @@
         <v>43</v>
       </c>
       <c r="GG12">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="GH12">
         <v>42</v>
       </c>
+      <c r="GI12">
+        <v>48</v>
+      </c>
+      <c r="GJ12">
+        <v>59</v>
+      </c>
+      <c r="GK12">
+        <v>32</v>
+      </c>
+      <c r="GL12">
+        <v>35</v>
+      </c>
+      <c r="GM12">
+        <v>48</v>
+      </c>
+      <c r="GN12">
+        <v>48</v>
+      </c>
+      <c r="GO12">
+        <v>43</v>
+      </c>
+      <c r="GP12">
+        <v>55</v>
+      </c>
+      <c r="GQ12">
+        <v>69</v>
+      </c>
+      <c r="GR12">
+        <v>25</v>
+      </c>
+      <c r="GS12">
+        <v>37</v>
+      </c>
+      <c r="GT12">
+        <v>54</v>
+      </c>
+      <c r="GU12">
+        <v>35</v>
+      </c>
+      <c r="GV12">
+        <v>47</v>
+      </c>
+      <c r="GW12">
+        <v>37</v>
+      </c>
+      <c r="GX12">
+        <v>27</v>
+      </c>
+      <c r="GY12">
+        <v>12</v>
+      </c>
+      <c r="GZ12">
+        <v>41</v>
+      </c>
+      <c r="HA12">
+        <v>53</v>
+      </c>
     </row>
-    <row r="13" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:210" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -7860,20 +8544,20 @@
       <c r="EW13">
         <v>66</v>
       </c>
-      <c r="EX13" s="2">
+      <c r="EX13">
         <v>18</v>
       </c>
-      <c r="EY13" s="2">
-        <v>0</v>
-      </c>
-      <c r="EZ13" s="2">
-        <v>0</v>
+      <c r="EY13">
+        <v>0</v>
+      </c>
+      <c r="EZ13">
+        <v>32</v>
       </c>
       <c r="FA13">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="FB13">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="FC13">
         <v>42</v>
@@ -7971,8 +8655,65 @@
       <c r="GH13">
         <v>17</v>
       </c>
+      <c r="GI13">
+        <v>9</v>
+      </c>
+      <c r="GJ13">
+        <v>9</v>
+      </c>
+      <c r="GK13">
+        <v>2</v>
+      </c>
+      <c r="GL13">
+        <v>8</v>
+      </c>
+      <c r="GM13">
+        <v>11</v>
+      </c>
+      <c r="GN13">
+        <v>4</v>
+      </c>
+      <c r="GO13">
+        <v>16</v>
+      </c>
+      <c r="GP13">
+        <v>11</v>
+      </c>
+      <c r="GQ13">
+        <v>10</v>
+      </c>
+      <c r="GR13">
+        <v>3</v>
+      </c>
+      <c r="GS13">
+        <v>5</v>
+      </c>
+      <c r="GT13">
+        <v>17</v>
+      </c>
+      <c r="GU13">
+        <v>7</v>
+      </c>
+      <c r="GV13">
+        <v>22</v>
+      </c>
+      <c r="GW13">
+        <v>9</v>
+      </c>
+      <c r="GX13">
+        <v>13</v>
+      </c>
+      <c r="GY13">
+        <v>6</v>
+      </c>
+      <c r="GZ13">
+        <v>14</v>
+      </c>
+      <c r="HA13">
+        <v>10</v>
+      </c>
     </row>
-    <row r="14" spans="1:190" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -8432,20 +9173,20 @@
       <c r="EW14">
         <v>25</v>
       </c>
-      <c r="EX14" s="2">
+      <c r="EX14">
         <v>36</v>
       </c>
-      <c r="EY14" s="2">
+      <c r="EY14">
         <v>24</v>
       </c>
-      <c r="EZ14" s="2">
-        <v>0</v>
+      <c r="EZ14">
+        <v>22</v>
       </c>
       <c r="FA14">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="FB14">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="FC14">
         <v>15</v>
@@ -8543,8 +9284,65 @@
       <c r="GH14">
         <v>21</v>
       </c>
+      <c r="GI14">
+        <v>21</v>
+      </c>
+      <c r="GJ14">
+        <v>2</v>
+      </c>
+      <c r="GK14">
+        <v>72</v>
+      </c>
+      <c r="GL14">
+        <v>23</v>
+      </c>
+      <c r="GM14">
+        <v>20</v>
+      </c>
+      <c r="GN14">
+        <v>13</v>
+      </c>
+      <c r="GO14">
+        <v>15</v>
+      </c>
+      <c r="GP14">
+        <v>22</v>
+      </c>
+      <c r="GQ14">
+        <v>13</v>
+      </c>
+      <c r="GR14">
+        <v>7</v>
+      </c>
+      <c r="GS14">
+        <v>12</v>
+      </c>
+      <c r="GT14">
+        <v>10</v>
+      </c>
+      <c r="GU14">
+        <v>9</v>
+      </c>
+      <c r="GV14">
+        <v>16</v>
+      </c>
+      <c r="GW14">
+        <v>15</v>
+      </c>
+      <c r="GX14">
+        <v>17</v>
+      </c>
+      <c r="GY14">
+        <v>9</v>
+      </c>
+      <c r="GZ14">
+        <v>15</v>
+      </c>
+      <c r="HA14">
+        <v>18</v>
+      </c>
     </row>
-    <row r="15" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -9004,20 +9802,20 @@
       <c r="EW15">
         <v>31</v>
       </c>
-      <c r="EX15" s="2">
+      <c r="EX15">
         <v>37</v>
       </c>
-      <c r="EY15" s="2">
-        <v>0</v>
-      </c>
-      <c r="EZ15" s="2">
-        <v>0</v>
+      <c r="EY15">
+        <v>0</v>
+      </c>
+      <c r="EZ15">
+        <v>39</v>
       </c>
       <c r="FA15">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="FB15">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="FC15">
         <v>34</v>
@@ -9115,8 +9913,65 @@
       <c r="GH15">
         <v>43</v>
       </c>
+      <c r="GI15">
+        <v>36</v>
+      </c>
+      <c r="GJ15">
+        <v>29</v>
+      </c>
+      <c r="GK15">
+        <v>18</v>
+      </c>
+      <c r="GL15">
+        <v>36</v>
+      </c>
+      <c r="GM15">
+        <v>25</v>
+      </c>
+      <c r="GN15">
+        <v>57</v>
+      </c>
+      <c r="GO15">
+        <v>48</v>
+      </c>
+      <c r="GP15">
+        <v>42</v>
+      </c>
+      <c r="GQ15">
+        <v>26</v>
+      </c>
+      <c r="GR15">
+        <v>4</v>
+      </c>
+      <c r="GS15">
+        <v>39</v>
+      </c>
+      <c r="GT15">
+        <v>41</v>
+      </c>
+      <c r="GU15">
+        <v>36</v>
+      </c>
+      <c r="GV15">
+        <v>45</v>
+      </c>
+      <c r="GW15">
+        <v>48</v>
+      </c>
+      <c r="GX15">
+        <v>39</v>
+      </c>
+      <c r="GY15">
+        <v>6</v>
+      </c>
+      <c r="GZ15">
+        <v>38</v>
+      </c>
+      <c r="HA15">
+        <v>52</v>
+      </c>
     </row>
-    <row r="16" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:210" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -9576,20 +10431,20 @@
       <c r="EW16">
         <v>51</v>
       </c>
-      <c r="EX16" s="2">
-        <v>0</v>
-      </c>
-      <c r="EY16" s="2">
+      <c r="EX16">
+        <v>0</v>
+      </c>
+      <c r="EY16">
         <v>62</v>
       </c>
-      <c r="EZ16" s="2">
-        <v>0</v>
+      <c r="EZ16">
+        <v>24</v>
       </c>
       <c r="FA16">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="FB16">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="FC16">
         <v>27</v>
@@ -9687,8 +10542,65 @@
       <c r="GH16">
         <v>53</v>
       </c>
+      <c r="GI16">
+        <v>36</v>
+      </c>
+      <c r="GJ16">
+        <v>10</v>
+      </c>
+      <c r="GK16">
+        <v>16</v>
+      </c>
+      <c r="GL16">
+        <v>29</v>
+      </c>
+      <c r="GM16">
+        <v>34</v>
+      </c>
+      <c r="GN16">
+        <v>39</v>
+      </c>
+      <c r="GO16">
+        <v>21</v>
+      </c>
+      <c r="GP16">
+        <v>45</v>
+      </c>
+      <c r="GQ16">
+        <v>19</v>
+      </c>
+      <c r="GR16">
+        <v>21</v>
+      </c>
+      <c r="GS16">
+        <v>49</v>
+      </c>
+      <c r="GT16">
+        <v>99</v>
+      </c>
+      <c r="GU16">
+        <v>82</v>
+      </c>
+      <c r="GV16">
+        <v>68</v>
+      </c>
+      <c r="GW16">
+        <v>35</v>
+      </c>
+      <c r="GX16">
+        <v>22</v>
+      </c>
+      <c r="GY16">
+        <v>38</v>
+      </c>
+      <c r="GZ16">
+        <v>41</v>
+      </c>
+      <c r="HA16">
+        <v>83</v>
+      </c>
     </row>
-    <row r="17" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:209" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -10148,20 +11060,20 @@
       <c r="EW17">
         <v>30</v>
       </c>
-      <c r="EX17" s="2">
+      <c r="EX17">
         <v>41</v>
       </c>
-      <c r="EY17" s="2">
-        <v>0</v>
-      </c>
-      <c r="EZ17" s="2">
-        <v>0</v>
+      <c r="EY17">
+        <v>0</v>
+      </c>
+      <c r="EZ17">
+        <v>27</v>
       </c>
       <c r="FA17">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="FB17">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="FC17">
         <v>27</v>
@@ -10259,8 +11171,65 @@
       <c r="GH17">
         <v>64</v>
       </c>
+      <c r="GI17">
+        <v>24</v>
+      </c>
+      <c r="GJ17">
+        <v>24</v>
+      </c>
+      <c r="GK17">
+        <v>13</v>
+      </c>
+      <c r="GL17">
+        <v>28</v>
+      </c>
+      <c r="GM17">
+        <v>53</v>
+      </c>
+      <c r="GN17">
+        <v>42</v>
+      </c>
+      <c r="GO17">
+        <v>60</v>
+      </c>
+      <c r="GP17">
+        <v>17</v>
+      </c>
+      <c r="GQ17">
+        <v>26</v>
+      </c>
+      <c r="GR17">
+        <v>8</v>
+      </c>
+      <c r="GS17">
+        <v>21</v>
+      </c>
+      <c r="GT17">
+        <v>56</v>
+      </c>
+      <c r="GU17">
+        <v>42</v>
+      </c>
+      <c r="GV17">
+        <v>39</v>
+      </c>
+      <c r="GW17">
+        <v>31</v>
+      </c>
+      <c r="GX17">
+        <v>23</v>
+      </c>
+      <c r="GY17">
+        <v>27</v>
+      </c>
+      <c r="GZ17">
+        <v>16</v>
+      </c>
+      <c r="HA17">
+        <v>77</v>
+      </c>
     </row>
-    <row r="18" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:209" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -10720,20 +11689,20 @@
       <c r="EW18">
         <v>21</v>
       </c>
-      <c r="EX18" s="2">
+      <c r="EX18">
         <v>18</v>
       </c>
-      <c r="EY18" s="2">
+      <c r="EY18">
         <v>37</v>
       </c>
-      <c r="EZ18" s="2">
-        <v>0</v>
+      <c r="EZ18">
+        <v>24</v>
       </c>
       <c r="FA18">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="FB18">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="FC18">
         <v>23</v>
@@ -10831,8 +11800,65 @@
       <c r="GH18">
         <v>48</v>
       </c>
+      <c r="GI18">
+        <v>34</v>
+      </c>
+      <c r="GJ18">
+        <v>20</v>
+      </c>
+      <c r="GK18">
+        <v>5</v>
+      </c>
+      <c r="GL18">
+        <v>30</v>
+      </c>
+      <c r="GM18">
+        <v>39</v>
+      </c>
+      <c r="GN18">
+        <v>37</v>
+      </c>
+      <c r="GO18">
+        <v>32</v>
+      </c>
+      <c r="GP18">
+        <v>20</v>
+      </c>
+      <c r="GQ18">
+        <v>18</v>
+      </c>
+      <c r="GR18">
+        <v>7</v>
+      </c>
+      <c r="GS18">
+        <v>20</v>
+      </c>
+      <c r="GT18">
+        <v>26</v>
+      </c>
+      <c r="GU18">
+        <v>41</v>
+      </c>
+      <c r="GV18">
+        <v>39</v>
+      </c>
+      <c r="GW18">
+        <v>30</v>
+      </c>
+      <c r="GX18">
+        <v>34</v>
+      </c>
+      <c r="GY18">
+        <v>5</v>
+      </c>
+      <c r="GZ18">
+        <v>19</v>
+      </c>
+      <c r="HA18">
+        <v>43</v>
+      </c>
     </row>
-    <row r="19" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:209" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -11292,20 +12318,20 @@
       <c r="EW19">
         <v>19</v>
       </c>
-      <c r="EX19" s="2">
+      <c r="EX19">
         <v>37</v>
       </c>
-      <c r="EY19" s="2">
+      <c r="EY19">
         <v>33</v>
       </c>
-      <c r="EZ19" s="2">
-        <v>0</v>
+      <c r="EZ19">
+        <v>30</v>
       </c>
       <c r="FA19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="FB19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="FC19">
         <v>20</v>
@@ -11403,8 +12429,65 @@
       <c r="GH19">
         <v>34</v>
       </c>
+      <c r="GI19">
+        <v>24</v>
+      </c>
+      <c r="GJ19">
+        <v>73</v>
+      </c>
+      <c r="GK19">
+        <v>21</v>
+      </c>
+      <c r="GL19">
+        <v>18</v>
+      </c>
+      <c r="GM19">
+        <v>17</v>
+      </c>
+      <c r="GN19">
+        <v>37</v>
+      </c>
+      <c r="GO19">
+        <v>32</v>
+      </c>
+      <c r="GP19">
+        <v>69</v>
+      </c>
+      <c r="GQ19">
+        <v>35</v>
+      </c>
+      <c r="GR19">
+        <v>25</v>
+      </c>
+      <c r="GS19">
+        <v>0</v>
+      </c>
+      <c r="GT19">
+        <v>58</v>
+      </c>
+      <c r="GU19">
+        <v>35</v>
+      </c>
+      <c r="GV19">
+        <v>77</v>
+      </c>
+      <c r="GW19">
+        <v>33</v>
+      </c>
+      <c r="GX19">
+        <v>78</v>
+      </c>
+      <c r="GY19">
+        <v>2</v>
+      </c>
+      <c r="GZ19">
+        <v>24</v>
+      </c>
+      <c r="HA19">
+        <v>50</v>
+      </c>
     </row>
-    <row r="20" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:209" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -11864,20 +12947,20 @@
       <c r="EW20">
         <v>30</v>
       </c>
-      <c r="EX20" s="2">
+      <c r="EX20">
         <v>27</v>
       </c>
-      <c r="EY20" s="2">
+      <c r="EY20">
         <v>29</v>
       </c>
-      <c r="EZ20" s="2">
-        <v>0</v>
+      <c r="EZ20">
+        <v>19</v>
       </c>
       <c r="FA20">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="FB20">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="FC20">
         <v>34</v>
@@ -11975,8 +13058,65 @@
       <c r="GH20">
         <v>23</v>
       </c>
+      <c r="GI20">
+        <v>19</v>
+      </c>
+      <c r="GJ20">
+        <v>23</v>
+      </c>
+      <c r="GK20">
+        <v>14</v>
+      </c>
+      <c r="GL20">
+        <v>22</v>
+      </c>
+      <c r="GM20">
+        <v>53</v>
+      </c>
+      <c r="GN20">
+        <v>21</v>
+      </c>
+      <c r="GO20">
+        <v>40</v>
+      </c>
+      <c r="GP20">
+        <v>22</v>
+      </c>
+      <c r="GQ20">
+        <v>37</v>
+      </c>
+      <c r="GR20">
+        <v>22</v>
+      </c>
+      <c r="GS20">
+        <v>16</v>
+      </c>
+      <c r="GT20">
+        <v>60</v>
+      </c>
+      <c r="GU20">
+        <v>41</v>
+      </c>
+      <c r="GV20">
+        <v>22</v>
+      </c>
+      <c r="GW20">
+        <v>45</v>
+      </c>
+      <c r="GX20">
+        <v>28</v>
+      </c>
+      <c r="GY20">
+        <v>29</v>
+      </c>
+      <c r="GZ20">
+        <v>15</v>
+      </c>
+      <c r="HA20">
+        <v>65</v>
+      </c>
     </row>
-    <row r="21" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:209" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -12436,20 +13576,20 @@
       <c r="EW21">
         <v>33</v>
       </c>
-      <c r="EX21" s="2">
+      <c r="EX21">
         <v>47</v>
       </c>
-      <c r="EY21" s="2">
+      <c r="EY21">
         <v>22</v>
       </c>
-      <c r="EZ21" s="2">
-        <v>0</v>
+      <c r="EZ21">
+        <v>26</v>
       </c>
       <c r="FA21">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="FB21">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="FC21">
         <v>33</v>
@@ -12547,8 +13687,65 @@
       <c r="GH21">
         <v>27</v>
       </c>
+      <c r="GI21">
+        <v>22</v>
+      </c>
+      <c r="GJ21">
+        <v>53</v>
+      </c>
+      <c r="GK21">
+        <v>15</v>
+      </c>
+      <c r="GL21">
+        <v>15</v>
+      </c>
+      <c r="GM21">
+        <v>30</v>
+      </c>
+      <c r="GN21">
+        <v>22</v>
+      </c>
+      <c r="GO21">
+        <v>27</v>
+      </c>
+      <c r="GP21">
+        <v>39</v>
+      </c>
+      <c r="GQ21">
+        <v>18</v>
+      </c>
+      <c r="GR21">
+        <v>24</v>
+      </c>
+      <c r="GS21">
+        <v>11</v>
+      </c>
+      <c r="GT21">
+        <v>23</v>
+      </c>
+      <c r="GU21">
+        <v>25</v>
+      </c>
+      <c r="GV21">
+        <v>33</v>
+      </c>
+      <c r="GW21">
+        <v>18</v>
+      </c>
+      <c r="GX21">
+        <v>21</v>
+      </c>
+      <c r="GY21">
+        <v>8</v>
+      </c>
+      <c r="GZ21">
+        <v>18</v>
+      </c>
+      <c r="HA21">
+        <v>22</v>
+      </c>
     </row>
-    <row r="22" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:209" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -13008,20 +14205,20 @@
       <c r="EW22">
         <v>11</v>
       </c>
-      <c r="EX22" s="2">
+      <c r="EX22">
         <v>18</v>
       </c>
-      <c r="EY22" s="2">
-        <v>0</v>
-      </c>
-      <c r="EZ22" s="2">
-        <v>0</v>
+      <c r="EY22">
+        <v>0</v>
+      </c>
+      <c r="EZ22">
+        <v>25</v>
       </c>
       <c r="FA22">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="FB22">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="FC22">
         <v>22</v>
@@ -13119,8 +14316,65 @@
       <c r="GH22">
         <v>11</v>
       </c>
+      <c r="GI22">
+        <v>12</v>
+      </c>
+      <c r="GJ22">
+        <v>21</v>
+      </c>
+      <c r="GK22">
+        <v>2</v>
+      </c>
+      <c r="GL22">
+        <v>24</v>
+      </c>
+      <c r="GM22">
+        <v>35</v>
+      </c>
+      <c r="GN22">
+        <v>23</v>
+      </c>
+      <c r="GO22">
+        <v>13</v>
+      </c>
+      <c r="GP22">
+        <v>19</v>
+      </c>
+      <c r="GQ22">
+        <v>23</v>
+      </c>
+      <c r="GR22">
+        <v>6</v>
+      </c>
+      <c r="GS22">
+        <v>7</v>
+      </c>
+      <c r="GT22">
+        <v>34</v>
+      </c>
+      <c r="GU22">
+        <v>50</v>
+      </c>
+      <c r="GV22">
+        <v>25</v>
+      </c>
+      <c r="GW22">
+        <v>16</v>
+      </c>
+      <c r="GX22">
+        <v>3</v>
+      </c>
+      <c r="GY22">
+        <v>0</v>
+      </c>
+      <c r="GZ22">
+        <v>22</v>
+      </c>
+      <c r="HA22">
+        <v>42</v>
+      </c>
     </row>
-    <row r="23" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:209" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -13580,20 +14834,20 @@
       <c r="EW23">
         <v>20</v>
       </c>
-      <c r="EX23" s="2">
+      <c r="EX23">
         <v>43</v>
       </c>
-      <c r="EY23" s="2">
-        <v>0</v>
-      </c>
-      <c r="EZ23" s="2">
-        <v>0</v>
+      <c r="EY23">
+        <v>0</v>
+      </c>
+      <c r="EZ23">
+        <v>34</v>
       </c>
       <c r="FA23">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="FB23">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="FC23">
         <v>39</v>
@@ -13691,8 +14945,65 @@
       <c r="GH23">
         <v>21</v>
       </c>
+      <c r="GI23">
+        <v>0</v>
+      </c>
+      <c r="GJ23">
+        <v>19</v>
+      </c>
+      <c r="GK23">
+        <v>11</v>
+      </c>
+      <c r="GL23">
+        <v>12</v>
+      </c>
+      <c r="GM23">
+        <v>19</v>
+      </c>
+      <c r="GN23">
+        <v>16</v>
+      </c>
+      <c r="GO23">
+        <v>10</v>
+      </c>
+      <c r="GP23">
+        <v>13</v>
+      </c>
+      <c r="GQ23">
+        <v>11</v>
+      </c>
+      <c r="GR23">
+        <v>4</v>
+      </c>
+      <c r="GS23">
+        <v>15</v>
+      </c>
+      <c r="GT23">
+        <v>8</v>
+      </c>
+      <c r="GU23">
+        <v>15</v>
+      </c>
+      <c r="GV23">
+        <v>21</v>
+      </c>
+      <c r="GW23">
+        <v>20</v>
+      </c>
+      <c r="GX23">
+        <v>7</v>
+      </c>
+      <c r="GY23">
+        <v>7</v>
+      </c>
+      <c r="GZ23">
+        <v>14</v>
+      </c>
+      <c r="HA23">
+        <v>24</v>
+      </c>
     </row>
-    <row r="24" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:209" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -14152,20 +15463,20 @@
       <c r="EW24">
         <v>12</v>
       </c>
-      <c r="EX24" s="2">
+      <c r="EX24">
         <v>12</v>
       </c>
-      <c r="EY24" s="2">
-        <v>0</v>
-      </c>
-      <c r="EZ24" s="2">
-        <v>0</v>
+      <c r="EY24">
+        <v>0</v>
+      </c>
+      <c r="EZ24">
+        <v>16</v>
       </c>
       <c r="FA24">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="FB24">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="FC24">
         <v>11</v>
@@ -14263,8 +15574,65 @@
       <c r="GH24">
         <v>15</v>
       </c>
+      <c r="GI24">
+        <v>21</v>
+      </c>
+      <c r="GJ24">
+        <v>27</v>
+      </c>
+      <c r="GK24">
+        <v>10</v>
+      </c>
+      <c r="GL24">
+        <v>26</v>
+      </c>
+      <c r="GM24">
+        <v>16</v>
+      </c>
+      <c r="GN24">
+        <v>32</v>
+      </c>
+      <c r="GO24">
+        <v>53</v>
+      </c>
+      <c r="GP24">
+        <v>29</v>
+      </c>
+      <c r="GQ24">
+        <v>28</v>
+      </c>
+      <c r="GR24">
+        <v>10</v>
+      </c>
+      <c r="GS24">
+        <v>15</v>
+      </c>
+      <c r="GT24">
+        <v>39</v>
+      </c>
+      <c r="GU24">
+        <v>30</v>
+      </c>
+      <c r="GV24">
+        <v>37</v>
+      </c>
+      <c r="GW24">
+        <v>30</v>
+      </c>
+      <c r="GX24">
+        <v>21</v>
+      </c>
+      <c r="GY24">
+        <v>11</v>
+      </c>
+      <c r="GZ24">
+        <v>18</v>
+      </c>
+      <c r="HA24">
+        <v>29</v>
+      </c>
     </row>
-    <row r="25" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:209" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -14724,20 +16092,20 @@
       <c r="EW25">
         <v>13</v>
       </c>
-      <c r="EX25" s="2">
+      <c r="EX25">
         <v>11</v>
       </c>
-      <c r="EY25" s="2">
-        <v>0</v>
-      </c>
-      <c r="EZ25" s="2">
-        <v>0</v>
+      <c r="EY25">
+        <v>0</v>
+      </c>
+      <c r="EZ25">
+        <v>14</v>
       </c>
       <c r="FA25">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="FB25">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="FC25">
         <v>10</v>
@@ -14835,8 +16203,65 @@
       <c r="GH25">
         <v>6</v>
       </c>
+      <c r="GI25">
+        <v>25</v>
+      </c>
+      <c r="GJ25">
+        <v>14</v>
+      </c>
+      <c r="GK25">
+        <v>10</v>
+      </c>
+      <c r="GL25">
+        <v>7</v>
+      </c>
+      <c r="GM25">
+        <v>15</v>
+      </c>
+      <c r="GN25">
+        <v>18</v>
+      </c>
+      <c r="GO25">
+        <v>10</v>
+      </c>
+      <c r="GP25">
+        <v>12</v>
+      </c>
+      <c r="GQ25">
+        <v>16</v>
+      </c>
+      <c r="GR25">
+        <v>7</v>
+      </c>
+      <c r="GS25">
+        <v>5</v>
+      </c>
+      <c r="GT25">
+        <v>12</v>
+      </c>
+      <c r="GU25">
+        <v>12</v>
+      </c>
+      <c r="GV25">
+        <v>11</v>
+      </c>
+      <c r="GW25">
+        <v>8</v>
+      </c>
+      <c r="GX25">
+        <v>14</v>
+      </c>
+      <c r="GY25">
+        <v>6</v>
+      </c>
+      <c r="GZ25">
+        <v>12</v>
+      </c>
+      <c r="HA25">
+        <v>22</v>
+      </c>
     </row>
-    <row r="26" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:209" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -15296,20 +16721,20 @@
       <c r="EW26">
         <v>27</v>
       </c>
-      <c r="EX26" s="2">
+      <c r="EX26">
         <v>19</v>
       </c>
-      <c r="EY26" s="2">
-        <v>0</v>
-      </c>
-      <c r="EZ26" s="2">
-        <v>0</v>
+      <c r="EY26">
+        <v>0</v>
+      </c>
+      <c r="EZ26">
+        <v>25</v>
       </c>
       <c r="FA26">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="FB26">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="FC26">
         <v>13</v>
@@ -15407,8 +16832,65 @@
       <c r="GH26">
         <v>17</v>
       </c>
+      <c r="GI26">
+        <v>14</v>
+      </c>
+      <c r="GJ26">
+        <v>20</v>
+      </c>
+      <c r="GK26">
+        <v>3</v>
+      </c>
+      <c r="GL26">
+        <v>11</v>
+      </c>
+      <c r="GM26">
+        <v>7</v>
+      </c>
+      <c r="GN26">
+        <v>25</v>
+      </c>
+      <c r="GO26">
+        <v>17</v>
+      </c>
+      <c r="GP26">
+        <v>24</v>
+      </c>
+      <c r="GQ26">
+        <v>21</v>
+      </c>
+      <c r="GR26">
+        <v>14</v>
+      </c>
+      <c r="GS26">
+        <v>17</v>
+      </c>
+      <c r="GT26">
+        <v>55</v>
+      </c>
+      <c r="GU26">
+        <v>49</v>
+      </c>
+      <c r="GV26">
+        <v>24</v>
+      </c>
+      <c r="GW26">
+        <v>20</v>
+      </c>
+      <c r="GX26">
+        <v>11</v>
+      </c>
+      <c r="GY26">
+        <v>3</v>
+      </c>
+      <c r="GZ26">
+        <v>17</v>
+      </c>
+      <c r="HA26">
+        <v>9</v>
+      </c>
     </row>
-    <row r="27" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:209" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -15868,20 +17350,20 @@
       <c r="EW27">
         <v>11</v>
       </c>
-      <c r="EX27" s="2">
+      <c r="EX27">
         <v>7</v>
       </c>
-      <c r="EY27" s="2">
-        <v>3</v>
-      </c>
-      <c r="EZ27" s="2">
-        <v>0</v>
+      <c r="EY27">
+        <v>3</v>
+      </c>
+      <c r="EZ27">
+        <v>4</v>
       </c>
       <c r="FA27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="FB27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="FC27">
         <v>5</v>
@@ -15979,8 +17461,65 @@
       <c r="GH27">
         <v>9</v>
       </c>
+      <c r="GI27">
+        <v>3</v>
+      </c>
+      <c r="GJ27">
+        <v>11</v>
+      </c>
+      <c r="GK27">
+        <v>0</v>
+      </c>
+      <c r="GL27">
+        <v>7</v>
+      </c>
+      <c r="GM27">
+        <v>10</v>
+      </c>
+      <c r="GN27">
+        <v>2</v>
+      </c>
+      <c r="GO27">
+        <v>20</v>
+      </c>
+      <c r="GP27">
+        <v>10</v>
+      </c>
+      <c r="GQ27">
+        <v>2</v>
+      </c>
+      <c r="GR27">
+        <v>0</v>
+      </c>
+      <c r="GS27">
+        <v>26</v>
+      </c>
+      <c r="GT27">
+        <v>16</v>
+      </c>
+      <c r="GU27">
+        <v>11</v>
+      </c>
+      <c r="GV27">
+        <v>9</v>
+      </c>
+      <c r="GW27">
+        <v>18</v>
+      </c>
+      <c r="GX27">
+        <v>1</v>
+      </c>
+      <c r="GY27">
+        <v>28</v>
+      </c>
+      <c r="GZ27">
+        <v>5</v>
+      </c>
+      <c r="HA27">
+        <v>8</v>
+      </c>
     </row>
-    <row r="28" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:209" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -16440,20 +17979,20 @@
       <c r="EW28">
         <v>17</v>
       </c>
-      <c r="EX28" s="2">
+      <c r="EX28">
         <v>24</v>
       </c>
-      <c r="EY28" s="2">
-        <v>0</v>
-      </c>
-      <c r="EZ28" s="2">
-        <v>0</v>
+      <c r="EY28">
+        <v>0</v>
+      </c>
+      <c r="EZ28">
+        <v>23</v>
       </c>
       <c r="FA28">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="FB28">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="FC28">
         <v>21</v>
@@ -16551,8 +18090,65 @@
       <c r="GH28">
         <v>11</v>
       </c>
+      <c r="GI28">
+        <v>15</v>
+      </c>
+      <c r="GJ28">
+        <v>16</v>
+      </c>
+      <c r="GK28">
+        <v>38</v>
+      </c>
+      <c r="GL28">
+        <v>12</v>
+      </c>
+      <c r="GM28">
+        <v>17</v>
+      </c>
+      <c r="GN28">
+        <v>40</v>
+      </c>
+      <c r="GO28">
+        <v>59</v>
+      </c>
+      <c r="GP28">
+        <v>21</v>
+      </c>
+      <c r="GQ28">
+        <v>24</v>
+      </c>
+      <c r="GR28">
+        <v>37</v>
+      </c>
+      <c r="GS28">
+        <v>31</v>
+      </c>
+      <c r="GT28">
+        <v>83</v>
+      </c>
+      <c r="GU28">
+        <v>83</v>
+      </c>
+      <c r="GV28">
+        <v>30</v>
+      </c>
+      <c r="GW28">
+        <v>11</v>
+      </c>
+      <c r="GX28">
+        <v>49</v>
+      </c>
+      <c r="GY28">
+        <v>46</v>
+      </c>
+      <c r="GZ28">
+        <v>0</v>
+      </c>
+      <c r="HA28">
+        <v>37</v>
+      </c>
     </row>
-    <row r="29" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:209" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -17012,20 +18608,20 @@
       <c r="EW29">
         <v>12</v>
       </c>
-      <c r="EX29" s="2">
+      <c r="EX29">
         <v>15</v>
       </c>
-      <c r="EY29" s="2">
-        <v>0</v>
-      </c>
-      <c r="EZ29" s="2">
-        <v>0</v>
+      <c r="EY29">
+        <v>0</v>
+      </c>
+      <c r="EZ29">
+        <v>30</v>
       </c>
       <c r="FA29">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="FB29">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="FC29">
         <v>11</v>
@@ -17123,8 +18719,65 @@
       <c r="GH29">
         <v>48</v>
       </c>
+      <c r="GI29">
+        <v>15</v>
+      </c>
+      <c r="GJ29">
+        <v>20</v>
+      </c>
+      <c r="GK29">
+        <v>21</v>
+      </c>
+      <c r="GL29">
+        <v>25</v>
+      </c>
+      <c r="GM29">
+        <v>26</v>
+      </c>
+      <c r="GN29">
+        <v>25</v>
+      </c>
+      <c r="GO29">
+        <v>48</v>
+      </c>
+      <c r="GP29">
+        <v>41</v>
+      </c>
+      <c r="GQ29">
+        <v>19</v>
+      </c>
+      <c r="GR29">
+        <v>28</v>
+      </c>
+      <c r="GS29">
+        <v>35</v>
+      </c>
+      <c r="GT29">
+        <v>53</v>
+      </c>
+      <c r="GU29">
+        <v>27</v>
+      </c>
+      <c r="GV29">
+        <v>0</v>
+      </c>
+      <c r="GW29">
+        <v>71</v>
+      </c>
+      <c r="GX29">
+        <v>11</v>
+      </c>
+      <c r="GY29">
+        <v>30</v>
+      </c>
+      <c r="GZ29">
+        <v>27</v>
+      </c>
+      <c r="HA29">
+        <v>45</v>
+      </c>
     </row>
-    <row r="30" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:209" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -17584,20 +19237,20 @@
       <c r="EW30">
         <v>17</v>
       </c>
-      <c r="EX30" s="2">
+      <c r="EX30">
         <v>17</v>
       </c>
-      <c r="EY30" s="2">
+      <c r="EY30">
         <v>13</v>
       </c>
-      <c r="EZ30" s="2">
-        <v>0</v>
+      <c r="EZ30">
+        <v>10</v>
       </c>
       <c r="FA30">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="FB30">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="FC30">
         <v>15</v>
@@ -17695,8 +19348,65 @@
       <c r="GH30">
         <v>23</v>
       </c>
+      <c r="GI30">
+        <v>14</v>
+      </c>
+      <c r="GJ30">
+        <v>13</v>
+      </c>
+      <c r="GK30">
+        <v>0</v>
+      </c>
+      <c r="GL30">
+        <v>13</v>
+      </c>
+      <c r="GM30">
+        <v>10</v>
+      </c>
+      <c r="GN30">
+        <v>6</v>
+      </c>
+      <c r="GO30">
+        <v>19</v>
+      </c>
+      <c r="GP30">
+        <v>9</v>
+      </c>
+      <c r="GQ30">
+        <v>19</v>
+      </c>
+      <c r="GR30">
+        <v>0</v>
+      </c>
+      <c r="GS30">
+        <v>10</v>
+      </c>
+      <c r="GT30">
+        <v>17</v>
+      </c>
+      <c r="GU30">
+        <v>16</v>
+      </c>
+      <c r="GV30">
+        <v>17</v>
+      </c>
+      <c r="GW30">
+        <v>8</v>
+      </c>
+      <c r="GX30">
+        <v>5</v>
+      </c>
+      <c r="GY30">
+        <v>1</v>
+      </c>
+      <c r="GZ30">
+        <v>14</v>
+      </c>
+      <c r="HA30">
+        <v>13</v>
+      </c>
     </row>
-    <row r="31" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:209" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -18156,20 +19866,20 @@
       <c r="EW31">
         <v>17</v>
       </c>
-      <c r="EX31" s="2">
+      <c r="EX31">
         <v>11</v>
       </c>
-      <c r="EY31" s="2">
-        <v>0</v>
-      </c>
-      <c r="EZ31" s="2">
-        <v>0</v>
+      <c r="EY31">
+        <v>0</v>
+      </c>
+      <c r="EZ31">
+        <v>26</v>
       </c>
       <c r="FA31">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="FB31">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="FC31">
         <v>24</v>
@@ -18267,8 +19977,65 @@
       <c r="GH31">
         <v>14</v>
       </c>
+      <c r="GI31">
+        <v>7</v>
+      </c>
+      <c r="GJ31">
+        <v>5</v>
+      </c>
+      <c r="GK31">
+        <v>4</v>
+      </c>
+      <c r="GL31">
+        <v>7</v>
+      </c>
+      <c r="GM31">
+        <v>4</v>
+      </c>
+      <c r="GN31">
+        <v>8</v>
+      </c>
+      <c r="GO31">
+        <v>5</v>
+      </c>
+      <c r="GP31">
+        <v>12</v>
+      </c>
+      <c r="GQ31">
+        <v>6</v>
+      </c>
+      <c r="GR31">
+        <v>3</v>
+      </c>
+      <c r="GS31">
+        <v>10</v>
+      </c>
+      <c r="GT31">
+        <v>11</v>
+      </c>
+      <c r="GU31">
+        <v>15</v>
+      </c>
+      <c r="GV31">
+        <v>24</v>
+      </c>
+      <c r="GW31">
+        <v>8</v>
+      </c>
+      <c r="GX31">
+        <v>5</v>
+      </c>
+      <c r="GY31">
+        <v>8</v>
+      </c>
+      <c r="GZ31">
+        <v>10</v>
+      </c>
+      <c r="HA31">
+        <v>8</v>
+      </c>
     </row>
-    <row r="32" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:209" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -18728,20 +20495,20 @@
       <c r="EW32">
         <v>4</v>
       </c>
-      <c r="EX32" s="2">
+      <c r="EX32">
         <v>17</v>
       </c>
-      <c r="EY32" s="2">
+      <c r="EY32">
         <v>22</v>
       </c>
-      <c r="EZ32" s="2">
-        <v>0</v>
+      <c r="EZ32">
+        <v>6</v>
       </c>
       <c r="FA32">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="FB32">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="FC32">
         <v>8</v>
@@ -18774,10 +20541,10 @@
         <v>12</v>
       </c>
       <c r="FM32">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="FN32">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="FO32">
         <v>4</v>
@@ -18786,13 +20553,13 @@
         <v>13</v>
       </c>
       <c r="FQ32">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="FR32">
         <v>14</v>
       </c>
       <c r="FS32">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="FT32">
         <v>21</v>
@@ -18834,13 +20601,70 @@
         <v>26</v>
       </c>
       <c r="GG32">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="GH32">
         <v>8</v>
       </c>
+      <c r="GI32">
+        <v>8</v>
+      </c>
+      <c r="GJ32">
+        <v>12</v>
+      </c>
+      <c r="GK32">
+        <v>12</v>
+      </c>
+      <c r="GL32">
+        <v>14</v>
+      </c>
+      <c r="GM32">
+        <v>28</v>
+      </c>
+      <c r="GN32">
+        <v>24</v>
+      </c>
+      <c r="GO32">
+        <v>29</v>
+      </c>
+      <c r="GP32">
+        <v>25</v>
+      </c>
+      <c r="GQ32">
+        <v>17</v>
+      </c>
+      <c r="GR32">
+        <v>11</v>
+      </c>
+      <c r="GS32">
+        <v>17</v>
+      </c>
+      <c r="GT32">
+        <v>40</v>
+      </c>
+      <c r="GU32">
+        <v>24</v>
+      </c>
+      <c r="GV32">
+        <v>25</v>
+      </c>
+      <c r="GW32">
+        <v>22</v>
+      </c>
+      <c r="GX32">
+        <v>14</v>
+      </c>
+      <c r="GY32">
+        <v>22</v>
+      </c>
+      <c r="GZ32">
+        <v>23</v>
+      </c>
+      <c r="HA32">
+        <v>43</v>
+      </c>
     </row>
-    <row r="33" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:209" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -19300,20 +21124,20 @@
       <c r="EW33">
         <v>5</v>
       </c>
-      <c r="EX33" s="2">
+      <c r="EX33">
         <v>9</v>
       </c>
-      <c r="EY33" s="2">
-        <v>0</v>
-      </c>
-      <c r="EZ33" s="2">
-        <v>0</v>
+      <c r="EY33">
+        <v>0</v>
+      </c>
+      <c r="EZ33">
+        <v>8</v>
       </c>
       <c r="FA33">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="FB33">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="FC33">
         <v>20</v>
@@ -19411,8 +21235,65 @@
       <c r="GH33">
         <v>30</v>
       </c>
+      <c r="GI33">
+        <v>2</v>
+      </c>
+      <c r="GJ33">
+        <v>1</v>
+      </c>
+      <c r="GK33">
+        <v>8</v>
+      </c>
+      <c r="GL33">
+        <v>20</v>
+      </c>
+      <c r="GM33">
+        <v>1</v>
+      </c>
+      <c r="GN33">
+        <v>6</v>
+      </c>
+      <c r="GO33">
+        <v>7</v>
+      </c>
+      <c r="GP33">
+        <v>4</v>
+      </c>
+      <c r="GQ33">
+        <v>18</v>
+      </c>
+      <c r="GR33">
+        <v>0</v>
+      </c>
+      <c r="GS33">
+        <v>10</v>
+      </c>
+      <c r="GT33">
+        <v>3</v>
+      </c>
+      <c r="GU33">
+        <v>21</v>
+      </c>
+      <c r="GV33">
+        <v>19</v>
+      </c>
+      <c r="GW33">
+        <v>12</v>
+      </c>
+      <c r="GX33">
+        <v>20</v>
+      </c>
+      <c r="GY33">
+        <v>8</v>
+      </c>
+      <c r="GZ33">
+        <v>13</v>
+      </c>
+      <c r="HA33">
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:209" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -19872,20 +21753,20 @@
       <c r="EW34">
         <v>2</v>
       </c>
-      <c r="EX34" s="2">
+      <c r="EX34">
         <v>14</v>
       </c>
-      <c r="EY34" s="2">
+      <c r="EY34">
         <v>12</v>
       </c>
-      <c r="EZ34" s="2">
-        <v>0</v>
+      <c r="EZ34">
+        <v>7</v>
       </c>
       <c r="FA34">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="FB34">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="FC34">
         <v>18</v>
@@ -19983,8 +21864,65 @@
       <c r="GH34">
         <v>4</v>
       </c>
+      <c r="GI34">
+        <v>27</v>
+      </c>
+      <c r="GJ34">
+        <v>1</v>
+      </c>
+      <c r="GK34">
+        <v>16</v>
+      </c>
+      <c r="GL34">
+        <v>22</v>
+      </c>
+      <c r="GM34">
+        <v>20</v>
+      </c>
+      <c r="GN34">
+        <v>2</v>
+      </c>
+      <c r="GO34">
+        <v>31</v>
+      </c>
+      <c r="GP34">
+        <v>9</v>
+      </c>
+      <c r="GQ34">
+        <v>11</v>
+      </c>
+      <c r="GR34">
+        <v>0</v>
+      </c>
+      <c r="GS34">
+        <v>9</v>
+      </c>
+      <c r="GT34">
+        <v>25</v>
+      </c>
+      <c r="GU34">
+        <v>28</v>
+      </c>
+      <c r="GV34">
+        <v>33</v>
+      </c>
+      <c r="GW34">
+        <v>12</v>
+      </c>
+      <c r="GX34">
+        <v>13</v>
+      </c>
+      <c r="GY34">
+        <v>1</v>
+      </c>
+      <c r="GZ34">
+        <v>8</v>
+      </c>
+      <c r="HA34">
+        <v>22</v>
+      </c>
     </row>
-    <row r="35" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:209" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -20444,20 +22382,20 @@
       <c r="EW35">
         <v>11</v>
       </c>
-      <c r="EX35" s="2">
+      <c r="EX35">
         <v>15</v>
       </c>
-      <c r="EY35" s="2">
+      <c r="EY35">
         <v>20</v>
       </c>
-      <c r="EZ35" s="2">
-        <v>0</v>
+      <c r="EZ35">
+        <v>7</v>
       </c>
       <c r="FA35">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="FB35">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="FC35">
         <v>25</v>
@@ -20555,8 +22493,65 @@
       <c r="GH35">
         <v>58</v>
       </c>
+      <c r="GI35">
+        <v>16</v>
+      </c>
+      <c r="GJ35">
+        <v>7</v>
+      </c>
+      <c r="GK35">
+        <v>0</v>
+      </c>
+      <c r="GL35">
+        <v>30</v>
+      </c>
+      <c r="GM35">
+        <v>47</v>
+      </c>
+      <c r="GN35">
+        <v>9</v>
+      </c>
+      <c r="GO35">
+        <v>38</v>
+      </c>
+      <c r="GP35">
+        <v>19</v>
+      </c>
+      <c r="GQ35">
+        <v>9</v>
+      </c>
+      <c r="GR35">
+        <v>1</v>
+      </c>
+      <c r="GS35">
+        <v>27</v>
+      </c>
+      <c r="GT35">
+        <v>23</v>
+      </c>
+      <c r="GU35">
+        <v>26</v>
+      </c>
+      <c r="GV35">
+        <v>36</v>
+      </c>
+      <c r="GW35">
+        <v>29</v>
+      </c>
+      <c r="GX35">
+        <v>9</v>
+      </c>
+      <c r="GY35">
+        <v>5</v>
+      </c>
+      <c r="GZ35">
+        <v>44</v>
+      </c>
+      <c r="HA35">
+        <v>22</v>
+      </c>
     </row>
-    <row r="36" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:209" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -21016,20 +23011,20 @@
       <c r="EW36">
         <v>18</v>
       </c>
-      <c r="EX36" s="2">
+      <c r="EX36">
         <v>17</v>
       </c>
-      <c r="EY36" s="2">
-        <v>0</v>
-      </c>
-      <c r="EZ36" s="2">
-        <v>0</v>
+      <c r="EY36">
+        <v>0</v>
+      </c>
+      <c r="EZ36">
+        <v>8</v>
       </c>
       <c r="FA36">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="FB36">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="FC36">
         <v>15</v>
@@ -21127,8 +23122,65 @@
       <c r="GH36">
         <v>14</v>
       </c>
+      <c r="GI36">
+        <v>7</v>
+      </c>
+      <c r="GJ36">
+        <v>11</v>
+      </c>
+      <c r="GK36">
+        <v>9</v>
+      </c>
+      <c r="GL36">
+        <v>8</v>
+      </c>
+      <c r="GM36">
+        <v>6</v>
+      </c>
+      <c r="GN36">
+        <v>9</v>
+      </c>
+      <c r="GO36">
+        <v>4</v>
+      </c>
+      <c r="GP36">
+        <v>4</v>
+      </c>
+      <c r="GQ36">
+        <v>4</v>
+      </c>
+      <c r="GR36">
+        <v>5</v>
+      </c>
+      <c r="GS36">
+        <v>12</v>
+      </c>
+      <c r="GT36">
+        <v>11</v>
+      </c>
+      <c r="GU36">
+        <v>13</v>
+      </c>
+      <c r="GV36">
+        <v>15</v>
+      </c>
+      <c r="GW36">
+        <v>5</v>
+      </c>
+      <c r="GX36">
+        <v>7</v>
+      </c>
+      <c r="GY36">
+        <v>0</v>
+      </c>
+      <c r="GZ36">
+        <v>11</v>
+      </c>
+      <c r="HA36">
+        <v>7</v>
+      </c>
     </row>
-    <row r="37" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:209" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -21588,20 +23640,20 @@
       <c r="EW37">
         <v>3</v>
       </c>
-      <c r="EX37" s="2">
-        <v>1</v>
-      </c>
-      <c r="EY37" s="2">
-        <v>0</v>
-      </c>
-      <c r="EZ37" s="2">
-        <v>0</v>
+      <c r="EX37">
+        <v>1</v>
+      </c>
+      <c r="EY37">
+        <v>0</v>
+      </c>
+      <c r="EZ37">
+        <v>10</v>
       </c>
       <c r="FA37">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="FB37">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="FC37">
         <v>9</v>
@@ -21699,8 +23751,65 @@
       <c r="GH37">
         <v>23</v>
       </c>
+      <c r="GI37">
+        <v>26</v>
+      </c>
+      <c r="GJ37">
+        <v>8</v>
+      </c>
+      <c r="GK37">
+        <v>14</v>
+      </c>
+      <c r="GL37">
+        <v>5</v>
+      </c>
+      <c r="GM37">
+        <v>21</v>
+      </c>
+      <c r="GN37">
+        <v>20</v>
+      </c>
+      <c r="GO37">
+        <v>25</v>
+      </c>
+      <c r="GP37">
+        <v>13</v>
+      </c>
+      <c r="GQ37">
+        <v>8</v>
+      </c>
+      <c r="GR37">
+        <v>11</v>
+      </c>
+      <c r="GS37">
+        <v>9</v>
+      </c>
+      <c r="GT37">
+        <v>9</v>
+      </c>
+      <c r="GU37">
+        <v>19</v>
+      </c>
+      <c r="GV37">
+        <v>16</v>
+      </c>
+      <c r="GW37">
+        <v>22</v>
+      </c>
+      <c r="GX37">
+        <v>8</v>
+      </c>
+      <c r="GY37">
+        <v>5</v>
+      </c>
+      <c r="GZ37">
+        <v>0</v>
+      </c>
+      <c r="HA37">
+        <v>21</v>
+      </c>
     </row>
-    <row r="38" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:209" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -22160,20 +24269,20 @@
       <c r="EW38">
         <v>8</v>
       </c>
-      <c r="EX38" s="2">
+      <c r="EX38">
         <v>9</v>
       </c>
-      <c r="EY38" s="2">
-        <v>0</v>
-      </c>
-      <c r="EZ38" s="2">
-        <v>0</v>
+      <c r="EY38">
+        <v>0</v>
+      </c>
+      <c r="EZ38">
+        <v>8</v>
       </c>
       <c r="FA38">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="FB38">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="FC38">
         <v>11</v>
@@ -22271,8 +24380,65 @@
       <c r="GH38">
         <v>18</v>
       </c>
+      <c r="GI38">
+        <v>19</v>
+      </c>
+      <c r="GJ38">
+        <v>0</v>
+      </c>
+      <c r="GK38">
+        <v>26</v>
+      </c>
+      <c r="GL38">
+        <v>23</v>
+      </c>
+      <c r="GM38">
+        <v>26</v>
+      </c>
+      <c r="GN38">
+        <v>15</v>
+      </c>
+      <c r="GO38">
+        <v>14</v>
+      </c>
+      <c r="GP38">
+        <v>19</v>
+      </c>
+      <c r="GQ38">
+        <v>4</v>
+      </c>
+      <c r="GR38">
+        <v>21</v>
+      </c>
+      <c r="GS38">
+        <v>20</v>
+      </c>
+      <c r="GT38">
+        <v>20</v>
+      </c>
+      <c r="GU38">
+        <v>28</v>
+      </c>
+      <c r="GV38">
+        <v>28</v>
+      </c>
+      <c r="GW38">
+        <v>28</v>
+      </c>
+      <c r="GX38">
+        <v>5</v>
+      </c>
+      <c r="GY38">
+        <v>0</v>
+      </c>
+      <c r="GZ38">
+        <v>49</v>
+      </c>
+      <c r="HA38">
+        <v>35</v>
+      </c>
     </row>
-    <row r="39" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:209" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -22732,20 +24898,20 @@
       <c r="EW39">
         <v>3</v>
       </c>
-      <c r="EX39" s="2">
-        <v>1</v>
-      </c>
-      <c r="EY39" s="2">
+      <c r="EX39">
+        <v>1</v>
+      </c>
+      <c r="EY39">
         <v>13</v>
       </c>
-      <c r="EZ39" s="2">
-        <v>0</v>
+      <c r="EZ39">
+        <v>5</v>
       </c>
       <c r="FA39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="FB39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="FC39">
         <v>9</v>
@@ -22843,8 +25009,65 @@
       <c r="GH39">
         <v>4</v>
       </c>
+      <c r="GI39">
+        <v>12</v>
+      </c>
+      <c r="GJ39">
+        <v>12</v>
+      </c>
+      <c r="GK39">
+        <v>10</v>
+      </c>
+      <c r="GL39">
+        <v>7</v>
+      </c>
+      <c r="GM39">
+        <v>6</v>
+      </c>
+      <c r="GN39">
+        <v>9</v>
+      </c>
+      <c r="GO39">
+        <v>9</v>
+      </c>
+      <c r="GP39">
+        <v>6</v>
+      </c>
+      <c r="GQ39">
+        <v>8</v>
+      </c>
+      <c r="GR39">
+        <v>16</v>
+      </c>
+      <c r="GS39">
+        <v>7</v>
+      </c>
+      <c r="GT39">
+        <v>7</v>
+      </c>
+      <c r="GU39">
+        <v>9</v>
+      </c>
+      <c r="GV39">
+        <v>15</v>
+      </c>
+      <c r="GW39">
+        <v>9</v>
+      </c>
+      <c r="GX39">
+        <v>7</v>
+      </c>
+      <c r="GY39">
+        <v>14</v>
+      </c>
+      <c r="GZ39">
+        <v>19</v>
+      </c>
+      <c r="HA39">
+        <v>12</v>
+      </c>
     </row>
-    <row r="40" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:209" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -23304,20 +25527,20 @@
       <c r="EW40">
         <v>7</v>
       </c>
-      <c r="EX40" s="2">
-        <v>3</v>
-      </c>
-      <c r="EY40" s="2">
-        <v>0</v>
-      </c>
-      <c r="EZ40" s="2">
-        <v>0</v>
+      <c r="EX40">
+        <v>3</v>
+      </c>
+      <c r="EY40">
+        <v>0</v>
+      </c>
+      <c r="EZ40">
+        <v>8</v>
       </c>
       <c r="FA40">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="FB40">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="FC40">
         <v>1</v>
@@ -23415,8 +25638,65 @@
       <c r="GH40">
         <v>7</v>
       </c>
+      <c r="GI40">
+        <v>4</v>
+      </c>
+      <c r="GJ40">
+        <v>9</v>
+      </c>
+      <c r="GK40">
+        <v>3</v>
+      </c>
+      <c r="GL40">
+        <v>7</v>
+      </c>
+      <c r="GM40">
+        <v>6</v>
+      </c>
+      <c r="GN40">
+        <v>34</v>
+      </c>
+      <c r="GO40">
+        <v>11</v>
+      </c>
+      <c r="GP40">
+        <v>4</v>
+      </c>
+      <c r="GQ40">
+        <v>8</v>
+      </c>
+      <c r="GR40">
+        <v>3</v>
+      </c>
+      <c r="GS40">
+        <v>16</v>
+      </c>
+      <c r="GT40">
+        <v>16</v>
+      </c>
+      <c r="GU40">
+        <v>12</v>
+      </c>
+      <c r="GV40">
+        <v>15</v>
+      </c>
+      <c r="GW40">
+        <v>9</v>
+      </c>
+      <c r="GX40">
+        <v>15</v>
+      </c>
+      <c r="GY40">
+        <v>7</v>
+      </c>
+      <c r="GZ40">
+        <v>8</v>
+      </c>
+      <c r="HA40">
+        <v>12</v>
+      </c>
     </row>
-    <row r="41" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:209" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -23876,20 +26156,20 @@
       <c r="EW41">
         <v>4</v>
       </c>
-      <c r="EX41" s="2">
+      <c r="EX41">
         <v>6</v>
       </c>
-      <c r="EY41" s="2">
-        <v>0</v>
-      </c>
-      <c r="EZ41" s="2">
-        <v>0</v>
+      <c r="EY41">
+        <v>0</v>
+      </c>
+      <c r="EZ41">
+        <v>5</v>
       </c>
       <c r="FA41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="FB41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="FC41">
         <v>6</v>
@@ -23987,8 +26267,65 @@
       <c r="GH41">
         <v>10</v>
       </c>
+      <c r="GI41">
+        <v>7</v>
+      </c>
+      <c r="GJ41">
+        <v>5</v>
+      </c>
+      <c r="GK41">
+        <v>1</v>
+      </c>
+      <c r="GL41">
+        <v>11</v>
+      </c>
+      <c r="GM41">
+        <v>7</v>
+      </c>
+      <c r="GN41">
+        <v>12</v>
+      </c>
+      <c r="GO41">
+        <v>9</v>
+      </c>
+      <c r="GP41">
+        <v>13</v>
+      </c>
+      <c r="GQ41">
+        <v>14</v>
+      </c>
+      <c r="GR41">
+        <v>0</v>
+      </c>
+      <c r="GS41">
+        <v>10</v>
+      </c>
+      <c r="GT41">
+        <v>20</v>
+      </c>
+      <c r="GU41">
+        <v>11</v>
+      </c>
+      <c r="GV41">
+        <v>19</v>
+      </c>
+      <c r="GW41">
+        <v>18</v>
+      </c>
+      <c r="GX41">
+        <v>12</v>
+      </c>
+      <c r="GY41">
+        <v>1</v>
+      </c>
+      <c r="GZ41">
+        <v>10</v>
+      </c>
+      <c r="HA41">
+        <v>14</v>
+      </c>
     </row>
-    <row r="42" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:209" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -24448,20 +26785,20 @@
       <c r="EW42">
         <v>2</v>
       </c>
-      <c r="EX42" s="2">
-        <v>3</v>
-      </c>
-      <c r="EY42" s="2">
-        <v>0</v>
-      </c>
-      <c r="EZ42" s="2">
-        <v>0</v>
+      <c r="EX42">
+        <v>3</v>
+      </c>
+      <c r="EY42">
+        <v>0</v>
+      </c>
+      <c r="EZ42">
+        <v>3</v>
       </c>
       <c r="FA42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FB42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FC42">
         <v>2</v>
@@ -24559,8 +26896,65 @@
       <c r="GH42">
         <v>12</v>
       </c>
+      <c r="GI42">
+        <v>1</v>
+      </c>
+      <c r="GJ42">
+        <v>16</v>
+      </c>
+      <c r="GK42">
+        <v>0</v>
+      </c>
+      <c r="GL42">
+        <v>8</v>
+      </c>
+      <c r="GM42">
+        <v>18</v>
+      </c>
+      <c r="GN42">
+        <v>21</v>
+      </c>
+      <c r="GO42">
+        <v>8</v>
+      </c>
+      <c r="GP42">
+        <v>16</v>
+      </c>
+      <c r="GQ42">
+        <v>4</v>
+      </c>
+      <c r="GR42">
+        <v>0</v>
+      </c>
+      <c r="GS42">
+        <v>9</v>
+      </c>
+      <c r="GT42">
+        <v>20</v>
+      </c>
+      <c r="GU42">
+        <v>29</v>
+      </c>
+      <c r="GV42">
+        <v>10</v>
+      </c>
+      <c r="GW42">
+        <v>11</v>
+      </c>
+      <c r="GX42">
+        <v>12</v>
+      </c>
+      <c r="GY42">
+        <v>1</v>
+      </c>
+      <c r="GZ42">
+        <v>19</v>
+      </c>
+      <c r="HA42">
+        <v>14</v>
+      </c>
     </row>
-    <row r="43" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:209" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -25020,20 +27414,20 @@
       <c r="EW43">
         <v>32</v>
       </c>
-      <c r="EX43" s="2">
+      <c r="EX43">
         <v>45</v>
       </c>
-      <c r="EY43" s="2">
+      <c r="EY43">
         <v>27</v>
       </c>
-      <c r="EZ43" s="2">
-        <v>0</v>
+      <c r="EZ43">
+        <v>47</v>
       </c>
       <c r="FA43">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="FB43">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="FC43">
         <v>63</v>
@@ -25131,8 +27525,65 @@
       <c r="GH43">
         <v>53</v>
       </c>
+      <c r="GI43">
+        <v>59</v>
+      </c>
+      <c r="GJ43">
+        <v>105</v>
+      </c>
+      <c r="GK43">
+        <v>65</v>
+      </c>
+      <c r="GL43">
+        <v>14</v>
+      </c>
+      <c r="GM43">
+        <v>35</v>
+      </c>
+      <c r="GN43">
+        <v>82</v>
+      </c>
+      <c r="GO43">
+        <v>61</v>
+      </c>
+      <c r="GP43">
+        <v>37</v>
+      </c>
+      <c r="GQ43">
+        <v>47</v>
+      </c>
+      <c r="GR43">
+        <v>21</v>
+      </c>
+      <c r="GS43">
+        <v>43</v>
+      </c>
+      <c r="GT43">
+        <v>42</v>
+      </c>
+      <c r="GU43">
+        <v>63</v>
+      </c>
+      <c r="GV43">
+        <v>59</v>
+      </c>
+      <c r="GW43">
+        <v>59</v>
+      </c>
+      <c r="GX43">
+        <v>20</v>
+      </c>
+      <c r="GY43">
+        <v>36</v>
+      </c>
+      <c r="GZ43">
+        <v>56</v>
+      </c>
+      <c r="HA43">
+        <v>55</v>
+      </c>
     </row>
-    <row r="44" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:209" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -25592,20 +28043,20 @@
       <c r="EW44">
         <v>24</v>
       </c>
-      <c r="EX44" s="2">
+      <c r="EX44">
         <v>24</v>
       </c>
-      <c r="EY44" s="2">
-        <v>0</v>
-      </c>
-      <c r="EZ44" s="2">
-        <v>0</v>
+      <c r="EY44">
+        <v>0</v>
+      </c>
+      <c r="EZ44">
+        <v>28</v>
       </c>
       <c r="FA44">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="FB44">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="FC44">
         <v>28</v>
@@ -25702,6 +28153,63 @@
       </c>
       <c r="GH44">
         <v>11</v>
+      </c>
+      <c r="GI44">
+        <v>48</v>
+      </c>
+      <c r="GJ44">
+        <v>37</v>
+      </c>
+      <c r="GK44">
+        <v>6</v>
+      </c>
+      <c r="GL44">
+        <v>63</v>
+      </c>
+      <c r="GM44">
+        <v>38</v>
+      </c>
+      <c r="GN44">
+        <v>40</v>
+      </c>
+      <c r="GO44">
+        <v>49</v>
+      </c>
+      <c r="GP44">
+        <v>49</v>
+      </c>
+      <c r="GQ44">
+        <v>11</v>
+      </c>
+      <c r="GR44">
+        <v>15</v>
+      </c>
+      <c r="GS44">
+        <v>53</v>
+      </c>
+      <c r="GT44">
+        <v>65</v>
+      </c>
+      <c r="GU44">
+        <v>55</v>
+      </c>
+      <c r="GV44">
+        <v>33</v>
+      </c>
+      <c r="GW44">
+        <v>52</v>
+      </c>
+      <c r="GX44">
+        <v>19</v>
+      </c>
+      <c r="GY44">
+        <v>14</v>
+      </c>
+      <c r="GZ44">
+        <v>25</v>
+      </c>
+      <c r="HA44">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Norbert/Cazuri_pe_judete_A-Z_tr.xlsx
+++ b/Database/Norbert/Cazuri_pe_judete_A-Z_tr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272C13EF-0960-47E5-B0E5-5FBE8CE63BAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA5B0D9-6E43-4084-8A7D-1295213D5800}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{06F61592-3106-4B32-B324-A85F3BE76E2A}"/>
+    <workbookView xWindow="1070" yWindow="2340" windowWidth="28800" windowHeight="15460" xr2:uid="{06F61592-3106-4B32-B324-A85F3BE76E2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Alba</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>Satu Mare</t>
+  </si>
+  <si>
+    <t>zile(data)</t>
   </si>
 </sst>
 </file>
@@ -513,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F331728F-2889-451A-AC65-AF010E569640}">
-  <dimension ref="A1:HB44"/>
+  <dimension ref="A1:HK45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="EK1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="EZ3" sqref="EZ3:FB44"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y52" sqref="Y52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -533,9 +536,11 @@
     <col min="184" max="186" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="187" max="190" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="210" max="210" width="10.36328125" customWidth="1"/>
+    <col min="218" max="218" width="9.90625" customWidth="1"/>
+    <col min="219" max="219" width="10.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:210" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:219" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1163,11 +1168,38 @@
       <c r="HA1" s="1">
         <v>44097</v>
       </c>
-      <c r="HB1" s="1"/>
+      <c r="HB1" s="1">
+        <v>44098</v>
+      </c>
+      <c r="HC1" s="1">
+        <v>44099</v>
+      </c>
+      <c r="HD1" s="1">
+        <v>44100</v>
+      </c>
+      <c r="HE1" s="1">
+        <v>44101</v>
+      </c>
+      <c r="HF1" s="1">
+        <v>44102</v>
+      </c>
+      <c r="HG1" s="1">
+        <v>44103</v>
+      </c>
+      <c r="HH1" s="1">
+        <v>44104</v>
+      </c>
+      <c r="HI1" s="1">
+        <v>44105</v>
+      </c>
+      <c r="HJ1" s="1">
+        <v>44106</v>
+      </c>
+      <c r="HK1" s="1"/>
     </row>
-    <row r="2" spans="1:210" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:219" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -1793,8 +1825,38 @@
       <c r="HA2" s="2">
         <v>208</v>
       </c>
+      <c r="HB2" s="2">
+        <v>209</v>
+      </c>
+      <c r="HC2" s="2">
+        <v>210</v>
+      </c>
+      <c r="HD2" s="2">
+        <v>211</v>
+      </c>
+      <c r="HE2" s="2">
+        <v>212</v>
+      </c>
+      <c r="HF2" s="2">
+        <v>213</v>
+      </c>
+      <c r="HG2" s="2">
+        <v>214</v>
+      </c>
+      <c r="HH2" s="2">
+        <v>215</v>
+      </c>
+      <c r="HI2" s="2">
+        <v>216</v>
+      </c>
+      <c r="HJ2" s="2">
+        <v>217</v>
+      </c>
+      <c r="HK2" s="2">
+        <v>218</v>
+      </c>
     </row>
-    <row r="3" spans="1:210" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:219" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2261,13 +2323,13 @@
         <v>164</v>
       </c>
       <c r="EZ3">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="FC3">
         <v>158</v>
@@ -2422,8 +2484,38 @@
       <c r="HA3">
         <v>301</v>
       </c>
+      <c r="HB3">
+        <v>281</v>
+      </c>
+      <c r="HC3">
+        <v>210</v>
+      </c>
+      <c r="HD3">
+        <v>231</v>
+      </c>
+      <c r="HE3">
+        <v>209</v>
+      </c>
+      <c r="HF3">
+        <v>235</v>
+      </c>
+      <c r="HG3">
+        <v>291</v>
+      </c>
+      <c r="HH3">
+        <v>405</v>
+      </c>
+      <c r="HI3">
+        <v>301</v>
+      </c>
+      <c r="HJ3">
+        <v>517</v>
+      </c>
+      <c r="HK3">
+        <v>321</v>
+      </c>
     </row>
-    <row r="4" spans="1:210" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:219" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -2890,13 +2982,13 @@
         <v>0</v>
       </c>
       <c r="EZ4">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="FC4">
         <v>15</v>
@@ -3051,8 +3143,38 @@
       <c r="HA4">
         <v>40</v>
       </c>
+      <c r="HB4">
+        <v>51</v>
+      </c>
+      <c r="HC4">
+        <v>51</v>
+      </c>
+      <c r="HD4">
+        <v>33</v>
+      </c>
+      <c r="HE4">
+        <v>36</v>
+      </c>
+      <c r="HF4">
+        <v>17</v>
+      </c>
+      <c r="HG4">
+        <v>16</v>
+      </c>
+      <c r="HH4">
+        <v>75</v>
+      </c>
+      <c r="HI4">
+        <v>38</v>
+      </c>
+      <c r="HJ4">
+        <v>47</v>
+      </c>
+      <c r="HK4">
+        <v>70</v>
+      </c>
     </row>
-    <row r="5" spans="1:210" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:219" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3519,13 +3641,13 @@
         <v>112</v>
       </c>
       <c r="EZ5">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="FC5">
         <v>95</v>
@@ -3680,8 +3802,38 @@
       <c r="HA5">
         <v>24</v>
       </c>
+      <c r="HB5">
+        <v>15</v>
+      </c>
+      <c r="HC5">
+        <v>14</v>
+      </c>
+      <c r="HD5">
+        <v>15</v>
+      </c>
+      <c r="HE5">
+        <v>25</v>
+      </c>
+      <c r="HF5">
+        <v>4</v>
+      </c>
+      <c r="HG5">
+        <v>16</v>
+      </c>
+      <c r="HH5">
+        <v>26</v>
+      </c>
+      <c r="HI5">
+        <v>12</v>
+      </c>
+      <c r="HJ5">
+        <v>16</v>
+      </c>
+      <c r="HK5">
+        <v>288</v>
+      </c>
     </row>
-    <row r="6" spans="1:210" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:219" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -4148,13 +4300,13 @@
         <v>71</v>
       </c>
       <c r="EZ6">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="FC6">
         <v>95</v>
@@ -4309,8 +4461,38 @@
       <c r="HA6">
         <v>97</v>
       </c>
+      <c r="HB6">
+        <v>61</v>
+      </c>
+      <c r="HC6">
+        <v>63</v>
+      </c>
+      <c r="HD6">
+        <v>53</v>
+      </c>
+      <c r="HE6">
+        <v>52</v>
+      </c>
+      <c r="HF6">
+        <v>83</v>
+      </c>
+      <c r="HG6">
+        <v>58</v>
+      </c>
+      <c r="HH6">
+        <v>31</v>
+      </c>
+      <c r="HI6">
+        <v>61</v>
+      </c>
+      <c r="HJ6">
+        <v>78</v>
+      </c>
+      <c r="HK6">
+        <v>163</v>
+      </c>
     </row>
-    <row r="7" spans="1:210" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:219" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -4777,13 +4959,13 @@
         <v>0</v>
       </c>
       <c r="EZ7">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="FA7">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="FB7">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="FC7">
         <v>61</v>
@@ -4938,8 +5120,38 @@
       <c r="HA7">
         <v>41</v>
       </c>
+      <c r="HB7">
+        <v>52</v>
+      </c>
+      <c r="HC7">
+        <v>87</v>
+      </c>
+      <c r="HD7">
+        <v>71</v>
+      </c>
+      <c r="HE7">
+        <v>55</v>
+      </c>
+      <c r="HF7">
+        <v>76</v>
+      </c>
+      <c r="HG7">
+        <v>49</v>
+      </c>
+      <c r="HH7">
+        <v>76</v>
+      </c>
+      <c r="HI7">
+        <v>65</v>
+      </c>
+      <c r="HJ7">
+        <v>77</v>
+      </c>
+      <c r="HK7">
+        <v>261</v>
+      </c>
     </row>
-    <row r="8" spans="1:210" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:219" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -5406,13 +5618,13 @@
         <v>0</v>
       </c>
       <c r="EZ8">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="FA8">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="FB8">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="FC8">
         <v>40</v>
@@ -5567,8 +5779,38 @@
       <c r="HA8">
         <v>40</v>
       </c>
+      <c r="HB8">
+        <v>83</v>
+      </c>
+      <c r="HC8">
+        <v>46</v>
+      </c>
+      <c r="HD8">
+        <v>10</v>
+      </c>
+      <c r="HE8">
+        <v>56</v>
+      </c>
+      <c r="HF8">
+        <v>53</v>
+      </c>
+      <c r="HG8">
+        <v>53</v>
+      </c>
+      <c r="HH8">
+        <v>56</v>
+      </c>
+      <c r="HI8">
+        <v>58</v>
+      </c>
+      <c r="HJ8">
+        <v>24</v>
+      </c>
+      <c r="HK8">
+        <v>199</v>
+      </c>
     </row>
-    <row r="9" spans="1:210" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:219" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -6035,13 +6277,13 @@
         <v>0</v>
       </c>
       <c r="EZ9">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="FA9">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="FB9">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="FC9">
         <v>22</v>
@@ -6196,8 +6438,38 @@
       <c r="HA9">
         <v>93</v>
       </c>
+      <c r="HB9">
+        <v>77</v>
+      </c>
+      <c r="HC9">
+        <v>78</v>
+      </c>
+      <c r="HD9">
+        <v>80</v>
+      </c>
+      <c r="HE9">
+        <v>83</v>
+      </c>
+      <c r="HF9">
+        <v>172</v>
+      </c>
+      <c r="HG9">
+        <v>24</v>
+      </c>
+      <c r="HH9">
+        <v>83</v>
+      </c>
+      <c r="HI9">
+        <v>133</v>
+      </c>
+      <c r="HJ9">
+        <v>107</v>
+      </c>
+      <c r="HK9">
+        <v>132</v>
+      </c>
     </row>
-    <row r="10" spans="1:210" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:219" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -6664,13 +6936,13 @@
         <v>50</v>
       </c>
       <c r="EZ10">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="FA10">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="FB10">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="FC10">
         <v>51</v>
@@ -6825,8 +7097,38 @@
       <c r="HA10">
         <v>32</v>
       </c>
+      <c r="HB10">
+        <v>25</v>
+      </c>
+      <c r="HC10">
+        <v>35</v>
+      </c>
+      <c r="HD10">
+        <v>23</v>
+      </c>
+      <c r="HE10">
+        <v>35</v>
+      </c>
+      <c r="HF10">
+        <v>47</v>
+      </c>
+      <c r="HG10">
+        <v>24</v>
+      </c>
+      <c r="HH10">
+        <v>59</v>
+      </c>
+      <c r="HI10">
+        <v>55</v>
+      </c>
+      <c r="HJ10">
+        <v>32</v>
+      </c>
+      <c r="HK10">
+        <v>150</v>
+      </c>
     </row>
-    <row r="11" spans="1:210" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:219" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -7293,13 +7595,13 @@
         <v>0</v>
       </c>
       <c r="EZ11">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="FA11">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="FB11">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="FC11">
         <v>43</v>
@@ -7454,8 +7756,38 @@
       <c r="HA11">
         <v>75</v>
       </c>
+      <c r="HB11">
+        <v>57</v>
+      </c>
+      <c r="HC11">
+        <v>65</v>
+      </c>
+      <c r="HD11">
+        <v>71</v>
+      </c>
+      <c r="HE11">
+        <v>59</v>
+      </c>
+      <c r="HF11">
+        <v>22</v>
+      </c>
+      <c r="HG11">
+        <v>36</v>
+      </c>
+      <c r="HH11">
+        <v>70</v>
+      </c>
+      <c r="HI11">
+        <v>86</v>
+      </c>
+      <c r="HJ11">
+        <v>79</v>
+      </c>
+      <c r="HK11">
+        <v>140</v>
+      </c>
     </row>
-    <row r="12" spans="1:210" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:219" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -7922,13 +8254,13 @@
         <v>25</v>
       </c>
       <c r="EZ12">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="FA12">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="FB12">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="FC12">
         <v>11</v>
@@ -8083,8 +8415,38 @@
       <c r="HA12">
         <v>53</v>
       </c>
+      <c r="HB12">
+        <v>44</v>
+      </c>
+      <c r="HC12">
+        <v>23</v>
+      </c>
+      <c r="HD12">
+        <v>28</v>
+      </c>
+      <c r="HE12">
+        <v>12</v>
+      </c>
+      <c r="HF12">
+        <v>27</v>
+      </c>
+      <c r="HG12">
+        <v>44</v>
+      </c>
+      <c r="HH12">
+        <v>68</v>
+      </c>
+      <c r="HI12">
+        <v>26</v>
+      </c>
+      <c r="HJ12">
+        <v>50</v>
+      </c>
+      <c r="HK12">
+        <v>115</v>
+      </c>
     </row>
-    <row r="13" spans="1:210" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:219" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -8551,13 +8913,13 @@
         <v>0</v>
       </c>
       <c r="EZ13">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="FA13">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="FB13">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="FC13">
         <v>42</v>
@@ -8712,8 +9074,38 @@
       <c r="HA13">
         <v>10</v>
       </c>
+      <c r="HB13">
+        <v>15</v>
+      </c>
+      <c r="HC13">
+        <v>5</v>
+      </c>
+      <c r="HD13">
+        <v>6</v>
+      </c>
+      <c r="HE13">
+        <v>8</v>
+      </c>
+      <c r="HF13">
+        <v>6</v>
+      </c>
+      <c r="HG13">
+        <v>11</v>
+      </c>
+      <c r="HH13">
+        <v>18</v>
+      </c>
+      <c r="HI13">
+        <v>22</v>
+      </c>
+      <c r="HJ13">
+        <v>18</v>
+      </c>
+      <c r="HK13">
+        <v>97</v>
+      </c>
     </row>
-    <row r="14" spans="1:210" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:219" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -9180,13 +9572,13 @@
         <v>24</v>
       </c>
       <c r="EZ14">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="FA14">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="FB14">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="FC14">
         <v>15</v>
@@ -9341,8 +9733,38 @@
       <c r="HA14">
         <v>18</v>
       </c>
+      <c r="HB14">
+        <v>12</v>
+      </c>
+      <c r="HC14">
+        <v>18</v>
+      </c>
+      <c r="HD14">
+        <v>11</v>
+      </c>
+      <c r="HE14">
+        <v>9</v>
+      </c>
+      <c r="HF14">
+        <v>12</v>
+      </c>
+      <c r="HG14">
+        <v>11</v>
+      </c>
+      <c r="HH14">
+        <v>18</v>
+      </c>
+      <c r="HI14">
+        <v>26</v>
+      </c>
+      <c r="HJ14">
+        <v>23</v>
+      </c>
+      <c r="HK14">
+        <v>68</v>
+      </c>
     </row>
-    <row r="15" spans="1:210" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:219" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -9809,13 +10231,13 @@
         <v>0</v>
       </c>
       <c r="EZ15">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="FA15">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="FB15">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="FC15">
         <v>34</v>
@@ -9970,8 +10392,38 @@
       <c r="HA15">
         <v>52</v>
       </c>
+      <c r="HB15">
+        <v>24</v>
+      </c>
+      <c r="HC15">
+        <v>32</v>
+      </c>
+      <c r="HD15">
+        <v>66</v>
+      </c>
+      <c r="HE15">
+        <v>38</v>
+      </c>
+      <c r="HF15">
+        <v>3</v>
+      </c>
+      <c r="HG15">
+        <v>55</v>
+      </c>
+      <c r="HH15">
+        <v>53</v>
+      </c>
+      <c r="HI15">
+        <v>41</v>
+      </c>
+      <c r="HJ15">
+        <v>70</v>
+      </c>
+      <c r="HK15">
+        <v>118</v>
+      </c>
     </row>
-    <row r="16" spans="1:210" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:219" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -10438,13 +10890,13 @@
         <v>62</v>
       </c>
       <c r="EZ16">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="FA16">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="FB16">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="FC16">
         <v>27</v>
@@ -10599,8 +11051,38 @@
       <c r="HA16">
         <v>83</v>
       </c>
+      <c r="HB16">
+        <v>57</v>
+      </c>
+      <c r="HC16">
+        <v>58</v>
+      </c>
+      <c r="HD16">
+        <v>72</v>
+      </c>
+      <c r="HE16">
+        <v>34</v>
+      </c>
+      <c r="HF16">
+        <v>42</v>
+      </c>
+      <c r="HG16">
+        <v>73</v>
+      </c>
+      <c r="HH16">
+        <v>76</v>
+      </c>
+      <c r="HI16">
+        <v>104</v>
+      </c>
+      <c r="HJ16">
+        <v>66</v>
+      </c>
+      <c r="HK16">
+        <v>72</v>
+      </c>
     </row>
-    <row r="17" spans="1:209" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:219" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -11067,13 +11549,13 @@
         <v>0</v>
       </c>
       <c r="EZ17">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="FA17">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="FB17">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="FC17">
         <v>27</v>
@@ -11228,8 +11710,38 @@
       <c r="HA17">
         <v>77</v>
       </c>
+      <c r="HB17">
+        <v>43</v>
+      </c>
+      <c r="HC17">
+        <v>31</v>
+      </c>
+      <c r="HD17">
+        <v>15</v>
+      </c>
+      <c r="HE17">
+        <v>104</v>
+      </c>
+      <c r="HF17">
+        <v>88</v>
+      </c>
+      <c r="HG17">
+        <v>41</v>
+      </c>
+      <c r="HH17">
+        <v>53</v>
+      </c>
+      <c r="HI17">
+        <v>65</v>
+      </c>
+      <c r="HJ17">
+        <v>78</v>
+      </c>
+      <c r="HK17">
+        <v>83</v>
+      </c>
     </row>
-    <row r="18" spans="1:209" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:219" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -11696,13 +12208,13 @@
         <v>37</v>
       </c>
       <c r="EZ18">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="FA18">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="FB18">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="FC18">
         <v>23</v>
@@ -11857,8 +12369,38 @@
       <c r="HA18">
         <v>43</v>
       </c>
+      <c r="HB18">
+        <v>25</v>
+      </c>
+      <c r="HC18">
+        <v>39</v>
+      </c>
+      <c r="HD18">
+        <v>39</v>
+      </c>
+      <c r="HE18">
+        <v>33</v>
+      </c>
+      <c r="HF18">
+        <v>8</v>
+      </c>
+      <c r="HG18">
+        <v>33</v>
+      </c>
+      <c r="HH18">
+        <v>47</v>
+      </c>
+      <c r="HI18">
+        <v>39</v>
+      </c>
+      <c r="HJ18">
+        <v>37</v>
+      </c>
+      <c r="HK18">
+        <v>74</v>
+      </c>
     </row>
-    <row r="19" spans="1:209" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:219" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -12325,13 +12867,13 @@
         <v>33</v>
       </c>
       <c r="EZ19">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="FA19">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="FB19">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="FC19">
         <v>20</v>
@@ -12486,8 +13028,38 @@
       <c r="HA19">
         <v>50</v>
       </c>
+      <c r="HB19">
+        <v>31</v>
+      </c>
+      <c r="HC19">
+        <v>34</v>
+      </c>
+      <c r="HD19">
+        <v>64</v>
+      </c>
+      <c r="HE19">
+        <v>63</v>
+      </c>
+      <c r="HF19">
+        <v>17</v>
+      </c>
+      <c r="HG19">
+        <v>13</v>
+      </c>
+      <c r="HH19">
+        <v>51</v>
+      </c>
+      <c r="HI19">
+        <v>51</v>
+      </c>
+      <c r="HJ19">
+        <v>58</v>
+      </c>
+      <c r="HK19">
+        <v>90</v>
+      </c>
     </row>
-    <row r="20" spans="1:209" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:219" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -12954,13 +13526,13 @@
         <v>29</v>
       </c>
       <c r="EZ20">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="FA20">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="FB20">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="FC20">
         <v>34</v>
@@ -13115,8 +13687,38 @@
       <c r="HA20">
         <v>65</v>
       </c>
+      <c r="HB20">
+        <v>82</v>
+      </c>
+      <c r="HC20">
+        <v>66</v>
+      </c>
+      <c r="HD20">
+        <v>72</v>
+      </c>
+      <c r="HE20">
+        <v>88</v>
+      </c>
+      <c r="HF20">
+        <v>31</v>
+      </c>
+      <c r="HG20">
+        <v>35</v>
+      </c>
+      <c r="HH20">
+        <v>59</v>
+      </c>
+      <c r="HI20">
+        <v>122</v>
+      </c>
+      <c r="HJ20">
+        <v>76</v>
+      </c>
+      <c r="HK20">
+        <v>59</v>
+      </c>
     </row>
-    <row r="21" spans="1:209" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:219" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -13583,13 +14185,13 @@
         <v>22</v>
       </c>
       <c r="EZ21">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="FA21">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="FB21">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="FC21">
         <v>33</v>
@@ -13744,8 +14346,38 @@
       <c r="HA21">
         <v>22</v>
       </c>
+      <c r="HB21">
+        <v>20</v>
+      </c>
+      <c r="HC21">
+        <v>28</v>
+      </c>
+      <c r="HD21">
+        <v>36</v>
+      </c>
+      <c r="HE21">
+        <v>14</v>
+      </c>
+      <c r="HF21">
+        <v>12</v>
+      </c>
+      <c r="HG21">
+        <v>10</v>
+      </c>
+      <c r="HH21">
+        <v>32</v>
+      </c>
+      <c r="HI21">
+        <v>11</v>
+      </c>
+      <c r="HJ21">
+        <v>28</v>
+      </c>
+      <c r="HK21">
+        <v>79</v>
+      </c>
     </row>
-    <row r="22" spans="1:209" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:219" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -14212,13 +14844,13 @@
         <v>0</v>
       </c>
       <c r="EZ22">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="FA22">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="FB22">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="FC22">
         <v>22</v>
@@ -14373,8 +15005,38 @@
       <c r="HA22">
         <v>42</v>
       </c>
+      <c r="HB22">
+        <v>47</v>
+      </c>
+      <c r="HC22">
+        <v>17</v>
+      </c>
+      <c r="HD22">
+        <v>27</v>
+      </c>
+      <c r="HE22">
+        <v>8</v>
+      </c>
+      <c r="HF22">
+        <v>20</v>
+      </c>
+      <c r="HG22">
+        <v>23</v>
+      </c>
+      <c r="HH22">
+        <v>68</v>
+      </c>
+      <c r="HI22">
+        <v>34</v>
+      </c>
+      <c r="HJ22">
+        <v>25</v>
+      </c>
+      <c r="HK22">
+        <v>76</v>
+      </c>
     </row>
-    <row r="23" spans="1:209" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:219" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -14841,13 +15503,13 @@
         <v>0</v>
       </c>
       <c r="EZ23">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="FA23">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="FB23">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="FC23">
         <v>39</v>
@@ -15002,8 +15664,38 @@
       <c r="HA23">
         <v>24</v>
       </c>
+      <c r="HB23">
+        <v>16</v>
+      </c>
+      <c r="HC23">
+        <v>22</v>
+      </c>
+      <c r="HD23">
+        <v>20</v>
+      </c>
+      <c r="HE23">
+        <v>9</v>
+      </c>
+      <c r="HF23">
+        <v>5</v>
+      </c>
+      <c r="HG23">
+        <v>12</v>
+      </c>
+      <c r="HH23">
+        <v>25</v>
+      </c>
+      <c r="HI23">
+        <v>21</v>
+      </c>
+      <c r="HJ23">
+        <v>22</v>
+      </c>
+      <c r="HK23">
+        <v>104</v>
+      </c>
     </row>
-    <row r="24" spans="1:209" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:219" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -15470,13 +16162,13 @@
         <v>0</v>
       </c>
       <c r="EZ24">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="FA24">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="FB24">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="FC24">
         <v>11</v>
@@ -15631,8 +16323,38 @@
       <c r="HA24">
         <v>29</v>
       </c>
+      <c r="HB24">
+        <v>22</v>
+      </c>
+      <c r="HC24">
+        <v>22</v>
+      </c>
+      <c r="HD24">
+        <v>22</v>
+      </c>
+      <c r="HE24">
+        <v>31</v>
+      </c>
+      <c r="HF24">
+        <v>29</v>
+      </c>
+      <c r="HG24">
+        <v>18</v>
+      </c>
+      <c r="HH24">
+        <v>37</v>
+      </c>
+      <c r="HI24">
+        <v>50</v>
+      </c>
+      <c r="HJ24">
+        <v>37</v>
+      </c>
+      <c r="HK24">
+        <v>50</v>
+      </c>
     </row>
-    <row r="25" spans="1:209" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:219" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -16099,13 +16821,13 @@
         <v>0</v>
       </c>
       <c r="EZ25">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="FA25">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="FB25">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="FC25">
         <v>10</v>
@@ -16260,8 +16982,38 @@
       <c r="HA25">
         <v>22</v>
       </c>
+      <c r="HB25">
+        <v>27</v>
+      </c>
+      <c r="HC25">
+        <v>18</v>
+      </c>
+      <c r="HD25">
+        <v>16</v>
+      </c>
+      <c r="HE25">
+        <v>28</v>
+      </c>
+      <c r="HF25">
+        <v>12</v>
+      </c>
+      <c r="HG25">
+        <v>22</v>
+      </c>
+      <c r="HH25">
+        <v>46</v>
+      </c>
+      <c r="HI25">
+        <v>31</v>
+      </c>
+      <c r="HJ25">
+        <v>44</v>
+      </c>
+      <c r="HK25">
+        <v>44</v>
+      </c>
     </row>
-    <row r="26" spans="1:209" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:219" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -16728,13 +17480,13 @@
         <v>0</v>
       </c>
       <c r="EZ26">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="FA26">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="FB26">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="FC26">
         <v>13</v>
@@ -16889,8 +17641,38 @@
       <c r="HA26">
         <v>9</v>
       </c>
+      <c r="HB26">
+        <v>32</v>
+      </c>
+      <c r="HC26">
+        <v>10</v>
+      </c>
+      <c r="HD26">
+        <v>23</v>
+      </c>
+      <c r="HE26">
+        <v>16</v>
+      </c>
+      <c r="HF26">
+        <v>8</v>
+      </c>
+      <c r="HG26">
+        <v>12</v>
+      </c>
+      <c r="HH26">
+        <v>13</v>
+      </c>
+      <c r="HI26">
+        <v>22</v>
+      </c>
+      <c r="HJ26">
+        <v>37</v>
+      </c>
+      <c r="HK26">
+        <v>76</v>
+      </c>
     </row>
-    <row r="27" spans="1:209" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:219" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -17357,13 +18139,13 @@
         <v>3</v>
       </c>
       <c r="EZ27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="FA27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="FB27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="FC27">
         <v>5</v>
@@ -17518,8 +18300,38 @@
       <c r="HA27">
         <v>8</v>
       </c>
+      <c r="HB27">
+        <v>36</v>
+      </c>
+      <c r="HC27">
+        <v>16</v>
+      </c>
+      <c r="HD27">
+        <v>14</v>
+      </c>
+      <c r="HE27">
+        <v>13</v>
+      </c>
+      <c r="HF27">
+        <v>6</v>
+      </c>
+      <c r="HG27">
+        <v>16</v>
+      </c>
+      <c r="HH27">
+        <v>18</v>
+      </c>
+      <c r="HI27">
+        <v>13</v>
+      </c>
+      <c r="HJ27">
+        <v>24</v>
+      </c>
+      <c r="HK27">
+        <v>13</v>
+      </c>
     </row>
-    <row r="28" spans="1:209" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:219" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -17986,13 +18798,13 @@
         <v>0</v>
       </c>
       <c r="EZ28">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="FA28">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="FB28">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="FC28">
         <v>21</v>
@@ -18147,8 +18959,38 @@
       <c r="HA28">
         <v>37</v>
       </c>
+      <c r="HB28">
+        <v>49</v>
+      </c>
+      <c r="HC28">
+        <v>53</v>
+      </c>
+      <c r="HD28">
+        <v>22</v>
+      </c>
+      <c r="HE28">
+        <v>85</v>
+      </c>
+      <c r="HF28">
+        <v>32</v>
+      </c>
+      <c r="HG28">
+        <v>15</v>
+      </c>
+      <c r="HH28">
+        <v>63</v>
+      </c>
+      <c r="HI28">
+        <v>54</v>
+      </c>
+      <c r="HJ28">
+        <v>68</v>
+      </c>
+      <c r="HK28">
+        <v>71</v>
+      </c>
     </row>
-    <row r="29" spans="1:209" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:219" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -18615,13 +19457,13 @@
         <v>0</v>
       </c>
       <c r="EZ29">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="FA29">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="FB29">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="FC29">
         <v>11</v>
@@ -18776,8 +19618,38 @@
       <c r="HA29">
         <v>45</v>
       </c>
+      <c r="HB29">
+        <v>30</v>
+      </c>
+      <c r="HC29">
+        <v>25</v>
+      </c>
+      <c r="HD29">
+        <v>40</v>
+      </c>
+      <c r="HE29">
+        <v>12</v>
+      </c>
+      <c r="HF29">
+        <v>23</v>
+      </c>
+      <c r="HG29">
+        <v>37</v>
+      </c>
+      <c r="HH29">
+        <v>54</v>
+      </c>
+      <c r="HI29">
+        <v>35</v>
+      </c>
+      <c r="HJ29">
+        <v>32</v>
+      </c>
+      <c r="HK29">
+        <v>90</v>
+      </c>
     </row>
-    <row r="30" spans="1:209" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:219" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -19244,13 +20116,13 @@
         <v>13</v>
       </c>
       <c r="EZ30">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="FA30">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="FB30">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="FC30">
         <v>15</v>
@@ -19405,8 +20277,38 @@
       <c r="HA30">
         <v>13</v>
       </c>
+      <c r="HB30">
+        <v>11</v>
+      </c>
+      <c r="HC30">
+        <v>16</v>
+      </c>
+      <c r="HD30">
+        <v>26</v>
+      </c>
+      <c r="HE30">
+        <v>10</v>
+      </c>
+      <c r="HF30">
+        <v>2</v>
+      </c>
+      <c r="HG30">
+        <v>19</v>
+      </c>
+      <c r="HH30">
+        <v>11</v>
+      </c>
+      <c r="HI30">
+        <v>13</v>
+      </c>
+      <c r="HJ30">
+        <v>17</v>
+      </c>
+      <c r="HK30">
+        <v>32</v>
+      </c>
     </row>
-    <row r="31" spans="1:209" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:219" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -19873,13 +20775,13 @@
         <v>0</v>
       </c>
       <c r="EZ31">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="FA31">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="FB31">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="FC31">
         <v>24</v>
@@ -20034,8 +20936,38 @@
       <c r="HA31">
         <v>8</v>
       </c>
+      <c r="HB31">
+        <v>3</v>
+      </c>
+      <c r="HC31">
+        <v>39</v>
+      </c>
+      <c r="HD31">
+        <v>14</v>
+      </c>
+      <c r="HE31">
+        <v>6</v>
+      </c>
+      <c r="HF31">
+        <v>1</v>
+      </c>
+      <c r="HG31">
+        <v>5</v>
+      </c>
+      <c r="HH31">
+        <v>4</v>
+      </c>
+      <c r="HI31">
+        <v>4</v>
+      </c>
+      <c r="HJ31">
+        <v>6</v>
+      </c>
+      <c r="HK31">
+        <v>79</v>
+      </c>
     </row>
-    <row r="32" spans="1:209" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:219" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -20502,13 +21434,13 @@
         <v>22</v>
       </c>
       <c r="EZ32">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="FA32">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="FB32">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="FC32">
         <v>8</v>
@@ -20663,8 +21595,38 @@
       <c r="HA32">
         <v>43</v>
       </c>
+      <c r="HB32">
+        <v>18</v>
+      </c>
+      <c r="HC32">
+        <v>43</v>
+      </c>
+      <c r="HD32">
+        <v>45</v>
+      </c>
+      <c r="HE32">
+        <v>9</v>
+      </c>
+      <c r="HF32">
+        <v>49</v>
+      </c>
+      <c r="HG32">
+        <v>33</v>
+      </c>
+      <c r="HH32">
+        <v>45</v>
+      </c>
+      <c r="HI32">
+        <v>54</v>
+      </c>
+      <c r="HJ32">
+        <v>44</v>
+      </c>
+      <c r="HK32">
+        <v>19</v>
+      </c>
     </row>
-    <row r="33" spans="1:209" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:219" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -21131,13 +22093,13 @@
         <v>0</v>
       </c>
       <c r="EZ33">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="FA33">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="FB33">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="FC33">
         <v>20</v>
@@ -21292,8 +22254,38 @@
       <c r="HA33">
         <v>1</v>
       </c>
+      <c r="HB33">
+        <v>8</v>
+      </c>
+      <c r="HC33">
+        <v>14</v>
+      </c>
+      <c r="HD33">
+        <v>8</v>
+      </c>
+      <c r="HE33">
+        <v>12</v>
+      </c>
+      <c r="HF33">
+        <v>16</v>
+      </c>
+      <c r="HG33">
+        <v>2</v>
+      </c>
+      <c r="HH33">
+        <v>11</v>
+      </c>
+      <c r="HI33">
+        <v>20</v>
+      </c>
+      <c r="HJ33">
+        <v>8</v>
+      </c>
+      <c r="HK33">
+        <v>24</v>
+      </c>
     </row>
-    <row r="34" spans="1:209" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:219" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -21760,13 +22752,13 @@
         <v>12</v>
       </c>
       <c r="EZ34">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="FA34">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="FB34">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="FC34">
         <v>18</v>
@@ -21921,8 +22913,38 @@
       <c r="HA34">
         <v>22</v>
       </c>
+      <c r="HB34">
+        <v>23</v>
+      </c>
+      <c r="HC34">
+        <v>12</v>
+      </c>
+      <c r="HD34">
+        <v>19</v>
+      </c>
+      <c r="HE34">
+        <v>7</v>
+      </c>
+      <c r="HF34">
+        <v>8</v>
+      </c>
+      <c r="HG34">
+        <v>7</v>
+      </c>
+      <c r="HH34">
+        <v>51</v>
+      </c>
+      <c r="HI34">
+        <v>8</v>
+      </c>
+      <c r="HJ34">
+        <v>44</v>
+      </c>
+      <c r="HK34">
+        <v>22</v>
+      </c>
     </row>
-    <row r="35" spans="1:209" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:219" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -22389,13 +23411,13 @@
         <v>20</v>
       </c>
       <c r="EZ35">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="FA35">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="FB35">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="FC35">
         <v>25</v>
@@ -22550,8 +23572,38 @@
       <c r="HA35">
         <v>22</v>
       </c>
+      <c r="HB35">
+        <v>24</v>
+      </c>
+      <c r="HC35">
+        <v>17</v>
+      </c>
+      <c r="HD35">
+        <v>20</v>
+      </c>
+      <c r="HE35">
+        <v>4</v>
+      </c>
+      <c r="HF35">
+        <v>3</v>
+      </c>
+      <c r="HG35">
+        <v>49</v>
+      </c>
+      <c r="HH35">
+        <v>42</v>
+      </c>
+      <c r="HI35">
+        <v>27</v>
+      </c>
+      <c r="HJ35">
+        <v>24</v>
+      </c>
+      <c r="HK35">
+        <v>22</v>
+      </c>
     </row>
-    <row r="36" spans="1:209" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:219" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -23018,13 +24070,13 @@
         <v>0</v>
       </c>
       <c r="EZ36">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="FA36">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="FB36">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="FC36">
         <v>15</v>
@@ -23179,8 +24231,38 @@
       <c r="HA36">
         <v>7</v>
       </c>
+      <c r="HB36">
+        <v>10</v>
+      </c>
+      <c r="HC36">
+        <v>15</v>
+      </c>
+      <c r="HD36">
+        <v>18</v>
+      </c>
+      <c r="HE36">
+        <v>15</v>
+      </c>
+      <c r="HF36">
+        <v>8</v>
+      </c>
+      <c r="HG36">
+        <v>8</v>
+      </c>
+      <c r="HH36">
+        <v>24</v>
+      </c>
+      <c r="HI36">
+        <v>31</v>
+      </c>
+      <c r="HJ36">
+        <v>27</v>
+      </c>
+      <c r="HK36">
+        <v>26</v>
+      </c>
     </row>
-    <row r="37" spans="1:209" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:219" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -23647,13 +24729,13 @@
         <v>0</v>
       </c>
       <c r="EZ37">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="FA37">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="FB37">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="FC37">
         <v>9</v>
@@ -23808,8 +24890,38 @@
       <c r="HA37">
         <v>21</v>
       </c>
+      <c r="HB37">
+        <v>14</v>
+      </c>
+      <c r="HC37">
+        <v>17</v>
+      </c>
+      <c r="HD37">
+        <v>9</v>
+      </c>
+      <c r="HE37">
+        <v>4</v>
+      </c>
+      <c r="HF37">
+        <v>7</v>
+      </c>
+      <c r="HG37">
+        <v>22</v>
+      </c>
+      <c r="HH37">
+        <v>29</v>
+      </c>
+      <c r="HI37">
+        <v>27</v>
+      </c>
+      <c r="HJ37">
+        <v>28</v>
+      </c>
+      <c r="HK37">
+        <v>30</v>
+      </c>
     </row>
-    <row r="38" spans="1:209" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:219" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -24276,13 +25388,13 @@
         <v>0</v>
       </c>
       <c r="EZ38">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="FA38">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="FB38">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="FC38">
         <v>11</v>
@@ -24437,8 +25549,38 @@
       <c r="HA38">
         <v>35</v>
       </c>
+      <c r="HB38">
+        <v>45</v>
+      </c>
+      <c r="HC38">
+        <v>43</v>
+      </c>
+      <c r="HD38">
+        <v>37</v>
+      </c>
+      <c r="HE38">
+        <v>11</v>
+      </c>
+      <c r="HF38">
+        <v>12</v>
+      </c>
+      <c r="HG38">
+        <v>51</v>
+      </c>
+      <c r="HH38">
+        <v>32</v>
+      </c>
+      <c r="HI38">
+        <v>88</v>
+      </c>
+      <c r="HJ38">
+        <v>44</v>
+      </c>
+      <c r="HK38">
+        <v>25</v>
+      </c>
     </row>
-    <row r="39" spans="1:209" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:219" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -24905,13 +26047,13 @@
         <v>13</v>
       </c>
       <c r="EZ39">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="FA39">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="FB39">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="FC39">
         <v>9</v>
@@ -25066,8 +26208,38 @@
       <c r="HA39">
         <v>12</v>
       </c>
+      <c r="HB39">
+        <v>8</v>
+      </c>
+      <c r="HC39">
+        <v>9</v>
+      </c>
+      <c r="HD39">
+        <v>11</v>
+      </c>
+      <c r="HE39">
+        <v>7</v>
+      </c>
+      <c r="HF39">
+        <v>7</v>
+      </c>
+      <c r="HG39">
+        <v>5</v>
+      </c>
+      <c r="HH39">
+        <v>15</v>
+      </c>
+      <c r="HI39">
+        <v>16</v>
+      </c>
+      <c r="HJ39">
+        <v>9</v>
+      </c>
+      <c r="HK39">
+        <v>16</v>
+      </c>
     </row>
-    <row r="40" spans="1:209" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:219" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -25534,13 +26706,13 @@
         <v>0</v>
       </c>
       <c r="EZ40">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="FA40">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="FB40">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="FC40">
         <v>1</v>
@@ -25695,8 +26867,38 @@
       <c r="HA40">
         <v>12</v>
       </c>
+      <c r="HB40">
+        <v>19</v>
+      </c>
+      <c r="HC40">
+        <v>13</v>
+      </c>
+      <c r="HD40">
+        <v>15</v>
+      </c>
+      <c r="HE40">
+        <v>17</v>
+      </c>
+      <c r="HF40">
+        <v>10</v>
+      </c>
+      <c r="HG40">
+        <v>17</v>
+      </c>
+      <c r="HH40">
+        <v>22</v>
+      </c>
+      <c r="HI40">
+        <v>26</v>
+      </c>
+      <c r="HJ40">
+        <v>17</v>
+      </c>
+      <c r="HK40">
+        <v>25</v>
+      </c>
     </row>
-    <row r="41" spans="1:209" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:219" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -26163,13 +27365,13 @@
         <v>0</v>
       </c>
       <c r="EZ41">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="FA41">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="FB41">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="FC41">
         <v>6</v>
@@ -26324,8 +27526,38 @@
       <c r="HA41">
         <v>14</v>
       </c>
+      <c r="HB41">
+        <v>7</v>
+      </c>
+      <c r="HC41">
+        <v>17</v>
+      </c>
+      <c r="HD41">
+        <v>11</v>
+      </c>
+      <c r="HE41">
+        <v>23</v>
+      </c>
+      <c r="HF41">
+        <v>1</v>
+      </c>
+      <c r="HG41">
+        <v>36</v>
+      </c>
+      <c r="HH41">
+        <v>20</v>
+      </c>
+      <c r="HI41">
+        <v>14</v>
+      </c>
+      <c r="HJ41">
+        <v>17</v>
+      </c>
+      <c r="HK41">
+        <v>16</v>
+      </c>
     </row>
-    <row r="42" spans="1:209" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:219" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -26792,13 +28024,13 @@
         <v>0</v>
       </c>
       <c r="EZ42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FA42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FB42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FC42">
         <v>2</v>
@@ -26953,8 +28185,38 @@
       <c r="HA42">
         <v>14</v>
       </c>
+      <c r="HB42">
+        <v>15</v>
+      </c>
+      <c r="HC42">
+        <v>14</v>
+      </c>
+      <c r="HD42">
+        <v>25</v>
+      </c>
+      <c r="HE42">
+        <v>26</v>
+      </c>
+      <c r="HF42">
+        <v>0</v>
+      </c>
+      <c r="HG42">
+        <v>40</v>
+      </c>
+      <c r="HH42">
+        <v>22</v>
+      </c>
+      <c r="HI42">
+        <v>23</v>
+      </c>
+      <c r="HJ42">
+        <v>17</v>
+      </c>
+      <c r="HK42">
+        <v>11</v>
+      </c>
     </row>
-    <row r="43" spans="1:209" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:219" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -27421,13 +28683,13 @@
         <v>27</v>
       </c>
       <c r="EZ43">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="FA43">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="FB43">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="FC43">
         <v>63</v>
@@ -27582,8 +28844,38 @@
       <c r="HA43">
         <v>55</v>
       </c>
+      <c r="HB43">
+        <v>82</v>
+      </c>
+      <c r="HC43">
+        <v>102</v>
+      </c>
+      <c r="HD43">
+        <v>75</v>
+      </c>
+      <c r="HE43">
+        <v>56</v>
+      </c>
+      <c r="HF43">
+        <v>39</v>
+      </c>
+      <c r="HG43">
+        <v>60</v>
+      </c>
+      <c r="HH43">
+        <v>69</v>
+      </c>
+      <c r="HI43">
+        <v>104</v>
+      </c>
+      <c r="HJ43">
+        <v>168</v>
+      </c>
+      <c r="HK43">
+        <v>141</v>
+      </c>
     </row>
-    <row r="44" spans="1:209" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:219" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -28050,13 +29342,13 @@
         <v>0</v>
       </c>
       <c r="EZ44">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="FA44">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="FB44">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="FC44">
         <v>28</v>
@@ -28209,6 +29501,665 @@
         <v>25</v>
       </c>
       <c r="HA44">
+        <v>55</v>
+      </c>
+      <c r="HB44">
+        <v>37</v>
+      </c>
+      <c r="HC44">
+        <v>92</v>
+      </c>
+      <c r="HD44">
+        <v>38</v>
+      </c>
+      <c r="HE44">
+        <v>16</v>
+      </c>
+      <c r="HF44">
+        <v>18</v>
+      </c>
+      <c r="HG44">
+        <v>66</v>
+      </c>
+      <c r="HH44">
+        <v>77</v>
+      </c>
+      <c r="HI44">
+        <v>55</v>
+      </c>
+      <c r="HJ44">
+        <v>102</v>
+      </c>
+      <c r="HK44">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:219" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>1</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>1</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
+      </c>
+      <c r="AF45">
+        <v>1</v>
+      </c>
+      <c r="AG45">
+        <v>0</v>
+      </c>
+      <c r="AH45">
+        <v>3</v>
+      </c>
+      <c r="AI45">
+        <v>7</v>
+      </c>
+      <c r="AJ45">
+        <v>6</v>
+      </c>
+      <c r="AK45">
+        <v>4</v>
+      </c>
+      <c r="AL45">
+        <v>12</v>
+      </c>
+      <c r="AM45">
+        <v>11</v>
+      </c>
+      <c r="AN45">
+        <v>10</v>
+      </c>
+      <c r="AO45">
+        <v>0</v>
+      </c>
+      <c r="AP45">
+        <v>8</v>
+      </c>
+      <c r="AQ45">
+        <v>8</v>
+      </c>
+      <c r="AR45">
+        <v>2</v>
+      </c>
+      <c r="AS45">
+        <v>2</v>
+      </c>
+      <c r="AT45">
+        <v>7</v>
+      </c>
+      <c r="AU45">
+        <v>6</v>
+      </c>
+      <c r="AV45">
+        <v>3</v>
+      </c>
+      <c r="AW45">
+        <v>19</v>
+      </c>
+      <c r="AX45">
+        <v>5</v>
+      </c>
+      <c r="AY45">
+        <v>0</v>
+      </c>
+      <c r="AZ45">
+        <v>27</v>
+      </c>
+      <c r="BA45">
+        <v>3</v>
+      </c>
+      <c r="BB45">
+        <v>4</v>
+      </c>
+      <c r="BC45">
+        <v>14</v>
+      </c>
+      <c r="BD45">
+        <v>7</v>
+      </c>
+      <c r="BE45">
+        <v>5</v>
+      </c>
+      <c r="BF45">
+        <v>6</v>
+      </c>
+      <c r="BG45">
+        <v>7</v>
+      </c>
+      <c r="BH45">
+        <v>16</v>
+      </c>
+      <c r="BI45">
+        <v>10</v>
+      </c>
+      <c r="BJ45">
+        <v>5</v>
+      </c>
+      <c r="BK45">
+        <v>5</v>
+      </c>
+      <c r="BL45">
+        <v>7</v>
+      </c>
+      <c r="BM45">
+        <v>0</v>
+      </c>
+      <c r="BN45">
+        <v>9</v>
+      </c>
+      <c r="BO45">
+        <v>19</v>
+      </c>
+      <c r="BP45">
+        <v>4</v>
+      </c>
+      <c r="BQ45">
+        <v>20</v>
+      </c>
+      <c r="BR45">
+        <v>12</v>
+      </c>
+      <c r="BS45">
+        <v>27</v>
+      </c>
+      <c r="BT45">
+        <v>0</v>
+      </c>
+      <c r="BU45">
+        <v>5</v>
+      </c>
+      <c r="BV45">
+        <v>7</v>
+      </c>
+      <c r="BW45">
+        <v>4</v>
+      </c>
+      <c r="BX45">
+        <v>6</v>
+      </c>
+      <c r="BY45">
+        <v>8</v>
+      </c>
+      <c r="BZ45">
+        <v>11</v>
+      </c>
+      <c r="CA45">
+        <v>4</v>
+      </c>
+      <c r="CB45">
+        <v>8</v>
+      </c>
+      <c r="CC45">
+        <v>10</v>
+      </c>
+      <c r="CD45">
+        <v>1</v>
+      </c>
+      <c r="CE45">
+        <v>7</v>
+      </c>
+      <c r="CF45">
+        <v>1</v>
+      </c>
+      <c r="CG45">
+        <v>6</v>
+      </c>
+      <c r="CH45">
+        <v>6</v>
+      </c>
+      <c r="CI45">
+        <v>4</v>
+      </c>
+      <c r="CJ45">
+        <v>55</v>
+      </c>
+      <c r="CK45">
+        <v>2</v>
+      </c>
+      <c r="CL45">
+        <v>2</v>
+      </c>
+      <c r="CM45">
+        <v>2</v>
+      </c>
+      <c r="CN45">
+        <v>6</v>
+      </c>
+      <c r="CO45">
+        <v>9</v>
+      </c>
+      <c r="CP45">
+        <v>3</v>
+      </c>
+      <c r="CQ45">
+        <v>1</v>
+      </c>
+      <c r="CR45">
+        <v>0</v>
+      </c>
+      <c r="CS45">
+        <v>7</v>
+      </c>
+      <c r="CT45">
+        <v>7</v>
+      </c>
+      <c r="CU45">
+        <v>5</v>
+      </c>
+      <c r="CV45">
+        <v>6</v>
+      </c>
+      <c r="CW45">
+        <v>4</v>
+      </c>
+      <c r="CX45">
+        <v>1</v>
+      </c>
+      <c r="CY45">
+        <v>0</v>
+      </c>
+      <c r="CZ45">
+        <v>25</v>
+      </c>
+      <c r="DA45">
+        <v>19</v>
+      </c>
+      <c r="DB45">
+        <v>4</v>
+      </c>
+      <c r="DC45">
+        <v>8</v>
+      </c>
+      <c r="DD45">
+        <v>7</v>
+      </c>
+      <c r="DE45">
+        <v>1</v>
+      </c>
+      <c r="DF45">
+        <v>5</v>
+      </c>
+      <c r="DG45">
+        <v>12</v>
+      </c>
+      <c r="DH45">
+        <v>9</v>
+      </c>
+      <c r="DI45">
+        <v>7</v>
+      </c>
+      <c r="DJ45">
+        <v>12</v>
+      </c>
+      <c r="DK45">
+        <v>1</v>
+      </c>
+      <c r="DL45">
+        <v>2</v>
+      </c>
+      <c r="DM45">
+        <v>0</v>
+      </c>
+      <c r="DN45">
+        <v>19</v>
+      </c>
+      <c r="DO45">
+        <v>10</v>
+      </c>
+      <c r="DP45">
+        <v>9</v>
+      </c>
+      <c r="DQ45">
+        <v>5</v>
+      </c>
+      <c r="DR45">
+        <v>0</v>
+      </c>
+      <c r="DS45">
+        <v>14</v>
+      </c>
+      <c r="DT45">
+        <v>8</v>
+      </c>
+      <c r="DU45">
+        <v>10</v>
+      </c>
+      <c r="DV45">
+        <v>6</v>
+      </c>
+      <c r="DW45">
+        <v>6</v>
+      </c>
+      <c r="DX45">
+        <v>23</v>
+      </c>
+      <c r="DY45">
+        <v>10</v>
+      </c>
+      <c r="DZ45">
+        <v>2</v>
+      </c>
+      <c r="EA45">
+        <v>23</v>
+      </c>
+      <c r="EB45">
+        <v>19</v>
+      </c>
+      <c r="EC45">
+        <v>15</v>
+      </c>
+      <c r="ED45">
+        <v>18</v>
+      </c>
+      <c r="EE45">
+        <v>18</v>
+      </c>
+      <c r="EF45">
+        <v>13</v>
+      </c>
+      <c r="EG45">
+        <v>0</v>
+      </c>
+      <c r="EH45">
+        <v>24</v>
+      </c>
+      <c r="EI45">
+        <v>15</v>
+      </c>
+      <c r="EJ45">
+        <v>10</v>
+      </c>
+      <c r="EK45">
+        <v>11</v>
+      </c>
+      <c r="EL45">
+        <v>29</v>
+      </c>
+      <c r="EM45">
+        <v>21</v>
+      </c>
+      <c r="EN45">
+        <v>3</v>
+      </c>
+      <c r="EO45">
+        <v>33</v>
+      </c>
+      <c r="EP45">
+        <v>24</v>
+      </c>
+      <c r="EQ45">
+        <v>8</v>
+      </c>
+      <c r="ER45">
+        <v>28</v>
+      </c>
+      <c r="ES45">
+        <v>26</v>
+      </c>
+      <c r="ET45">
+        <v>29</v>
+      </c>
+      <c r="EU45">
+        <v>13</v>
+      </c>
+      <c r="EV45">
+        <v>33</v>
+      </c>
+      <c r="EW45">
+        <v>24</v>
+      </c>
+      <c r="EX45">
+        <v>24</v>
+      </c>
+      <c r="EY45">
+        <v>0</v>
+      </c>
+      <c r="EZ45">
+        <v>28</v>
+      </c>
+      <c r="FA45">
+        <v>28</v>
+      </c>
+      <c r="FB45">
+        <v>28</v>
+      </c>
+      <c r="FC45">
+        <v>28</v>
+      </c>
+      <c r="FD45">
+        <v>26</v>
+      </c>
+      <c r="FE45">
+        <v>30</v>
+      </c>
+      <c r="FF45">
+        <v>28</v>
+      </c>
+      <c r="FG45">
+        <v>45</v>
+      </c>
+      <c r="FH45">
+        <v>3</v>
+      </c>
+      <c r="FI45">
+        <v>17</v>
+      </c>
+      <c r="FJ45">
+        <v>29</v>
+      </c>
+      <c r="FK45">
+        <v>9</v>
+      </c>
+      <c r="FL45">
+        <v>70</v>
+      </c>
+      <c r="FM45">
+        <v>36</v>
+      </c>
+      <c r="FN45">
+        <v>49</v>
+      </c>
+      <c r="FO45">
+        <v>49</v>
+      </c>
+      <c r="FP45">
+        <v>29</v>
+      </c>
+      <c r="FQ45">
+        <v>22</v>
+      </c>
+      <c r="FR45">
+        <v>24</v>
+      </c>
+      <c r="FS45">
+        <v>36</v>
+      </c>
+      <c r="FT45">
+        <v>18</v>
+      </c>
+      <c r="FU45">
+        <v>17</v>
+      </c>
+      <c r="FV45">
+        <v>5</v>
+      </c>
+      <c r="FW45">
+        <v>30</v>
+      </c>
+      <c r="FX45">
+        <v>35</v>
+      </c>
+      <c r="FY45">
+        <v>33</v>
+      </c>
+      <c r="FZ45">
+        <v>63</v>
+      </c>
+      <c r="GA45">
+        <v>43</v>
+      </c>
+      <c r="GB45">
+        <v>19</v>
+      </c>
+      <c r="GC45">
+        <v>11</v>
+      </c>
+      <c r="GD45">
+        <v>36</v>
+      </c>
+      <c r="GE45">
+        <v>33</v>
+      </c>
+      <c r="GF45">
+        <v>18</v>
+      </c>
+      <c r="GG45">
+        <v>30</v>
+      </c>
+      <c r="GH45">
+        <v>11</v>
+      </c>
+      <c r="GI45">
+        <v>48</v>
+      </c>
+      <c r="GJ45">
+        <v>37</v>
+      </c>
+      <c r="GK45">
+        <v>6</v>
+      </c>
+      <c r="GL45">
+        <v>63</v>
+      </c>
+      <c r="GM45">
+        <v>38</v>
+      </c>
+      <c r="GN45">
+        <v>40</v>
+      </c>
+      <c r="GO45">
+        <v>49</v>
+      </c>
+      <c r="GP45">
+        <v>49</v>
+      </c>
+      <c r="GQ45">
+        <v>11</v>
+      </c>
+      <c r="GR45">
+        <v>15</v>
+      </c>
+      <c r="GS45">
+        <v>53</v>
+      </c>
+      <c r="GT45">
+        <v>65</v>
+      </c>
+      <c r="GU45">
+        <v>55</v>
+      </c>
+      <c r="GV45">
+        <v>33</v>
+      </c>
+      <c r="GW45">
+        <v>52</v>
+      </c>
+      <c r="GX45">
+        <v>19</v>
+      </c>
+      <c r="GY45">
+        <v>14</v>
+      </c>
+      <c r="GZ45">
+        <v>25</v>
+      </c>
+      <c r="HA45">
         <v>55</v>
       </c>
     </row>

--- a/Database/Norbert/Cazuri_pe_judete_A-Z_tr.xlsx
+++ b/Database/Norbert/Cazuri_pe_judete_A-Z_tr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA5B0D9-6E43-4084-8A7D-1295213D5800}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7422D168-48F3-4876-93E8-4E032A2CBBE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1070" yWindow="2340" windowWidth="28800" windowHeight="15460" xr2:uid="{06F61592-3106-4B32-B324-A85F3BE76E2A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{06F61592-3106-4B32-B324-A85F3BE76E2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Alba</t>
   </si>
@@ -516,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F331728F-2889-451A-AC65-AF010E569640}">
-  <dimension ref="A1:HK45"/>
+  <dimension ref="A1:ID44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y52" sqref="Y52"/>
+    <sheetView tabSelected="1" topLeftCell="GB1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="HT53" sqref="HT53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -538,9 +538,10 @@
     <col min="210" max="210" width="10.36328125" customWidth="1"/>
     <col min="218" max="218" width="9.90625" customWidth="1"/>
     <col min="219" max="219" width="10.36328125" customWidth="1"/>
+    <col min="234" max="234" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:219" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:238" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1195,9 +1196,60 @@
       <c r="HJ1" s="1">
         <v>44106</v>
       </c>
-      <c r="HK1" s="1"/>
+      <c r="HK1" s="1">
+        <v>44107</v>
+      </c>
+      <c r="HL1" s="1">
+        <v>44108</v>
+      </c>
+      <c r="HM1" s="1">
+        <v>44109</v>
+      </c>
+      <c r="HN1" s="1">
+        <v>44110</v>
+      </c>
+      <c r="HO1" s="1">
+        <v>44111</v>
+      </c>
+      <c r="HP1" s="1">
+        <v>44112</v>
+      </c>
+      <c r="HQ1" s="1">
+        <v>44113</v>
+      </c>
+      <c r="HR1" s="1">
+        <v>44114</v>
+      </c>
+      <c r="HS1" s="1">
+        <v>44115</v>
+      </c>
+      <c r="HT1" s="1">
+        <v>44116</v>
+      </c>
+      <c r="HU1" s="1">
+        <v>44117</v>
+      </c>
+      <c r="HV1" s="1">
+        <v>44118</v>
+      </c>
+      <c r="HW1" s="1">
+        <v>44119</v>
+      </c>
+      <c r="HX1" s="1">
+        <v>44120</v>
+      </c>
+      <c r="HY1" s="1">
+        <v>44121</v>
+      </c>
+      <c r="HZ1" s="1">
+        <v>44122</v>
+      </c>
+      <c r="IA1" s="1"/>
+      <c r="IB1" s="1"/>
+      <c r="IC1" s="1"/>
+      <c r="ID1" s="1"/>
     </row>
-    <row r="2" spans="1:219" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:238" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -1855,8 +1907,53 @@
       <c r="HK2" s="2">
         <v>218</v>
       </c>
+      <c r="HL2" s="2">
+        <v>219</v>
+      </c>
+      <c r="HM2" s="2">
+        <v>220</v>
+      </c>
+      <c r="HN2" s="2">
+        <v>221</v>
+      </c>
+      <c r="HO2" s="2">
+        <v>222</v>
+      </c>
+      <c r="HP2" s="2">
+        <v>223</v>
+      </c>
+      <c r="HQ2" s="2">
+        <v>224</v>
+      </c>
+      <c r="HR2" s="2">
+        <v>225</v>
+      </c>
+      <c r="HS2" s="2">
+        <v>226</v>
+      </c>
+      <c r="HT2" s="2">
+        <v>227</v>
+      </c>
+      <c r="HU2" s="2">
+        <v>228</v>
+      </c>
+      <c r="HV2" s="2">
+        <v>229</v>
+      </c>
+      <c r="HW2" s="2">
+        <v>230</v>
+      </c>
+      <c r="HX2" s="2">
+        <v>231</v>
+      </c>
+      <c r="HY2" s="2">
+        <v>232</v>
+      </c>
+      <c r="HZ2" s="2">
+        <v>233</v>
+      </c>
     </row>
-    <row r="3" spans="1:219" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:238" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2515,7 +2612,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:219" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:238" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -2982,10 +3079,11 @@
         <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0</v>
+        <f>(FA4+1)</f>
+        <v>36</v>
       </c>
       <c r="FA4">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="FB4">
         <v>0</v>
@@ -3171,10 +3269,55 @@
         <v>47</v>
       </c>
       <c r="HK4">
+        <v>92</v>
+      </c>
+      <c r="HL4">
+        <v>24</v>
+      </c>
+      <c r="HM4">
+        <v>14</v>
+      </c>
+      <c r="HN4">
+        <v>71</v>
+      </c>
+      <c r="HO4">
+        <v>68</v>
+      </c>
+      <c r="HP4">
         <v>70</v>
       </c>
+      <c r="HQ4">
+        <v>94</v>
+      </c>
+      <c r="HR4">
+        <v>84</v>
+      </c>
+      <c r="HS4">
+        <v>36</v>
+      </c>
+      <c r="HT4">
+        <v>18</v>
+      </c>
+      <c r="HU4">
+        <v>90</v>
+      </c>
+      <c r="HV4">
+        <v>173</v>
+      </c>
+      <c r="HW4">
+        <v>116</v>
+      </c>
+      <c r="HX4">
+        <v>133</v>
+      </c>
+      <c r="HY4">
+        <v>98</v>
+      </c>
+      <c r="HZ4">
+        <v>73</v>
+      </c>
     </row>
-    <row r="5" spans="1:219" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:238" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3641,10 +3784,11 @@
         <v>112</v>
       </c>
       <c r="EZ5">
-        <v>0</v>
+        <f t="shared" ref="EZ5:EZ44" si="0">(FA5+1)</f>
+        <v>145</v>
       </c>
       <c r="FA5">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="FB5">
         <v>0</v>
@@ -3830,10 +3974,55 @@
         <v>16</v>
       </c>
       <c r="HK5">
-        <v>288</v>
+        <v>3</v>
+      </c>
+      <c r="HL5">
+        <v>23</v>
+      </c>
+      <c r="HM5">
+        <v>14</v>
+      </c>
+      <c r="HN5">
+        <v>20</v>
+      </c>
+      <c r="HO5">
+        <v>45</v>
+      </c>
+      <c r="HP5">
+        <v>49</v>
+      </c>
+      <c r="HQ5">
+        <v>34</v>
+      </c>
+      <c r="HR5">
+        <v>18</v>
+      </c>
+      <c r="HS5">
+        <v>22</v>
+      </c>
+      <c r="HT5">
+        <v>17</v>
+      </c>
+      <c r="HU5">
+        <v>29</v>
+      </c>
+      <c r="HV5">
+        <v>58</v>
+      </c>
+      <c r="HW5">
+        <v>34</v>
+      </c>
+      <c r="HX5">
+        <v>46</v>
+      </c>
+      <c r="HY5">
+        <v>43</v>
+      </c>
+      <c r="HZ5">
+        <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:219" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:238" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -4300,10 +4489,11 @@
         <v>71</v>
       </c>
       <c r="EZ6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>83</v>
       </c>
       <c r="FA6">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="FB6">
         <v>0</v>
@@ -4489,10 +4679,55 @@
         <v>78</v>
       </c>
       <c r="HK6">
-        <v>163</v>
+        <v>77</v>
+      </c>
+      <c r="HL6">
+        <v>92</v>
+      </c>
+      <c r="HM6">
+        <v>42</v>
+      </c>
+      <c r="HN6">
+        <v>48</v>
+      </c>
+      <c r="HO6">
+        <v>95</v>
+      </c>
+      <c r="HP6">
+        <v>80</v>
+      </c>
+      <c r="HQ6">
+        <v>50</v>
+      </c>
+      <c r="HR6">
+        <v>156</v>
+      </c>
+      <c r="HS6">
+        <v>93</v>
+      </c>
+      <c r="HT6">
+        <v>37</v>
+      </c>
+      <c r="HU6">
+        <v>89</v>
+      </c>
+      <c r="HV6">
+        <v>106</v>
+      </c>
+      <c r="HW6">
+        <v>130</v>
+      </c>
+      <c r="HX6">
+        <v>116</v>
+      </c>
+      <c r="HY6">
+        <v>115</v>
+      </c>
+      <c r="HZ6">
+        <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:219" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:238" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -4959,10 +5194,11 @@
         <v>0</v>
       </c>
       <c r="EZ7">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>131</v>
       </c>
       <c r="FA7">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="FB7">
         <v>0</v>
@@ -5148,10 +5384,55 @@
         <v>77</v>
       </c>
       <c r="HK7">
-        <v>261</v>
+        <v>77</v>
+      </c>
+      <c r="HL7">
+        <v>50</v>
+      </c>
+      <c r="HM7">
+        <v>59</v>
+      </c>
+      <c r="HN7">
+        <v>96</v>
+      </c>
+      <c r="HO7">
+        <v>101</v>
+      </c>
+      <c r="HP7">
+        <v>101</v>
+      </c>
+      <c r="HQ7">
+        <v>108</v>
+      </c>
+      <c r="HR7">
+        <v>164</v>
+      </c>
+      <c r="HS7">
+        <v>123</v>
+      </c>
+      <c r="HT7">
+        <v>110</v>
+      </c>
+      <c r="HU7">
+        <v>122</v>
+      </c>
+      <c r="HV7">
+        <v>163</v>
+      </c>
+      <c r="HW7">
+        <v>137</v>
+      </c>
+      <c r="HX7">
+        <v>145</v>
+      </c>
+      <c r="HY7">
+        <v>127</v>
+      </c>
+      <c r="HZ7">
+        <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:219" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:238" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -5618,10 +5899,11 @@
         <v>0</v>
       </c>
       <c r="EZ8">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="FA8">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="FB8">
         <v>0</v>
@@ -5807,10 +6089,55 @@
         <v>24</v>
       </c>
       <c r="HK8">
-        <v>199</v>
+        <v>22</v>
+      </c>
+      <c r="HL8">
+        <v>57</v>
+      </c>
+      <c r="HM8">
+        <v>65</v>
+      </c>
+      <c r="HN8">
+        <v>16</v>
+      </c>
+      <c r="HO8">
+        <v>52</v>
+      </c>
+      <c r="HP8">
+        <v>49</v>
+      </c>
+      <c r="HQ8">
+        <v>122</v>
+      </c>
+      <c r="HR8">
+        <v>98</v>
+      </c>
+      <c r="HS8">
+        <v>75</v>
+      </c>
+      <c r="HT8">
+        <v>68</v>
+      </c>
+      <c r="HU8">
+        <v>65</v>
+      </c>
+      <c r="HV8">
+        <v>81</v>
+      </c>
+      <c r="HW8">
+        <v>114</v>
+      </c>
+      <c r="HX8">
+        <v>37</v>
+      </c>
+      <c r="HY8">
+        <v>61</v>
+      </c>
+      <c r="HZ8">
+        <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:219" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:238" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -6277,10 +6604,11 @@
         <v>0</v>
       </c>
       <c r="EZ9">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>67</v>
       </c>
       <c r="FA9">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="FB9">
         <v>0</v>
@@ -6466,10 +6794,55 @@
         <v>107</v>
       </c>
       <c r="HK9">
-        <v>132</v>
+        <v>172</v>
+      </c>
+      <c r="HL9">
+        <v>127</v>
+      </c>
+      <c r="HM9">
+        <v>116</v>
+      </c>
+      <c r="HN9">
+        <v>92</v>
+      </c>
+      <c r="HO9">
+        <v>157</v>
+      </c>
+      <c r="HP9">
+        <v>193</v>
+      </c>
+      <c r="HQ9">
+        <v>181</v>
+      </c>
+      <c r="HR9">
+        <v>206</v>
+      </c>
+      <c r="HS9">
+        <v>139</v>
+      </c>
+      <c r="HT9">
+        <v>164</v>
+      </c>
+      <c r="HU9">
+        <v>113</v>
+      </c>
+      <c r="HV9">
+        <v>157</v>
+      </c>
+      <c r="HW9">
+        <v>200</v>
+      </c>
+      <c r="HX9">
+        <v>176</v>
+      </c>
+      <c r="HY9">
+        <v>295</v>
+      </c>
+      <c r="HZ9">
+        <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:219" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:238" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -6936,10 +7309,11 @@
         <v>50</v>
       </c>
       <c r="EZ10">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>76</v>
       </c>
       <c r="FA10">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="FB10">
         <v>0</v>
@@ -7125,10 +7499,55 @@
         <v>32</v>
       </c>
       <c r="HK10">
-        <v>150</v>
+        <v>50</v>
+      </c>
+      <c r="HL10">
+        <v>49</v>
+      </c>
+      <c r="HM10">
+        <v>30</v>
+      </c>
+      <c r="HN10">
+        <v>23</v>
+      </c>
+      <c r="HO10">
+        <v>37</v>
+      </c>
+      <c r="HP10">
+        <v>128</v>
+      </c>
+      <c r="HQ10">
+        <v>52</v>
+      </c>
+      <c r="HR10">
+        <v>71</v>
+      </c>
+      <c r="HS10">
+        <v>47</v>
+      </c>
+      <c r="HT10">
+        <v>69</v>
+      </c>
+      <c r="HU10">
+        <v>59</v>
+      </c>
+      <c r="HV10">
+        <v>129</v>
+      </c>
+      <c r="HW10">
+        <v>83</v>
+      </c>
+      <c r="HX10">
+        <v>52</v>
+      </c>
+      <c r="HY10">
+        <v>121</v>
+      </c>
+      <c r="HZ10">
+        <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:219" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:238" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -7595,10 +8014,11 @@
         <v>0</v>
       </c>
       <c r="EZ11">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>71</v>
       </c>
       <c r="FA11">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="FB11">
         <v>0</v>
@@ -7784,10 +8204,55 @@
         <v>79</v>
       </c>
       <c r="HK11">
-        <v>140</v>
+        <v>99</v>
+      </c>
+      <c r="HL11">
+        <v>46</v>
+      </c>
+      <c r="HM11">
+        <v>24</v>
+      </c>
+      <c r="HN11">
+        <v>82</v>
+      </c>
+      <c r="HO11">
+        <v>104</v>
+      </c>
+      <c r="HP11">
+        <v>142</v>
+      </c>
+      <c r="HQ11">
+        <v>94</v>
+      </c>
+      <c r="HR11">
+        <v>105</v>
+      </c>
+      <c r="HS11">
+        <v>155</v>
+      </c>
+      <c r="HT11">
+        <v>52</v>
+      </c>
+      <c r="HU11">
+        <v>111</v>
+      </c>
+      <c r="HV11">
+        <v>105</v>
+      </c>
+      <c r="HW11">
+        <v>175</v>
+      </c>
+      <c r="HX11">
+        <v>147</v>
+      </c>
+      <c r="HY11">
+        <v>202</v>
+      </c>
+      <c r="HZ11">
+        <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:219" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:238" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -8254,10 +8719,11 @@
         <v>25</v>
       </c>
       <c r="EZ12">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>61</v>
       </c>
       <c r="FA12">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="FB12">
         <v>0</v>
@@ -8443,10 +8909,55 @@
         <v>50</v>
       </c>
       <c r="HK12">
-        <v>115</v>
+        <v>32</v>
+      </c>
+      <c r="HL12">
+        <v>30</v>
+      </c>
+      <c r="HM12">
+        <v>19</v>
+      </c>
+      <c r="HN12">
+        <v>48</v>
+      </c>
+      <c r="HO12">
+        <v>39</v>
+      </c>
+      <c r="HP12">
+        <v>65</v>
+      </c>
+      <c r="HQ12">
+        <v>61</v>
+      </c>
+      <c r="HR12">
+        <v>46</v>
+      </c>
+      <c r="HS12">
+        <v>36</v>
+      </c>
+      <c r="HT12">
+        <v>41</v>
+      </c>
+      <c r="HU12">
+        <v>64</v>
+      </c>
+      <c r="HV12">
+        <v>96</v>
+      </c>
+      <c r="HW12">
+        <v>53</v>
+      </c>
+      <c r="HX12">
+        <v>106</v>
+      </c>
+      <c r="HY12">
+        <v>116</v>
+      </c>
+      <c r="HZ12">
+        <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:219" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:238" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -8913,10 +9424,11 @@
         <v>0</v>
       </c>
       <c r="EZ13">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>47</v>
       </c>
       <c r="FA13">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="FB13">
         <v>0</v>
@@ -9102,10 +9614,55 @@
         <v>18</v>
       </c>
       <c r="HK13">
-        <v>97</v>
+        <v>13</v>
+      </c>
+      <c r="HL13">
+        <v>11</v>
+      </c>
+      <c r="HM13">
+        <v>11</v>
+      </c>
+      <c r="HN13">
+        <v>11</v>
+      </c>
+      <c r="HO13">
+        <v>43</v>
+      </c>
+      <c r="HP13">
+        <v>22</v>
+      </c>
+      <c r="HQ13">
+        <v>31</v>
+      </c>
+      <c r="HR13">
+        <v>30</v>
+      </c>
+      <c r="HS13">
+        <v>29</v>
+      </c>
+      <c r="HT13">
+        <v>21</v>
+      </c>
+      <c r="HU13">
+        <v>16</v>
+      </c>
+      <c r="HV13">
+        <v>21</v>
+      </c>
+      <c r="HW13">
+        <v>18</v>
+      </c>
+      <c r="HX13">
+        <v>29</v>
+      </c>
+      <c r="HY13">
+        <v>24</v>
+      </c>
+      <c r="HZ13">
+        <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:219" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:238" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -9572,10 +10129,11 @@
         <v>24</v>
       </c>
       <c r="EZ14">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
       <c r="FA14">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="FB14">
         <v>0</v>
@@ -9761,10 +10319,55 @@
         <v>23</v>
       </c>
       <c r="HK14">
-        <v>68</v>
+        <v>18</v>
+      </c>
+      <c r="HL14">
+        <v>21</v>
+      </c>
+      <c r="HM14">
+        <v>12</v>
+      </c>
+      <c r="HN14">
+        <v>22</v>
+      </c>
+      <c r="HO14">
+        <v>44</v>
+      </c>
+      <c r="HP14">
+        <v>28</v>
+      </c>
+      <c r="HQ14">
+        <v>28</v>
+      </c>
+      <c r="HR14">
+        <v>33</v>
+      </c>
+      <c r="HS14">
+        <v>18</v>
+      </c>
+      <c r="HT14">
+        <v>16</v>
+      </c>
+      <c r="HU14">
+        <v>28</v>
+      </c>
+      <c r="HV14">
+        <v>24</v>
+      </c>
+      <c r="HW14">
+        <v>41</v>
+      </c>
+      <c r="HX14">
+        <v>31</v>
+      </c>
+      <c r="HY14">
+        <v>55</v>
+      </c>
+      <c r="HZ14">
+        <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:219" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:238" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -10231,10 +10834,11 @@
         <v>0</v>
       </c>
       <c r="EZ15">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="FA15">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="FB15">
         <v>0</v>
@@ -10420,10 +11024,55 @@
         <v>70</v>
       </c>
       <c r="HK15">
-        <v>118</v>
+        <v>148</v>
+      </c>
+      <c r="HL15">
+        <v>79</v>
+      </c>
+      <c r="HM15">
+        <v>69</v>
+      </c>
+      <c r="HN15">
+        <v>66</v>
+      </c>
+      <c r="HO15">
+        <v>79</v>
+      </c>
+      <c r="HP15">
+        <v>75</v>
+      </c>
+      <c r="HQ15">
+        <v>77</v>
+      </c>
+      <c r="HR15">
+        <v>124</v>
+      </c>
+      <c r="HS15">
+        <v>115</v>
+      </c>
+      <c r="HT15">
+        <v>28</v>
+      </c>
+      <c r="HU15">
+        <v>115</v>
+      </c>
+      <c r="HV15">
+        <v>103</v>
+      </c>
+      <c r="HW15">
+        <v>93</v>
+      </c>
+      <c r="HX15">
+        <v>110</v>
+      </c>
+      <c r="HY15">
+        <v>109</v>
+      </c>
+      <c r="HZ15">
+        <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:219" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:238" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -10890,10 +11539,11 @@
         <v>62</v>
       </c>
       <c r="EZ16">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>37</v>
       </c>
       <c r="FA16">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="FB16">
         <v>0</v>
@@ -11079,10 +11729,55 @@
         <v>66</v>
       </c>
       <c r="HK16">
-        <v>72</v>
+        <v>82</v>
+      </c>
+      <c r="HL16">
+        <v>34</v>
+      </c>
+      <c r="HM16">
+        <v>83</v>
+      </c>
+      <c r="HN16">
+        <v>85</v>
+      </c>
+      <c r="HO16">
+        <v>98</v>
+      </c>
+      <c r="HP16">
+        <v>117</v>
+      </c>
+      <c r="HQ16">
+        <v>129</v>
+      </c>
+      <c r="HR16">
+        <v>138</v>
+      </c>
+      <c r="HS16">
+        <v>94</v>
+      </c>
+      <c r="HT16">
+        <v>69</v>
+      </c>
+      <c r="HU16">
+        <v>172</v>
+      </c>
+      <c r="HV16">
+        <v>198</v>
+      </c>
+      <c r="HW16">
+        <v>227</v>
+      </c>
+      <c r="HX16">
+        <v>267</v>
+      </c>
+      <c r="HY16">
+        <v>171</v>
+      </c>
+      <c r="HZ16">
+        <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:219" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:234" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -11549,10 +12244,11 @@
         <v>0</v>
       </c>
       <c r="EZ17">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>43</v>
       </c>
       <c r="FA17">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="FB17">
         <v>0</v>
@@ -11738,10 +12434,55 @@
         <v>78</v>
       </c>
       <c r="HK17">
-        <v>83</v>
+        <v>101</v>
+      </c>
+      <c r="HL17">
+        <v>48</v>
+      </c>
+      <c r="HM17">
+        <v>29</v>
+      </c>
+      <c r="HN17">
+        <v>34</v>
+      </c>
+      <c r="HO17">
+        <v>84</v>
+      </c>
+      <c r="HP17">
+        <v>57</v>
+      </c>
+      <c r="HQ17">
+        <v>49</v>
+      </c>
+      <c r="HR17">
+        <v>72</v>
+      </c>
+      <c r="HS17">
+        <v>52</v>
+      </c>
+      <c r="HT17">
+        <v>74</v>
+      </c>
+      <c r="HU17">
+        <v>39</v>
+      </c>
+      <c r="HV17">
+        <v>47</v>
+      </c>
+      <c r="HW17">
+        <v>66</v>
+      </c>
+      <c r="HX17">
+        <v>60</v>
+      </c>
+      <c r="HY17">
+        <v>69</v>
+      </c>
+      <c r="HZ17">
+        <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:219" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:234" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -12208,10 +12949,11 @@
         <v>37</v>
       </c>
       <c r="EZ18">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
       <c r="FA18">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="FB18">
         <v>0</v>
@@ -12397,10 +13139,55 @@
         <v>37</v>
       </c>
       <c r="HK18">
-        <v>74</v>
+        <v>49</v>
+      </c>
+      <c r="HL18">
+        <v>17</v>
+      </c>
+      <c r="HM18">
+        <v>12</v>
+      </c>
+      <c r="HN18">
+        <v>40</v>
+      </c>
+      <c r="HO18">
+        <v>80</v>
+      </c>
+      <c r="HP18">
+        <v>68</v>
+      </c>
+      <c r="HQ18">
+        <v>51</v>
+      </c>
+      <c r="HR18">
+        <v>75</v>
+      </c>
+      <c r="HS18">
+        <v>42</v>
+      </c>
+      <c r="HT18">
+        <v>48</v>
+      </c>
+      <c r="HU18">
+        <v>49</v>
+      </c>
+      <c r="HV18">
+        <v>118</v>
+      </c>
+      <c r="HW18">
+        <v>81</v>
+      </c>
+      <c r="HX18">
+        <v>66</v>
+      </c>
+      <c r="HY18">
+        <v>91</v>
+      </c>
+      <c r="HZ18">
+        <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:219" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:234" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -12867,10 +13654,11 @@
         <v>33</v>
       </c>
       <c r="EZ19">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>46</v>
       </c>
       <c r="FA19">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="FB19">
         <v>0</v>
@@ -13056,10 +13844,55 @@
         <v>58</v>
       </c>
       <c r="HK19">
+        <v>50</v>
+      </c>
+      <c r="HL19">
+        <v>79</v>
+      </c>
+      <c r="HM19">
+        <v>36</v>
+      </c>
+      <c r="HN19">
+        <v>34</v>
+      </c>
+      <c r="HO19">
+        <v>83</v>
+      </c>
+      <c r="HP19">
         <v>90</v>
       </c>
+      <c r="HQ19">
+        <v>130</v>
+      </c>
+      <c r="HR19">
+        <v>87</v>
+      </c>
+      <c r="HS19">
+        <v>110</v>
+      </c>
+      <c r="HT19">
+        <v>53</v>
+      </c>
+      <c r="HU19">
+        <v>50</v>
+      </c>
+      <c r="HV19">
+        <v>195</v>
+      </c>
+      <c r="HW19">
+        <v>58</v>
+      </c>
+      <c r="HX19">
+        <v>133</v>
+      </c>
+      <c r="HY19">
+        <v>138</v>
+      </c>
+      <c r="HZ19">
+        <v>227</v>
+      </c>
     </row>
-    <row r="20" spans="1:219" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:234" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -13526,10 +14359,11 @@
         <v>29</v>
       </c>
       <c r="EZ20">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="FA20">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="FB20">
         <v>0</v>
@@ -13715,10 +14549,55 @@
         <v>76</v>
       </c>
       <c r="HK20">
-        <v>59</v>
+        <v>70</v>
+      </c>
+      <c r="HL20">
+        <v>68</v>
+      </c>
+      <c r="HM20">
+        <v>29</v>
+      </c>
+      <c r="HN20">
+        <v>76</v>
+      </c>
+      <c r="HO20">
+        <v>94</v>
+      </c>
+      <c r="HP20">
+        <v>85</v>
+      </c>
+      <c r="HQ20">
+        <v>69</v>
+      </c>
+      <c r="HR20">
+        <v>87</v>
+      </c>
+      <c r="HS20">
+        <v>85</v>
+      </c>
+      <c r="HT20">
+        <v>41</v>
+      </c>
+      <c r="HU20">
+        <v>66</v>
+      </c>
+      <c r="HV20">
+        <v>86</v>
+      </c>
+      <c r="HW20">
+        <v>83</v>
+      </c>
+      <c r="HX20">
+        <v>97</v>
+      </c>
+      <c r="HY20">
+        <v>92</v>
+      </c>
+      <c r="HZ20">
+        <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:219" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:234" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -14185,10 +15064,11 @@
         <v>22</v>
       </c>
       <c r="EZ21">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="FA21">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="FB21">
         <v>0</v>
@@ -14374,10 +15254,55 @@
         <v>28</v>
       </c>
       <c r="HK21">
-        <v>79</v>
+        <v>13</v>
+      </c>
+      <c r="HL21">
+        <v>31</v>
+      </c>
+      <c r="HM21">
+        <v>23</v>
+      </c>
+      <c r="HN21">
+        <v>20</v>
+      </c>
+      <c r="HO21">
+        <v>54</v>
+      </c>
+      <c r="HP21">
+        <v>17</v>
+      </c>
+      <c r="HQ21">
+        <v>37</v>
+      </c>
+      <c r="HR21">
+        <v>45</v>
+      </c>
+      <c r="HS21">
+        <v>0</v>
+      </c>
+      <c r="HT21">
+        <v>62</v>
+      </c>
+      <c r="HU21">
+        <v>31</v>
+      </c>
+      <c r="HV21">
+        <v>35</v>
+      </c>
+      <c r="HW21">
+        <v>50</v>
+      </c>
+      <c r="HX21">
+        <v>31</v>
+      </c>
+      <c r="HY21">
+        <v>51</v>
+      </c>
+      <c r="HZ21">
+        <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:219" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:234" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -14844,10 +15769,11 @@
         <v>0</v>
       </c>
       <c r="EZ22">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
       <c r="FA22">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="FB22">
         <v>0</v>
@@ -15033,10 +15959,55 @@
         <v>25</v>
       </c>
       <c r="HK22">
-        <v>76</v>
+        <v>8</v>
+      </c>
+      <c r="HL22">
+        <v>34</v>
+      </c>
+      <c r="HM22">
+        <v>11</v>
+      </c>
+      <c r="HN22">
+        <v>69</v>
+      </c>
+      <c r="HO22">
+        <v>47</v>
+      </c>
+      <c r="HP22">
+        <v>54</v>
+      </c>
+      <c r="HQ22">
+        <v>48</v>
+      </c>
+      <c r="HR22">
+        <v>115</v>
+      </c>
+      <c r="HS22">
+        <v>44</v>
+      </c>
+      <c r="HT22">
+        <v>18</v>
+      </c>
+      <c r="HU22">
+        <v>56</v>
+      </c>
+      <c r="HV22">
+        <v>63</v>
+      </c>
+      <c r="HW22">
+        <v>60</v>
+      </c>
+      <c r="HX22">
+        <v>80</v>
+      </c>
+      <c r="HY22">
+        <v>100</v>
+      </c>
+      <c r="HZ22">
+        <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:219" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:234" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -15503,10 +16474,11 @@
         <v>0</v>
       </c>
       <c r="EZ23">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>53</v>
       </c>
       <c r="FA23">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="FB23">
         <v>0</v>
@@ -15692,10 +16664,55 @@
         <v>22</v>
       </c>
       <c r="HK23">
-        <v>104</v>
+        <v>32</v>
+      </c>
+      <c r="HL23">
+        <v>14</v>
+      </c>
+      <c r="HM23">
+        <v>17</v>
+      </c>
+      <c r="HN23">
+        <v>12</v>
+      </c>
+      <c r="HO23">
+        <v>52</v>
+      </c>
+      <c r="HP23">
+        <v>33</v>
+      </c>
+      <c r="HQ23">
+        <v>41</v>
+      </c>
+      <c r="HR23">
+        <v>24</v>
+      </c>
+      <c r="HS23">
+        <v>22</v>
+      </c>
+      <c r="HT23">
+        <v>9</v>
+      </c>
+      <c r="HU23">
+        <v>37</v>
+      </c>
+      <c r="HV23">
+        <v>32</v>
+      </c>
+      <c r="HW23">
+        <v>32</v>
+      </c>
+      <c r="HX23">
+        <v>33</v>
+      </c>
+      <c r="HY23">
+        <v>26</v>
+      </c>
+      <c r="HZ23">
+        <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:219" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:234" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -16162,10 +17179,11 @@
         <v>0</v>
       </c>
       <c r="EZ24">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="FA24">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="FB24">
         <v>0</v>
@@ -16351,10 +17369,55 @@
         <v>37</v>
       </c>
       <c r="HK24">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="HL24">
+        <v>42</v>
+      </c>
+      <c r="HM24">
+        <v>12</v>
+      </c>
+      <c r="HN24">
+        <v>55</v>
+      </c>
+      <c r="HO24">
+        <v>81</v>
+      </c>
+      <c r="HP24">
+        <v>70</v>
+      </c>
+      <c r="HQ24">
+        <v>70</v>
+      </c>
+      <c r="HR24">
+        <v>159</v>
+      </c>
+      <c r="HS24">
+        <v>83</v>
+      </c>
+      <c r="HT24">
+        <v>51</v>
+      </c>
+      <c r="HU24">
+        <v>56</v>
+      </c>
+      <c r="HV24">
+        <v>150</v>
+      </c>
+      <c r="HW24">
+        <v>129</v>
+      </c>
+      <c r="HX24">
+        <v>134</v>
+      </c>
+      <c r="HY24">
+        <v>66</v>
+      </c>
+      <c r="HZ24">
+        <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:219" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:234" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -16821,10 +17884,11 @@
         <v>0</v>
       </c>
       <c r="EZ25">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>23</v>
       </c>
       <c r="FA25">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="FB25">
         <v>0</v>
@@ -17010,10 +18074,55 @@
         <v>44</v>
       </c>
       <c r="HK25">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="HL25">
+        <v>25</v>
+      </c>
+      <c r="HM25">
+        <v>33</v>
+      </c>
+      <c r="HN25">
+        <v>25</v>
+      </c>
+      <c r="HO25">
+        <v>70</v>
+      </c>
+      <c r="HP25">
+        <v>66</v>
+      </c>
+      <c r="HQ25">
+        <v>72</v>
+      </c>
+      <c r="HR25">
+        <v>78</v>
+      </c>
+      <c r="HS25">
+        <v>63</v>
+      </c>
+      <c r="HT25">
+        <v>82</v>
+      </c>
+      <c r="HU25">
+        <v>115</v>
+      </c>
+      <c r="HV25">
+        <v>111</v>
+      </c>
+      <c r="HW25">
+        <v>123</v>
+      </c>
+      <c r="HX25">
+        <v>106</v>
+      </c>
+      <c r="HY25">
+        <v>123</v>
+      </c>
+      <c r="HZ25">
+        <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:219" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:234" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -17480,10 +18589,11 @@
         <v>0</v>
       </c>
       <c r="EZ26">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
       <c r="FA26">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="FB26">
         <v>0</v>
@@ -17669,10 +18779,55 @@
         <v>37</v>
       </c>
       <c r="HK26">
-        <v>76</v>
+        <v>29</v>
+      </c>
+      <c r="HL26">
+        <v>40</v>
+      </c>
+      <c r="HM26">
+        <v>2</v>
+      </c>
+      <c r="HN26">
+        <v>27</v>
+      </c>
+      <c r="HO26">
+        <v>39</v>
+      </c>
+      <c r="HP26">
+        <v>56</v>
+      </c>
+      <c r="HQ26">
+        <v>38</v>
+      </c>
+      <c r="HR26">
+        <v>64</v>
+      </c>
+      <c r="HS26">
+        <v>26</v>
+      </c>
+      <c r="HT26">
+        <v>1</v>
+      </c>
+      <c r="HU26">
+        <v>65</v>
+      </c>
+      <c r="HV26">
+        <v>50</v>
+      </c>
+      <c r="HW26">
+        <v>77</v>
+      </c>
+      <c r="HX26">
+        <v>74</v>
+      </c>
+      <c r="HY26">
+        <v>89</v>
+      </c>
+      <c r="HZ26">
+        <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:219" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:234" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -18139,10 +19294,11 @@
         <v>3</v>
       </c>
       <c r="EZ27">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="FA27">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="FB27">
         <v>0</v>
@@ -18328,10 +19484,55 @@
         <v>24</v>
       </c>
       <c r="HK27">
+        <v>12</v>
+      </c>
+      <c r="HL27">
+        <v>14</v>
+      </c>
+      <c r="HM27">
+        <v>18</v>
+      </c>
+      <c r="HN27">
         <v>13</v>
       </c>
+      <c r="HO27">
+        <v>31</v>
+      </c>
+      <c r="HP27">
+        <v>39</v>
+      </c>
+      <c r="HQ27">
+        <v>46</v>
+      </c>
+      <c r="HR27">
+        <v>42</v>
+      </c>
+      <c r="HS27">
+        <v>24</v>
+      </c>
+      <c r="HT27">
+        <v>32</v>
+      </c>
+      <c r="HU27">
+        <v>33</v>
+      </c>
+      <c r="HV27">
+        <v>39</v>
+      </c>
+      <c r="HW27">
+        <v>49</v>
+      </c>
+      <c r="HX27">
+        <v>56</v>
+      </c>
+      <c r="HY27">
+        <v>47</v>
+      </c>
+      <c r="HZ27">
+        <v>87</v>
+      </c>
     </row>
-    <row r="28" spans="1:219" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:234" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -18798,10 +19999,11 @@
         <v>0</v>
       </c>
       <c r="EZ28">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>36</v>
       </c>
       <c r="FA28">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="FB28">
         <v>0</v>
@@ -18987,10 +20189,55 @@
         <v>68</v>
       </c>
       <c r="HK28">
-        <v>71</v>
+        <v>52</v>
+      </c>
+      <c r="HL28">
+        <v>43</v>
+      </c>
+      <c r="HM28">
+        <v>39</v>
+      </c>
+      <c r="HN28">
+        <v>15</v>
+      </c>
+      <c r="HO28">
+        <v>82</v>
+      </c>
+      <c r="HP28">
+        <v>95</v>
+      </c>
+      <c r="HQ28">
+        <v>147</v>
+      </c>
+      <c r="HR28">
+        <v>99</v>
+      </c>
+      <c r="HS28">
+        <v>97</v>
+      </c>
+      <c r="HT28">
+        <v>68</v>
+      </c>
+      <c r="HU28">
+        <v>29</v>
+      </c>
+      <c r="HV28">
+        <v>96</v>
+      </c>
+      <c r="HW28">
+        <v>96</v>
+      </c>
+      <c r="HX28">
+        <v>92</v>
+      </c>
+      <c r="HY28">
+        <v>137</v>
+      </c>
+      <c r="HZ28">
+        <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:219" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:234" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -19457,10 +20704,11 @@
         <v>0</v>
       </c>
       <c r="EZ29">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>46</v>
       </c>
       <c r="FA29">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="FB29">
         <v>0</v>
@@ -19646,10 +20894,55 @@
         <v>32</v>
       </c>
       <c r="HK29">
-        <v>90</v>
+        <v>23</v>
+      </c>
+      <c r="HL29">
+        <v>30</v>
+      </c>
+      <c r="HM29">
+        <v>23</v>
+      </c>
+      <c r="HN29">
+        <v>51</v>
+      </c>
+      <c r="HO29">
+        <v>50</v>
+      </c>
+      <c r="HP29">
+        <v>85</v>
+      </c>
+      <c r="HQ29">
+        <v>32</v>
+      </c>
+      <c r="HR29">
+        <v>49</v>
+      </c>
+      <c r="HS29">
+        <v>36</v>
+      </c>
+      <c r="HT29">
+        <v>59</v>
+      </c>
+      <c r="HU29">
+        <v>55</v>
+      </c>
+      <c r="HV29">
+        <v>69</v>
+      </c>
+      <c r="HW29">
+        <v>76</v>
+      </c>
+      <c r="HX29">
+        <v>116</v>
+      </c>
+      <c r="HY29">
+        <v>51</v>
+      </c>
+      <c r="HZ29">
+        <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:219" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:234" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -20116,10 +21409,11 @@
         <v>13</v>
       </c>
       <c r="EZ30">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="FA30">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="FB30">
         <v>0</v>
@@ -20305,10 +21599,55 @@
         <v>17</v>
       </c>
       <c r="HK30">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="HL30">
+        <v>10</v>
+      </c>
+      <c r="HM30">
+        <v>0</v>
+      </c>
+      <c r="HN30">
+        <v>37</v>
+      </c>
+      <c r="HO30">
+        <v>28</v>
+      </c>
+      <c r="HP30">
+        <v>21</v>
+      </c>
+      <c r="HQ30">
+        <v>20</v>
+      </c>
+      <c r="HR30">
+        <v>37</v>
+      </c>
+      <c r="HS30">
+        <v>21</v>
+      </c>
+      <c r="HT30">
+        <v>0</v>
+      </c>
+      <c r="HU30">
+        <v>34</v>
+      </c>
+      <c r="HV30">
+        <v>44</v>
+      </c>
+      <c r="HW30">
+        <v>33</v>
+      </c>
+      <c r="HX30">
+        <v>43</v>
+      </c>
+      <c r="HY30">
+        <v>36</v>
+      </c>
+      <c r="HZ30">
+        <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:219" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:234" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -20775,10 +22114,11 @@
         <v>0</v>
       </c>
       <c r="EZ31">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="FA31">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="FB31">
         <v>0</v>
@@ -20964,10 +22304,55 @@
         <v>6</v>
       </c>
       <c r="HK31">
-        <v>79</v>
+        <v>8</v>
+      </c>
+      <c r="HL31">
+        <v>5</v>
+      </c>
+      <c r="HM31">
+        <v>7</v>
+      </c>
+      <c r="HN31">
+        <v>6</v>
+      </c>
+      <c r="HO31">
+        <v>37</v>
+      </c>
+      <c r="HP31">
+        <v>8</v>
+      </c>
+      <c r="HQ31">
+        <v>15</v>
+      </c>
+      <c r="HR31">
+        <v>31</v>
+      </c>
+      <c r="HS31">
+        <v>22</v>
+      </c>
+      <c r="HT31">
+        <v>18</v>
+      </c>
+      <c r="HU31">
+        <v>24</v>
+      </c>
+      <c r="HV31">
+        <v>21</v>
+      </c>
+      <c r="HW31">
+        <v>17</v>
+      </c>
+      <c r="HX31">
+        <v>21</v>
+      </c>
+      <c r="HY31">
+        <v>17</v>
+      </c>
+      <c r="HZ31">
+        <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:219" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:234" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -21434,10 +22819,11 @@
         <v>22</v>
       </c>
       <c r="EZ32">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="FA32">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="FB32">
         <v>1</v>
@@ -21623,10 +23009,55 @@
         <v>44</v>
       </c>
       <c r="HK32">
-        <v>19</v>
+        <v>34</v>
+      </c>
+      <c r="HL32">
+        <v>53</v>
+      </c>
+      <c r="HM32">
+        <v>27</v>
+      </c>
+      <c r="HN32">
+        <v>53</v>
+      </c>
+      <c r="HO32">
+        <v>117</v>
+      </c>
+      <c r="HP32">
+        <v>71</v>
+      </c>
+      <c r="HQ32">
+        <v>106</v>
+      </c>
+      <c r="HR32">
+        <v>115</v>
+      </c>
+      <c r="HS32">
+        <v>74</v>
+      </c>
+      <c r="HT32">
+        <v>52</v>
+      </c>
+      <c r="HU32">
+        <v>101</v>
+      </c>
+      <c r="HV32">
+        <v>131</v>
+      </c>
+      <c r="HW32">
+        <v>126</v>
+      </c>
+      <c r="HX32">
+        <v>121</v>
+      </c>
+      <c r="HY32">
+        <v>153</v>
+      </c>
+      <c r="HZ32">
+        <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:219" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:234" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -22093,10 +23524,11 @@
         <v>0</v>
       </c>
       <c r="EZ33">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="FA33">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="FB33">
         <v>0</v>
@@ -22282,10 +23714,55 @@
         <v>8</v>
       </c>
       <c r="HK33">
-        <v>24</v>
+        <v>36</v>
+      </c>
+      <c r="HL33">
+        <v>15</v>
+      </c>
+      <c r="HM33">
+        <v>4</v>
+      </c>
+      <c r="HN33">
+        <v>36</v>
+      </c>
+      <c r="HO33">
+        <v>14</v>
+      </c>
+      <c r="HP33">
+        <v>36</v>
+      </c>
+      <c r="HQ33">
+        <v>15</v>
+      </c>
+      <c r="HR33">
+        <v>29</v>
+      </c>
+      <c r="HS33">
+        <v>30</v>
+      </c>
+      <c r="HT33">
+        <v>30</v>
+      </c>
+      <c r="HU33">
+        <v>16</v>
+      </c>
+      <c r="HV33">
+        <v>30</v>
+      </c>
+      <c r="HW33">
+        <v>14</v>
+      </c>
+      <c r="HX33">
+        <v>49</v>
+      </c>
+      <c r="HY33">
+        <v>1</v>
+      </c>
+      <c r="HZ33">
+        <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:219" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:234" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -22752,10 +24229,11 @@
         <v>12</v>
       </c>
       <c r="EZ34">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="FA34">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="FB34">
         <v>0</v>
@@ -22941,10 +24419,55 @@
         <v>44</v>
       </c>
       <c r="HK34">
-        <v>22</v>
+        <v>4</v>
+      </c>
+      <c r="HL34">
+        <v>24</v>
+      </c>
+      <c r="HM34">
+        <v>2</v>
+      </c>
+      <c r="HN34">
+        <v>27</v>
+      </c>
+      <c r="HO34">
+        <v>13</v>
+      </c>
+      <c r="HP34">
+        <v>25</v>
+      </c>
+      <c r="HQ34">
+        <v>27</v>
+      </c>
+      <c r="HR34">
+        <v>14</v>
+      </c>
+      <c r="HS34">
+        <v>45</v>
+      </c>
+      <c r="HT34">
+        <v>0</v>
+      </c>
+      <c r="HU34">
+        <v>51</v>
+      </c>
+      <c r="HV34">
+        <v>23</v>
+      </c>
+      <c r="HW34">
+        <v>40</v>
+      </c>
+      <c r="HX34">
+        <v>33</v>
+      </c>
+      <c r="HY34">
+        <v>39</v>
+      </c>
+      <c r="HZ34">
+        <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:219" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:234" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -23411,10 +24934,11 @@
         <v>20</v>
       </c>
       <c r="EZ35">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="FA35">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="FB35">
         <v>0</v>
@@ -23600,10 +25124,55 @@
         <v>24</v>
       </c>
       <c r="HK35">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="HL35">
+        <v>14</v>
+      </c>
+      <c r="HM35">
+        <v>0</v>
+      </c>
+      <c r="HN35">
+        <v>62</v>
+      </c>
+      <c r="HO35">
+        <v>35</v>
+      </c>
+      <c r="HP35">
+        <v>25</v>
+      </c>
+      <c r="HQ35">
+        <v>68</v>
+      </c>
+      <c r="HR35">
+        <v>47</v>
+      </c>
+      <c r="HS35">
+        <v>29</v>
+      </c>
+      <c r="HT35">
+        <v>4</v>
+      </c>
+      <c r="HU35">
+        <v>64</v>
+      </c>
+      <c r="HV35">
+        <v>44</v>
+      </c>
+      <c r="HW35">
+        <v>42</v>
+      </c>
+      <c r="HX35">
+        <v>53</v>
+      </c>
+      <c r="HY35">
+        <v>41</v>
+      </c>
+      <c r="HZ35">
+        <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:219" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:234" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -24070,10 +25639,11 @@
         <v>0</v>
       </c>
       <c r="EZ36">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="FA36">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="FB36">
         <v>0</v>
@@ -24259,10 +25829,55 @@
         <v>27</v>
       </c>
       <c r="HK36">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="HL36">
+        <v>12</v>
+      </c>
+      <c r="HM36">
+        <v>10</v>
+      </c>
+      <c r="HN36">
+        <v>32</v>
+      </c>
+      <c r="HO36">
+        <v>41</v>
+      </c>
+      <c r="HP36">
+        <v>49</v>
+      </c>
+      <c r="HQ36">
+        <v>48</v>
+      </c>
+      <c r="HR36">
+        <v>41</v>
+      </c>
+      <c r="HS36">
+        <v>46</v>
+      </c>
+      <c r="HT36">
+        <v>24</v>
+      </c>
+      <c r="HU36">
+        <v>94</v>
+      </c>
+      <c r="HV36">
+        <v>94</v>
+      </c>
+      <c r="HW36">
+        <v>83</v>
+      </c>
+      <c r="HX36">
+        <v>119</v>
+      </c>
+      <c r="HY36">
+        <v>111</v>
+      </c>
+      <c r="HZ36">
+        <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:219" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:234" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -24729,10 +26344,11 @@
         <v>0</v>
       </c>
       <c r="EZ37">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="FA37">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="FB37">
         <v>0</v>
@@ -24918,10 +26534,55 @@
         <v>28</v>
       </c>
       <c r="HK37">
+        <v>14</v>
+      </c>
+      <c r="HL37">
+        <v>11</v>
+      </c>
+      <c r="HM37">
+        <v>17</v>
+      </c>
+      <c r="HN37">
+        <v>10</v>
+      </c>
+      <c r="HO37">
+        <v>18</v>
+      </c>
+      <c r="HP37">
+        <v>14</v>
+      </c>
+      <c r="HQ37">
+        <v>17</v>
+      </c>
+      <c r="HR37">
+        <v>14</v>
+      </c>
+      <c r="HS37">
+        <v>37</v>
+      </c>
+      <c r="HT37">
         <v>30</v>
       </c>
+      <c r="HU37">
+        <v>18</v>
+      </c>
+      <c r="HV37">
+        <v>50</v>
+      </c>
+      <c r="HW37">
+        <v>30</v>
+      </c>
+      <c r="HX37">
+        <v>28</v>
+      </c>
+      <c r="HY37">
+        <v>26</v>
+      </c>
+      <c r="HZ37">
+        <v>32</v>
+      </c>
     </row>
-    <row r="38" spans="1:219" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:234" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -25388,10 +27049,11 @@
         <v>0</v>
       </c>
       <c r="EZ38">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="FA38">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="FB38">
         <v>0</v>
@@ -25577,10 +27239,55 @@
         <v>44</v>
       </c>
       <c r="HK38">
-        <v>25</v>
+        <v>79</v>
+      </c>
+      <c r="HL38">
+        <v>11</v>
+      </c>
+      <c r="HM38">
+        <v>19</v>
+      </c>
+      <c r="HN38">
+        <v>71</v>
+      </c>
+      <c r="HO38">
+        <v>52</v>
+      </c>
+      <c r="HP38">
+        <v>67</v>
+      </c>
+      <c r="HQ38">
+        <v>59</v>
+      </c>
+      <c r="HR38">
+        <v>76</v>
+      </c>
+      <c r="HS38">
+        <v>22</v>
+      </c>
+      <c r="HT38">
+        <v>20</v>
+      </c>
+      <c r="HU38">
+        <v>83</v>
+      </c>
+      <c r="HV38">
+        <v>83</v>
+      </c>
+      <c r="HW38">
+        <v>52</v>
+      </c>
+      <c r="HX38">
+        <v>126</v>
+      </c>
+      <c r="HY38">
+        <v>43</v>
+      </c>
+      <c r="HZ38">
+        <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:219" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:234" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -26047,10 +27754,11 @@
         <v>13</v>
       </c>
       <c r="EZ39">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="FA39">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="FB39">
         <v>0</v>
@@ -26236,10 +27944,55 @@
         <v>9</v>
       </c>
       <c r="HK39">
+        <v>8</v>
+      </c>
+      <c r="HL39">
+        <v>20</v>
+      </c>
+      <c r="HM39">
+        <v>12</v>
+      </c>
+      <c r="HN39">
+        <v>25</v>
+      </c>
+      <c r="HO39">
+        <v>13</v>
+      </c>
+      <c r="HP39">
+        <v>10</v>
+      </c>
+      <c r="HQ39">
+        <v>14</v>
+      </c>
+      <c r="HR39">
+        <v>35</v>
+      </c>
+      <c r="HS39">
+        <v>18</v>
+      </c>
+      <c r="HT39">
+        <v>32</v>
+      </c>
+      <c r="HU39">
+        <v>29</v>
+      </c>
+      <c r="HV39">
+        <v>26</v>
+      </c>
+      <c r="HW39">
+        <v>30</v>
+      </c>
+      <c r="HX39">
         <v>16</v>
       </c>
+      <c r="HY39">
+        <v>13</v>
+      </c>
+      <c r="HZ39">
+        <v>42</v>
+      </c>
     </row>
-    <row r="40" spans="1:219" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:234" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -26706,10 +28459,11 @@
         <v>0</v>
       </c>
       <c r="EZ40">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="FA40">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="FB40">
         <v>0</v>
@@ -26895,10 +28649,55 @@
         <v>17</v>
       </c>
       <c r="HK40">
+        <v>13</v>
+      </c>
+      <c r="HL40">
+        <v>19</v>
+      </c>
+      <c r="HM40">
+        <v>8</v>
+      </c>
+      <c r="HN40">
+        <v>17</v>
+      </c>
+      <c r="HO40">
         <v>25</v>
       </c>
+      <c r="HP40">
+        <v>26</v>
+      </c>
+      <c r="HQ40">
+        <v>16</v>
+      </c>
+      <c r="HR40">
+        <v>16</v>
+      </c>
+      <c r="HS40">
+        <v>19</v>
+      </c>
+      <c r="HT40">
+        <v>6</v>
+      </c>
+      <c r="HU40">
+        <v>19</v>
+      </c>
+      <c r="HV40">
+        <v>32</v>
+      </c>
+      <c r="HW40">
+        <v>24</v>
+      </c>
+      <c r="HX40">
+        <v>10</v>
+      </c>
+      <c r="HY40">
+        <v>10</v>
+      </c>
+      <c r="HZ40">
+        <v>21</v>
+      </c>
     </row>
-    <row r="41" spans="1:219" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:234" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -27365,10 +29164,11 @@
         <v>0</v>
       </c>
       <c r="EZ41">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="FA41">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="FB41">
         <v>0</v>
@@ -27554,10 +29354,55 @@
         <v>17</v>
       </c>
       <c r="HK41">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="HL41">
+        <v>32</v>
+      </c>
+      <c r="HM41">
+        <v>0</v>
+      </c>
+      <c r="HN41">
+        <v>46</v>
+      </c>
+      <c r="HO41">
+        <v>62</v>
+      </c>
+      <c r="HP41">
+        <v>43</v>
+      </c>
+      <c r="HQ41">
+        <v>46</v>
+      </c>
+      <c r="HR41">
+        <v>54</v>
+      </c>
+      <c r="HS41">
+        <v>53</v>
+      </c>
+      <c r="HT41">
+        <v>3</v>
+      </c>
+      <c r="HU41">
+        <v>58</v>
+      </c>
+      <c r="HV41">
+        <v>53</v>
+      </c>
+      <c r="HW41">
+        <v>35</v>
+      </c>
+      <c r="HX41">
+        <v>72</v>
+      </c>
+      <c r="HY41">
+        <v>80</v>
+      </c>
+      <c r="HZ41">
+        <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:219" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:234" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -28024,10 +29869,11 @@
         <v>0</v>
       </c>
       <c r="EZ42">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="FA42">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="FB42">
         <v>0</v>
@@ -28213,10 +30059,55 @@
         <v>17</v>
       </c>
       <c r="HK42">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="HL42">
+        <v>18</v>
+      </c>
+      <c r="HM42">
+        <v>0</v>
+      </c>
+      <c r="HN42">
+        <v>12</v>
+      </c>
+      <c r="HO42">
+        <v>20</v>
+      </c>
+      <c r="HP42">
+        <v>31</v>
+      </c>
+      <c r="HQ42">
+        <v>23</v>
+      </c>
+      <c r="HR42">
+        <v>32</v>
+      </c>
+      <c r="HS42">
+        <v>18</v>
+      </c>
+      <c r="HT42">
+        <v>2</v>
+      </c>
+      <c r="HU42">
+        <v>25</v>
+      </c>
+      <c r="HV42">
+        <v>43</v>
+      </c>
+      <c r="HW42">
+        <v>56</v>
+      </c>
+      <c r="HX42">
+        <v>44</v>
+      </c>
+      <c r="HY42">
+        <v>40</v>
+      </c>
+      <c r="HZ42">
+        <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:219" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:234" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -28683,10 +30574,11 @@
         <v>27</v>
       </c>
       <c r="EZ43">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>71</v>
       </c>
       <c r="FA43">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="FB43">
         <v>0</v>
@@ -28872,10 +30764,55 @@
         <v>168</v>
       </c>
       <c r="HK43">
-        <v>141</v>
+        <v>98</v>
+      </c>
+      <c r="HL43">
+        <v>107</v>
+      </c>
+      <c r="HM43">
+        <v>38</v>
+      </c>
+      <c r="HN43">
+        <v>84</v>
+      </c>
+      <c r="HO43">
+        <v>82</v>
+      </c>
+      <c r="HP43">
+        <v>150</v>
+      </c>
+      <c r="HQ43">
+        <v>179</v>
+      </c>
+      <c r="HR43">
+        <v>90</v>
+      </c>
+      <c r="HS43">
+        <v>163</v>
+      </c>
+      <c r="HT43">
+        <v>99</v>
+      </c>
+      <c r="HU43">
+        <v>156</v>
+      </c>
+      <c r="HV43">
+        <v>85</v>
+      </c>
+      <c r="HW43">
+        <v>150</v>
+      </c>
+      <c r="HX43">
+        <v>153</v>
+      </c>
+      <c r="HY43">
+        <v>168</v>
+      </c>
+      <c r="HZ43">
+        <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:219" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:234" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -29342,10 +31279,11 @@
         <v>0</v>
       </c>
       <c r="EZ44">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>43</v>
       </c>
       <c r="FA44">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="FB44">
         <v>0</v>
@@ -29531,636 +31469,52 @@
         <v>102</v>
       </c>
       <c r="HK44">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:219" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>19</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
-      <c r="S45">
-        <v>0</v>
-      </c>
-      <c r="T45">
-        <v>0</v>
-      </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
-      <c r="V45">
-        <v>0</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45">
-        <v>0</v>
-      </c>
-      <c r="Y45">
-        <v>0</v>
-      </c>
-      <c r="Z45">
-        <v>1</v>
-      </c>
-      <c r="AA45">
-        <v>0</v>
-      </c>
-      <c r="AB45">
-        <v>1</v>
-      </c>
-      <c r="AC45">
-        <v>0</v>
-      </c>
-      <c r="AD45">
-        <v>0</v>
-      </c>
-      <c r="AE45">
-        <v>0</v>
-      </c>
-      <c r="AF45">
-        <v>1</v>
-      </c>
-      <c r="AG45">
-        <v>0</v>
-      </c>
-      <c r="AH45">
-        <v>3</v>
-      </c>
-      <c r="AI45">
-        <v>7</v>
-      </c>
-      <c r="AJ45">
-        <v>6</v>
-      </c>
-      <c r="AK45">
-        <v>4</v>
-      </c>
-      <c r="AL45">
-        <v>12</v>
-      </c>
-      <c r="AM45">
-        <v>11</v>
-      </c>
-      <c r="AN45">
-        <v>10</v>
-      </c>
-      <c r="AO45">
-        <v>0</v>
-      </c>
-      <c r="AP45">
-        <v>8</v>
-      </c>
-      <c r="AQ45">
-        <v>8</v>
-      </c>
-      <c r="AR45">
-        <v>2</v>
-      </c>
-      <c r="AS45">
-        <v>2</v>
-      </c>
-      <c r="AT45">
-        <v>7</v>
-      </c>
-      <c r="AU45">
-        <v>6</v>
-      </c>
-      <c r="AV45">
-        <v>3</v>
-      </c>
-      <c r="AW45">
-        <v>19</v>
-      </c>
-      <c r="AX45">
-        <v>5</v>
-      </c>
-      <c r="AY45">
-        <v>0</v>
-      </c>
-      <c r="AZ45">
-        <v>27</v>
-      </c>
-      <c r="BA45">
-        <v>3</v>
-      </c>
-      <c r="BB45">
-        <v>4</v>
-      </c>
-      <c r="BC45">
-        <v>14</v>
-      </c>
-      <c r="BD45">
-        <v>7</v>
-      </c>
-      <c r="BE45">
-        <v>5</v>
-      </c>
-      <c r="BF45">
-        <v>6</v>
-      </c>
-      <c r="BG45">
-        <v>7</v>
-      </c>
-      <c r="BH45">
-        <v>16</v>
-      </c>
-      <c r="BI45">
-        <v>10</v>
-      </c>
-      <c r="BJ45">
-        <v>5</v>
-      </c>
-      <c r="BK45">
-        <v>5</v>
-      </c>
-      <c r="BL45">
-        <v>7</v>
-      </c>
-      <c r="BM45">
-        <v>0</v>
-      </c>
-      <c r="BN45">
-        <v>9</v>
-      </c>
-      <c r="BO45">
-        <v>19</v>
-      </c>
-      <c r="BP45">
-        <v>4</v>
-      </c>
-      <c r="BQ45">
-        <v>20</v>
-      </c>
-      <c r="BR45">
-        <v>12</v>
-      </c>
-      <c r="BS45">
-        <v>27</v>
-      </c>
-      <c r="BT45">
-        <v>0</v>
-      </c>
-      <c r="BU45">
-        <v>5</v>
-      </c>
-      <c r="BV45">
-        <v>7</v>
-      </c>
-      <c r="BW45">
-        <v>4</v>
-      </c>
-      <c r="BX45">
-        <v>6</v>
-      </c>
-      <c r="BY45">
-        <v>8</v>
-      </c>
-      <c r="BZ45">
-        <v>11</v>
-      </c>
-      <c r="CA45">
-        <v>4</v>
-      </c>
-      <c r="CB45">
-        <v>8</v>
-      </c>
-      <c r="CC45">
-        <v>10</v>
-      </c>
-      <c r="CD45">
-        <v>1</v>
-      </c>
-      <c r="CE45">
-        <v>7</v>
-      </c>
-      <c r="CF45">
-        <v>1</v>
-      </c>
-      <c r="CG45">
-        <v>6</v>
-      </c>
-      <c r="CH45">
-        <v>6</v>
-      </c>
-      <c r="CI45">
-        <v>4</v>
-      </c>
-      <c r="CJ45">
-        <v>55</v>
-      </c>
-      <c r="CK45">
-        <v>2</v>
-      </c>
-      <c r="CL45">
-        <v>2</v>
-      </c>
-      <c r="CM45">
-        <v>2</v>
-      </c>
-      <c r="CN45">
-        <v>6</v>
-      </c>
-      <c r="CO45">
-        <v>9</v>
-      </c>
-      <c r="CP45">
-        <v>3</v>
-      </c>
-      <c r="CQ45">
-        <v>1</v>
-      </c>
-      <c r="CR45">
-        <v>0</v>
-      </c>
-      <c r="CS45">
-        <v>7</v>
-      </c>
-      <c r="CT45">
-        <v>7</v>
-      </c>
-      <c r="CU45">
-        <v>5</v>
-      </c>
-      <c r="CV45">
-        <v>6</v>
-      </c>
-      <c r="CW45">
-        <v>4</v>
-      </c>
-      <c r="CX45">
-        <v>1</v>
-      </c>
-      <c r="CY45">
-        <v>0</v>
-      </c>
-      <c r="CZ45">
-        <v>25</v>
-      </c>
-      <c r="DA45">
-        <v>19</v>
-      </c>
-      <c r="DB45">
-        <v>4</v>
-      </c>
-      <c r="DC45">
-        <v>8</v>
-      </c>
-      <c r="DD45">
-        <v>7</v>
-      </c>
-      <c r="DE45">
-        <v>1</v>
-      </c>
-      <c r="DF45">
-        <v>5</v>
-      </c>
-      <c r="DG45">
-        <v>12</v>
-      </c>
-      <c r="DH45">
-        <v>9</v>
-      </c>
-      <c r="DI45">
-        <v>7</v>
-      </c>
-      <c r="DJ45">
-        <v>12</v>
-      </c>
-      <c r="DK45">
-        <v>1</v>
-      </c>
-      <c r="DL45">
-        <v>2</v>
-      </c>
-      <c r="DM45">
-        <v>0</v>
-      </c>
-      <c r="DN45">
-        <v>19</v>
-      </c>
-      <c r="DO45">
-        <v>10</v>
-      </c>
-      <c r="DP45">
-        <v>9</v>
-      </c>
-      <c r="DQ45">
-        <v>5</v>
-      </c>
-      <c r="DR45">
-        <v>0</v>
-      </c>
-      <c r="DS45">
-        <v>14</v>
-      </c>
-      <c r="DT45">
-        <v>8</v>
-      </c>
-      <c r="DU45">
-        <v>10</v>
-      </c>
-      <c r="DV45">
-        <v>6</v>
-      </c>
-      <c r="DW45">
-        <v>6</v>
-      </c>
-      <c r="DX45">
-        <v>23</v>
-      </c>
-      <c r="DY45">
-        <v>10</v>
-      </c>
-      <c r="DZ45">
-        <v>2</v>
-      </c>
-      <c r="EA45">
-        <v>23</v>
-      </c>
-      <c r="EB45">
-        <v>19</v>
-      </c>
-      <c r="EC45">
-        <v>15</v>
-      </c>
-      <c r="ED45">
+        <v>42</v>
+      </c>
+      <c r="HL44">
         <v>18</v>
       </c>
-      <c r="EE45">
-        <v>18</v>
-      </c>
-      <c r="EF45">
-        <v>13</v>
-      </c>
-      <c r="EG45">
-        <v>0</v>
-      </c>
-      <c r="EH45">
-        <v>24</v>
-      </c>
-      <c r="EI45">
-        <v>15</v>
-      </c>
-      <c r="EJ45">
-        <v>10</v>
-      </c>
-      <c r="EK45">
-        <v>11</v>
-      </c>
-      <c r="EL45">
-        <v>29</v>
-      </c>
-      <c r="EM45">
-        <v>21</v>
-      </c>
-      <c r="EN45">
-        <v>3</v>
-      </c>
-      <c r="EO45">
-        <v>33</v>
-      </c>
-      <c r="EP45">
-        <v>24</v>
-      </c>
-      <c r="EQ45">
-        <v>8</v>
-      </c>
-      <c r="ER45">
+      <c r="HM44">
+        <v>44</v>
+      </c>
+      <c r="HN44">
+        <v>43</v>
+      </c>
+      <c r="HO44">
+        <v>78</v>
+      </c>
+      <c r="HP44">
+        <v>71</v>
+      </c>
+      <c r="HQ44">
+        <v>63</v>
+      </c>
+      <c r="HR44">
+        <v>53</v>
+      </c>
+      <c r="HS44">
+        <v>78</v>
+      </c>
+      <c r="HT44">
         <v>28</v>
       </c>
-      <c r="ES45">
-        <v>26</v>
-      </c>
-      <c r="ET45">
-        <v>29</v>
-      </c>
-      <c r="EU45">
-        <v>13</v>
-      </c>
-      <c r="EV45">
-        <v>33</v>
-      </c>
-      <c r="EW45">
-        <v>24</v>
-      </c>
-      <c r="EX45">
-        <v>24</v>
-      </c>
-      <c r="EY45">
-        <v>0</v>
-      </c>
-      <c r="EZ45">
-        <v>28</v>
-      </c>
-      <c r="FA45">
-        <v>28</v>
-      </c>
-      <c r="FB45">
-        <v>28</v>
-      </c>
-      <c r="FC45">
-        <v>28</v>
-      </c>
-      <c r="FD45">
-        <v>26</v>
-      </c>
-      <c r="FE45">
-        <v>30</v>
-      </c>
-      <c r="FF45">
-        <v>28</v>
-      </c>
-      <c r="FG45">
-        <v>45</v>
-      </c>
-      <c r="FH45">
-        <v>3</v>
-      </c>
-      <c r="FI45">
-        <v>17</v>
-      </c>
-      <c r="FJ45">
-        <v>29</v>
-      </c>
-      <c r="FK45">
-        <v>9</v>
-      </c>
-      <c r="FL45">
-        <v>70</v>
-      </c>
-      <c r="FM45">
-        <v>36</v>
-      </c>
-      <c r="FN45">
-        <v>49</v>
-      </c>
-      <c r="FO45">
-        <v>49</v>
-      </c>
-      <c r="FP45">
-        <v>29</v>
-      </c>
-      <c r="FQ45">
-        <v>22</v>
-      </c>
-      <c r="FR45">
-        <v>24</v>
-      </c>
-      <c r="FS45">
-        <v>36</v>
-      </c>
-      <c r="FT45">
-        <v>18</v>
-      </c>
-      <c r="FU45">
-        <v>17</v>
-      </c>
-      <c r="FV45">
-        <v>5</v>
-      </c>
-      <c r="FW45">
-        <v>30</v>
-      </c>
-      <c r="FX45">
-        <v>35</v>
-      </c>
-      <c r="FY45">
-        <v>33</v>
-      </c>
-      <c r="FZ45">
-        <v>63</v>
-      </c>
-      <c r="GA45">
-        <v>43</v>
-      </c>
-      <c r="GB45">
-        <v>19</v>
-      </c>
-      <c r="GC45">
-        <v>11</v>
-      </c>
-      <c r="GD45">
-        <v>36</v>
-      </c>
-      <c r="GE45">
-        <v>33</v>
-      </c>
-      <c r="GF45">
-        <v>18</v>
-      </c>
-      <c r="GG45">
-        <v>30</v>
-      </c>
-      <c r="GH45">
-        <v>11</v>
-      </c>
-      <c r="GI45">
-        <v>48</v>
-      </c>
-      <c r="GJ45">
-        <v>37</v>
-      </c>
-      <c r="GK45">
-        <v>6</v>
-      </c>
-      <c r="GL45">
-        <v>63</v>
-      </c>
-      <c r="GM45">
-        <v>38</v>
-      </c>
-      <c r="GN45">
-        <v>40</v>
-      </c>
-      <c r="GO45">
-        <v>49</v>
-      </c>
-      <c r="GP45">
-        <v>49</v>
-      </c>
-      <c r="GQ45">
-        <v>11</v>
-      </c>
-      <c r="GR45">
-        <v>15</v>
-      </c>
-      <c r="GS45">
-        <v>53</v>
-      </c>
-      <c r="GT45">
-        <v>65</v>
-      </c>
-      <c r="GU45">
-        <v>55</v>
-      </c>
-      <c r="GV45">
-        <v>33</v>
-      </c>
-      <c r="GW45">
-        <v>52</v>
-      </c>
-      <c r="GX45">
-        <v>19</v>
-      </c>
-      <c r="GY45">
-        <v>14</v>
-      </c>
-      <c r="GZ45">
-        <v>25</v>
-      </c>
-      <c r="HA45">
-        <v>55</v>
+      <c r="HU44">
+        <v>84</v>
+      </c>
+      <c r="HV44">
+        <v>82</v>
+      </c>
+      <c r="HW44">
+        <v>101</v>
+      </c>
+      <c r="HX44">
+        <v>72</v>
+      </c>
+      <c r="HY44">
+        <v>110</v>
+      </c>
+      <c r="HZ44">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Norbert/Cazuri_pe_judete_A-Z_tr.xlsx
+++ b/Database/Norbert/Cazuri_pe_judete_A-Z_tr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Norbert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7422D168-48F3-4876-93E8-4E032A2CBBE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0551845-E093-4469-A68C-3DDACDD4755C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{06F61592-3106-4B32-B324-A85F3BE76E2A}"/>
+    <workbookView xWindow="2590" yWindow="5210" windowWidth="26320" windowHeight="15460" xr2:uid="{06F61592-3106-4B32-B324-A85F3BE76E2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -516,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F331728F-2889-451A-AC65-AF010E569640}">
-  <dimension ref="A1:ID44"/>
+  <dimension ref="A1:IN44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="GB1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="HT53" sqref="HT53"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -538,10 +538,15 @@
     <col min="210" max="210" width="10.36328125" customWidth="1"/>
     <col min="218" max="218" width="9.90625" customWidth="1"/>
     <col min="219" max="219" width="10.36328125" customWidth="1"/>
-    <col min="234" max="234" width="10.54296875" customWidth="1"/>
+    <col min="233" max="233" width="11.1796875" customWidth="1"/>
+    <col min="234" max="234" width="11.6328125" customWidth="1"/>
+    <col min="235" max="235" width="9.36328125" customWidth="1"/>
+    <col min="246" max="246" width="10.08984375" customWidth="1"/>
+    <col min="247" max="247" width="11.81640625" customWidth="1"/>
+    <col min="248" max="248" width="9.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:238" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:248" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1244,12 +1249,50 @@
       <c r="HZ1" s="1">
         <v>44122</v>
       </c>
-      <c r="IA1" s="1"/>
-      <c r="IB1" s="1"/>
-      <c r="IC1" s="1"/>
-      <c r="ID1" s="1"/>
+      <c r="IA1" s="1">
+        <v>44123</v>
+      </c>
+      <c r="IB1" s="1">
+        <v>44124</v>
+      </c>
+      <c r="IC1" s="1">
+        <v>44125</v>
+      </c>
+      <c r="ID1" s="1">
+        <v>44126</v>
+      </c>
+      <c r="IE1" s="1">
+        <v>44127</v>
+      </c>
+      <c r="IF1" s="1">
+        <v>44128</v>
+      </c>
+      <c r="IG1" s="1">
+        <v>44129</v>
+      </c>
+      <c r="IH1" s="1">
+        <v>44130</v>
+      </c>
+      <c r="II1" s="1">
+        <v>44131</v>
+      </c>
+      <c r="IJ1" s="1">
+        <v>44132</v>
+      </c>
+      <c r="IK1" s="1">
+        <v>44133</v>
+      </c>
+      <c r="IL1" s="1">
+        <v>44134</v>
+      </c>
+      <c r="IM1" s="1">
+        <v>44135</v>
+      </c>
+      <c r="IN1" s="1">
+        <v>44136</v>
+      </c>
     </row>
-    <row r="2" spans="1:238" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:248" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -1952,8 +1995,50 @@
       <c r="HZ2" s="2">
         <v>233</v>
       </c>
+      <c r="IA2" s="2">
+        <v>234</v>
+      </c>
+      <c r="IB2" s="2">
+        <v>235</v>
+      </c>
+      <c r="IC2" s="2">
+        <v>236</v>
+      </c>
+      <c r="ID2" s="2">
+        <v>237</v>
+      </c>
+      <c r="IE2" s="2">
+        <v>238</v>
+      </c>
+      <c r="IF2" s="2">
+        <v>239</v>
+      </c>
+      <c r="IG2" s="2">
+        <v>240</v>
+      </c>
+      <c r="IH2" s="2">
+        <v>241</v>
+      </c>
+      <c r="II2" s="2">
+        <v>242</v>
+      </c>
+      <c r="IJ2" s="2">
+        <v>243</v>
+      </c>
+      <c r="IK2" s="2">
+        <v>244</v>
+      </c>
+      <c r="IL2" s="2">
+        <v>245</v>
+      </c>
+      <c r="IM2" s="2">
+        <v>246</v>
+      </c>
+      <c r="IN2" s="2">
+        <v>247</v>
+      </c>
     </row>
-    <row r="3" spans="1:238" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:248" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2611,8 +2696,95 @@
       <c r="HK3">
         <v>321</v>
       </c>
+      <c r="HL3" s="2">
+        <v>0</v>
+      </c>
+      <c r="HM3" s="2">
+        <v>0</v>
+      </c>
+      <c r="HN3" s="2">
+        <v>0</v>
+      </c>
+      <c r="HO3" s="2">
+        <v>0</v>
+      </c>
+      <c r="HP3" s="2">
+        <v>0</v>
+      </c>
+      <c r="HQ3" s="2">
+        <v>0</v>
+      </c>
+      <c r="HR3" s="2">
+        <v>0</v>
+      </c>
+      <c r="HS3" s="2">
+        <v>0</v>
+      </c>
+      <c r="HT3" s="2">
+        <v>0</v>
+      </c>
+      <c r="HU3" s="2">
+        <v>0</v>
+      </c>
+      <c r="HV3" s="2">
+        <v>0</v>
+      </c>
+      <c r="HW3" s="2">
+        <v>0</v>
+      </c>
+      <c r="HX3" s="2">
+        <v>0</v>
+      </c>
+      <c r="HY3" s="2">
+        <v>0</v>
+      </c>
+      <c r="HZ3" s="2">
+        <v>0</v>
+      </c>
+      <c r="IA3" s="2">
+        <v>0</v>
+      </c>
+      <c r="IB3" s="2">
+        <v>0</v>
+      </c>
+      <c r="IC3" s="2">
+        <v>0</v>
+      </c>
+      <c r="ID3" s="2">
+        <v>0</v>
+      </c>
+      <c r="IE3" s="2">
+        <v>0</v>
+      </c>
+      <c r="IF3" s="2">
+        <v>0</v>
+      </c>
+      <c r="IG3" s="2">
+        <v>0</v>
+      </c>
+      <c r="IH3" s="2">
+        <v>0</v>
+      </c>
+      <c r="II3" s="2">
+        <v>0</v>
+      </c>
+      <c r="IJ3" s="2">
+        <v>0</v>
+      </c>
+      <c r="IK3" s="2">
+        <v>0</v>
+      </c>
+      <c r="IL3" s="2">
+        <v>0</v>
+      </c>
+      <c r="IM3" s="2">
+        <v>0</v>
+      </c>
+      <c r="IN3" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:238" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:248" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -3079,11 +3251,10 @@
         <v>0</v>
       </c>
       <c r="EZ4">
-        <f>(FA4+1)</f>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="FB4">
         <v>0</v>
@@ -3316,8 +3487,50 @@
       <c r="HZ4">
         <v>73</v>
       </c>
+      <c r="IA4">
+        <v>38</v>
+      </c>
+      <c r="IB4">
+        <v>97</v>
+      </c>
+      <c r="IC4">
+        <v>198</v>
+      </c>
+      <c r="ID4">
+        <v>112</v>
+      </c>
+      <c r="IE4">
+        <v>135</v>
+      </c>
+      <c r="IF4">
+        <v>74</v>
+      </c>
+      <c r="IG4">
+        <v>78</v>
+      </c>
+      <c r="IH4">
+        <v>11</v>
+      </c>
+      <c r="II4">
+        <v>176</v>
+      </c>
+      <c r="IJ4">
+        <v>163</v>
+      </c>
+      <c r="IK4">
+        <v>142</v>
+      </c>
+      <c r="IL4">
+        <v>149</v>
+      </c>
+      <c r="IM4">
+        <v>100</v>
+      </c>
+      <c r="IN4">
+        <v>70</v>
+      </c>
     </row>
-    <row r="5" spans="1:238" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:248" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3784,11 +3997,10 @@
         <v>112</v>
       </c>
       <c r="EZ5">
-        <f t="shared" ref="EZ5:EZ44" si="0">(FA5+1)</f>
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="FB5">
         <v>0</v>
@@ -4021,8 +4233,50 @@
       <c r="HZ5">
         <v>33</v>
       </c>
+      <c r="IA5">
+        <v>46</v>
+      </c>
+      <c r="IB5">
+        <v>40</v>
+      </c>
+      <c r="IC5">
+        <v>44</v>
+      </c>
+      <c r="ID5">
+        <v>65</v>
+      </c>
+      <c r="IE5">
+        <v>93</v>
+      </c>
+      <c r="IF5">
+        <v>87</v>
+      </c>
+      <c r="IG5">
+        <v>57</v>
+      </c>
+      <c r="IH5">
+        <v>33</v>
+      </c>
+      <c r="II5">
+        <v>65</v>
+      </c>
+      <c r="IJ5">
+        <v>48</v>
+      </c>
+      <c r="IK5">
+        <v>99</v>
+      </c>
+      <c r="IL5">
+        <v>112</v>
+      </c>
+      <c r="IM5">
+        <v>94</v>
+      </c>
+      <c r="IN5">
+        <v>288</v>
+      </c>
     </row>
-    <row r="6" spans="1:238" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:248" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -4489,11 +4743,10 @@
         <v>71</v>
       </c>
       <c r="EZ6">
-        <f t="shared" si="0"/>
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="FB6">
         <v>0</v>
@@ -4726,8 +4979,50 @@
       <c r="HZ6">
         <v>247</v>
       </c>
+      <c r="IA6">
+        <v>139</v>
+      </c>
+      <c r="IB6">
+        <v>57</v>
+      </c>
+      <c r="IC6">
+        <v>127</v>
+      </c>
+      <c r="ID6">
+        <v>137</v>
+      </c>
+      <c r="IE6">
+        <v>233</v>
+      </c>
+      <c r="IF6">
+        <v>114</v>
+      </c>
+      <c r="IG6">
+        <v>97</v>
+      </c>
+      <c r="IH6">
+        <v>54</v>
+      </c>
+      <c r="II6">
+        <v>190</v>
+      </c>
+      <c r="IJ6">
+        <v>185</v>
+      </c>
+      <c r="IK6">
+        <v>209</v>
+      </c>
+      <c r="IL6">
+        <v>149</v>
+      </c>
+      <c r="IM6">
+        <v>162</v>
+      </c>
+      <c r="IN6">
+        <v>163</v>
+      </c>
     </row>
-    <row r="7" spans="1:238" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:248" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -5194,11 +5489,10 @@
         <v>0</v>
       </c>
       <c r="EZ7">
-        <f t="shared" si="0"/>
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="FA7">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="FB7">
         <v>0</v>
@@ -5431,8 +5725,50 @@
       <c r="HZ7">
         <v>145</v>
       </c>
+      <c r="IA7">
+        <v>125</v>
+      </c>
+      <c r="IB7">
+        <v>132</v>
+      </c>
+      <c r="IC7">
+        <v>112</v>
+      </c>
+      <c r="ID7">
+        <v>144</v>
+      </c>
+      <c r="IE7">
+        <v>189</v>
+      </c>
+      <c r="IF7">
+        <v>167</v>
+      </c>
+      <c r="IG7">
+        <v>164</v>
+      </c>
+      <c r="IH7">
+        <v>114</v>
+      </c>
+      <c r="II7">
+        <v>168</v>
+      </c>
+      <c r="IJ7">
+        <v>110</v>
+      </c>
+      <c r="IK7">
+        <v>137</v>
+      </c>
+      <c r="IL7">
+        <v>152</v>
+      </c>
+      <c r="IM7">
+        <v>75</v>
+      </c>
+      <c r="IN7">
+        <v>261</v>
+      </c>
     </row>
-    <row r="8" spans="1:238" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:248" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -5899,11 +6235,10 @@
         <v>0</v>
       </c>
       <c r="EZ8">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="FA8">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="FB8">
         <v>0</v>
@@ -6136,8 +6471,50 @@
       <c r="HZ8">
         <v>54</v>
       </c>
+      <c r="IA8">
+        <v>58</v>
+      </c>
+      <c r="IB8">
+        <v>60</v>
+      </c>
+      <c r="IC8">
+        <v>71</v>
+      </c>
+      <c r="ID8">
+        <v>67</v>
+      </c>
+      <c r="IE8">
+        <v>61</v>
+      </c>
+      <c r="IF8">
+        <v>87</v>
+      </c>
+      <c r="IG8">
+        <v>37</v>
+      </c>
+      <c r="IH8">
+        <v>72</v>
+      </c>
+      <c r="II8">
+        <v>63</v>
+      </c>
+      <c r="IJ8">
+        <v>80</v>
+      </c>
+      <c r="IK8">
+        <v>99</v>
+      </c>
+      <c r="IL8">
+        <v>92</v>
+      </c>
+      <c r="IM8">
+        <v>53</v>
+      </c>
+      <c r="IN8">
+        <v>199</v>
+      </c>
     </row>
-    <row r="9" spans="1:238" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:248" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -6604,11 +6981,10 @@
         <v>0</v>
       </c>
       <c r="EZ9">
-        <f t="shared" si="0"/>
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="FA9">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="FB9">
         <v>0</v>
@@ -6841,8 +7217,50 @@
       <c r="HZ9">
         <v>130</v>
       </c>
+      <c r="IA9">
+        <v>125</v>
+      </c>
+      <c r="IB9">
+        <v>214</v>
+      </c>
+      <c r="IC9">
+        <v>231</v>
+      </c>
+      <c r="ID9">
+        <v>311</v>
+      </c>
+      <c r="IE9">
+        <v>268</v>
+      </c>
+      <c r="IF9">
+        <v>266</v>
+      </c>
+      <c r="IG9">
+        <v>144</v>
+      </c>
+      <c r="IH9">
+        <v>56</v>
+      </c>
+      <c r="II9">
+        <v>201</v>
+      </c>
+      <c r="IJ9">
+        <v>267</v>
+      </c>
+      <c r="IK9">
+        <v>288</v>
+      </c>
+      <c r="IL9">
+        <v>334</v>
+      </c>
+      <c r="IM9">
+        <v>208</v>
+      </c>
+      <c r="IN9">
+        <v>132</v>
+      </c>
     </row>
-    <row r="10" spans="1:238" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:248" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -7309,11 +7727,10 @@
         <v>50</v>
       </c>
       <c r="EZ10">
-        <f t="shared" si="0"/>
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="FA10">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="FB10">
         <v>0</v>
@@ -7546,8 +7963,50 @@
       <c r="HZ10">
         <v>56</v>
       </c>
+      <c r="IA10">
+        <v>53</v>
+      </c>
+      <c r="IB10">
+        <v>62</v>
+      </c>
+      <c r="IC10">
+        <v>128</v>
+      </c>
+      <c r="ID10">
+        <v>137</v>
+      </c>
+      <c r="IE10">
+        <v>91</v>
+      </c>
+      <c r="IF10">
+        <v>120</v>
+      </c>
+      <c r="IG10">
+        <v>110</v>
+      </c>
+      <c r="IH10">
+        <v>31</v>
+      </c>
+      <c r="II10">
+        <v>97</v>
+      </c>
+      <c r="IJ10">
+        <v>168</v>
+      </c>
+      <c r="IK10">
+        <v>84</v>
+      </c>
+      <c r="IL10">
+        <v>138</v>
+      </c>
+      <c r="IM10">
+        <v>126</v>
+      </c>
+      <c r="IN10">
+        <v>150</v>
+      </c>
     </row>
-    <row r="11" spans="1:238" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:248" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -8014,11 +8473,10 @@
         <v>0</v>
       </c>
       <c r="EZ11">
-        <f t="shared" si="0"/>
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="FA11">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="FB11">
         <v>0</v>
@@ -8251,8 +8709,50 @@
       <c r="HZ11">
         <v>183</v>
       </c>
+      <c r="IA11">
+        <v>66</v>
+      </c>
+      <c r="IB11">
+        <v>147</v>
+      </c>
+      <c r="IC11">
+        <v>176</v>
+      </c>
+      <c r="ID11">
+        <v>205</v>
+      </c>
+      <c r="IE11">
+        <v>333</v>
+      </c>
+      <c r="IF11">
+        <v>296</v>
+      </c>
+      <c r="IG11">
+        <v>160</v>
+      </c>
+      <c r="IH11">
+        <v>263</v>
+      </c>
+      <c r="II11">
+        <v>225</v>
+      </c>
+      <c r="IJ11">
+        <v>318</v>
+      </c>
+      <c r="IK11">
+        <v>372</v>
+      </c>
+      <c r="IL11">
+        <v>406</v>
+      </c>
+      <c r="IM11">
+        <v>283</v>
+      </c>
+      <c r="IN11">
+        <v>140</v>
+      </c>
     </row>
-    <row r="12" spans="1:238" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:248" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -8719,11 +9219,10 @@
         <v>25</v>
       </c>
       <c r="EZ12">
-        <f t="shared" si="0"/>
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="FA12">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="FB12">
         <v>0</v>
@@ -8956,8 +9455,50 @@
       <c r="HZ12">
         <v>67</v>
       </c>
+      <c r="IA12">
+        <v>99</v>
+      </c>
+      <c r="IB12">
+        <v>82</v>
+      </c>
+      <c r="IC12">
+        <v>126</v>
+      </c>
+      <c r="ID12">
+        <v>127</v>
+      </c>
+      <c r="IE12">
+        <v>122</v>
+      </c>
+      <c r="IF12">
+        <v>134</v>
+      </c>
+      <c r="IG12">
+        <v>151</v>
+      </c>
+      <c r="IH12">
+        <v>102</v>
+      </c>
+      <c r="II12">
+        <v>178</v>
+      </c>
+      <c r="IJ12">
+        <v>216</v>
+      </c>
+      <c r="IK12">
+        <v>260</v>
+      </c>
+      <c r="IL12">
+        <v>130</v>
+      </c>
+      <c r="IM12">
+        <v>240</v>
+      </c>
+      <c r="IN12">
+        <v>115</v>
+      </c>
     </row>
-    <row r="13" spans="1:238" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:248" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -9424,11 +9965,10 @@
         <v>0</v>
       </c>
       <c r="EZ13">
-        <f t="shared" si="0"/>
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="FA13">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="FB13">
         <v>0</v>
@@ -9661,8 +10201,50 @@
       <c r="HZ13">
         <v>13</v>
       </c>
+      <c r="IA13">
+        <v>9</v>
+      </c>
+      <c r="IB13">
+        <v>32</v>
+      </c>
+      <c r="IC13">
+        <v>24</v>
+      </c>
+      <c r="ID13">
+        <v>30</v>
+      </c>
+      <c r="IE13">
+        <v>34</v>
+      </c>
+      <c r="IF13">
+        <v>22</v>
+      </c>
+      <c r="IG13">
+        <v>30</v>
+      </c>
+      <c r="IH13">
+        <v>23</v>
+      </c>
+      <c r="II13">
+        <v>24</v>
+      </c>
+      <c r="IJ13">
+        <v>33</v>
+      </c>
+      <c r="IK13">
+        <v>67</v>
+      </c>
+      <c r="IL13">
+        <v>66</v>
+      </c>
+      <c r="IM13">
+        <v>38</v>
+      </c>
+      <c r="IN13">
+        <v>97</v>
+      </c>
     </row>
-    <row r="14" spans="1:238" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:248" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -10129,11 +10711,10 @@
         <v>24</v>
       </c>
       <c r="EZ14">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="FA14">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="FB14">
         <v>0</v>
@@ -10366,8 +10947,50 @@
       <c r="HZ14">
         <v>40</v>
       </c>
+      <c r="IA14">
+        <v>23</v>
+      </c>
+      <c r="IB14">
+        <v>29</v>
+      </c>
+      <c r="IC14">
+        <v>69</v>
+      </c>
+      <c r="ID14">
+        <v>43</v>
+      </c>
+      <c r="IE14">
+        <v>50</v>
+      </c>
+      <c r="IF14">
+        <v>50</v>
+      </c>
+      <c r="IG14">
+        <v>46</v>
+      </c>
+      <c r="IH14">
+        <v>29</v>
+      </c>
+      <c r="II14">
+        <v>49</v>
+      </c>
+      <c r="IJ14">
+        <v>56</v>
+      </c>
+      <c r="IK14">
+        <v>60</v>
+      </c>
+      <c r="IL14">
+        <v>70</v>
+      </c>
+      <c r="IM14">
+        <v>75</v>
+      </c>
+      <c r="IN14">
+        <v>68</v>
+      </c>
     </row>
-    <row r="15" spans="1:238" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:248" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -10834,11 +11457,10 @@
         <v>0</v>
       </c>
       <c r="EZ15">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="FA15">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="FB15">
         <v>0</v>
@@ -11071,8 +11693,50 @@
       <c r="HZ15">
         <v>106</v>
       </c>
+      <c r="IA15">
+        <v>21</v>
+      </c>
+      <c r="IB15">
+        <v>82</v>
+      </c>
+      <c r="IC15">
+        <v>88</v>
+      </c>
+      <c r="ID15">
+        <v>161</v>
+      </c>
+      <c r="IE15">
+        <v>103</v>
+      </c>
+      <c r="IF15">
+        <v>112</v>
+      </c>
+      <c r="IG15">
+        <v>82</v>
+      </c>
+      <c r="IH15">
+        <v>3</v>
+      </c>
+      <c r="II15">
+        <v>94</v>
+      </c>
+      <c r="IJ15">
+        <v>180</v>
+      </c>
+      <c r="IK15">
+        <v>95</v>
+      </c>
+      <c r="IL15">
+        <v>113</v>
+      </c>
+      <c r="IM15">
+        <v>242</v>
+      </c>
+      <c r="IN15">
+        <v>118</v>
+      </c>
     </row>
-    <row r="16" spans="1:238" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:248" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -11539,11 +12203,10 @@
         <v>62</v>
       </c>
       <c r="EZ16">
-        <f t="shared" si="0"/>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="FA16">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="FB16">
         <v>0</v>
@@ -11776,8 +12439,50 @@
       <c r="HZ16">
         <v>129</v>
       </c>
+      <c r="IA16">
+        <v>85</v>
+      </c>
+      <c r="IB16">
+        <v>228</v>
+      </c>
+      <c r="IC16">
+        <v>343</v>
+      </c>
+      <c r="ID16">
+        <v>338</v>
+      </c>
+      <c r="IE16">
+        <v>273</v>
+      </c>
+      <c r="IF16">
+        <v>340</v>
+      </c>
+      <c r="IG16">
+        <v>164</v>
+      </c>
+      <c r="IH16">
+        <v>199</v>
+      </c>
+      <c r="II16">
+        <v>264</v>
+      </c>
+      <c r="IJ16">
+        <v>356</v>
+      </c>
+      <c r="IK16">
+        <v>371</v>
+      </c>
+      <c r="IL16">
+        <v>385</v>
+      </c>
+      <c r="IM16">
+        <v>328</v>
+      </c>
+      <c r="IN16">
+        <v>72</v>
+      </c>
     </row>
-    <row r="17" spans="1:234" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:248" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -12244,11 +12949,10 @@
         <v>0</v>
       </c>
       <c r="EZ17">
-        <f t="shared" si="0"/>
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="FA17">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="FB17">
         <v>0</v>
@@ -12481,8 +13185,50 @@
       <c r="HZ17">
         <v>71</v>
       </c>
+      <c r="IA17">
+        <v>42</v>
+      </c>
+      <c r="IB17">
+        <v>32</v>
+      </c>
+      <c r="IC17">
+        <v>83</v>
+      </c>
+      <c r="ID17">
+        <v>96</v>
+      </c>
+      <c r="IE17">
+        <v>68</v>
+      </c>
+      <c r="IF17">
+        <v>80</v>
+      </c>
+      <c r="IG17">
+        <v>55</v>
+      </c>
+      <c r="IH17">
+        <v>48</v>
+      </c>
+      <c r="II17">
+        <v>39</v>
+      </c>
+      <c r="IJ17">
+        <v>71</v>
+      </c>
+      <c r="IK17">
+        <v>90</v>
+      </c>
+      <c r="IL17">
+        <v>78</v>
+      </c>
+      <c r="IM17">
+        <v>70</v>
+      </c>
+      <c r="IN17">
+        <v>83</v>
+      </c>
     </row>
-    <row r="18" spans="1:234" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:248" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -12949,11 +13695,10 @@
         <v>37</v>
       </c>
       <c r="EZ18">
-        <f t="shared" si="0"/>
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="FA18">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="FB18">
         <v>0</v>
@@ -13186,8 +13931,50 @@
       <c r="HZ18">
         <v>103</v>
       </c>
+      <c r="IA18">
+        <v>25</v>
+      </c>
+      <c r="IB18">
+        <v>105</v>
+      </c>
+      <c r="IC18">
+        <v>132</v>
+      </c>
+      <c r="ID18">
+        <v>118</v>
+      </c>
+      <c r="IE18">
+        <v>114</v>
+      </c>
+      <c r="IF18">
+        <v>122</v>
+      </c>
+      <c r="IG18">
+        <v>107</v>
+      </c>
+      <c r="IH18">
+        <v>38</v>
+      </c>
+      <c r="II18">
+        <v>167</v>
+      </c>
+      <c r="IJ18">
+        <v>160</v>
+      </c>
+      <c r="IK18">
+        <v>233</v>
+      </c>
+      <c r="IL18">
+        <v>197</v>
+      </c>
+      <c r="IM18">
+        <v>141</v>
+      </c>
+      <c r="IN18">
+        <v>74</v>
+      </c>
     </row>
-    <row r="19" spans="1:234" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:248" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -13654,11 +14441,10 @@
         <v>33</v>
       </c>
       <c r="EZ19">
-        <f t="shared" si="0"/>
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="FA19">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="FB19">
         <v>0</v>
@@ -13891,8 +14677,50 @@
       <c r="HZ19">
         <v>227</v>
       </c>
+      <c r="IA19">
+        <v>56</v>
+      </c>
+      <c r="IB19">
+        <v>57</v>
+      </c>
+      <c r="IC19">
+        <v>201</v>
+      </c>
+      <c r="ID19">
+        <v>107</v>
+      </c>
+      <c r="IE19">
+        <v>158</v>
+      </c>
+      <c r="IF19">
+        <v>147</v>
+      </c>
+      <c r="IG19">
+        <v>164</v>
+      </c>
+      <c r="IH19">
+        <v>146</v>
+      </c>
+      <c r="II19">
+        <v>110</v>
+      </c>
+      <c r="IJ19">
+        <v>162</v>
+      </c>
+      <c r="IK19">
+        <v>205</v>
+      </c>
+      <c r="IL19">
+        <v>311</v>
+      </c>
+      <c r="IM19">
+        <v>295</v>
+      </c>
+      <c r="IN19">
+        <v>90</v>
+      </c>
     </row>
-    <row r="20" spans="1:234" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:248" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -14359,11 +15187,10 @@
         <v>29</v>
       </c>
       <c r="EZ20">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="FA20">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="FB20">
         <v>0</v>
@@ -14596,8 +15423,50 @@
       <c r="HZ20">
         <v>54</v>
       </c>
+      <c r="IA20">
+        <v>83</v>
+      </c>
+      <c r="IB20">
+        <v>91</v>
+      </c>
+      <c r="IC20">
+        <v>104</v>
+      </c>
+      <c r="ID20">
+        <v>102</v>
+      </c>
+      <c r="IE20">
+        <v>129</v>
+      </c>
+      <c r="IF20">
+        <v>126</v>
+      </c>
+      <c r="IG20">
+        <v>96</v>
+      </c>
+      <c r="IH20">
+        <v>63</v>
+      </c>
+      <c r="II20">
+        <v>138</v>
+      </c>
+      <c r="IJ20">
+        <v>107</v>
+      </c>
+      <c r="IK20">
+        <v>106</v>
+      </c>
+      <c r="IL20">
+        <v>115</v>
+      </c>
+      <c r="IM20">
+        <v>259</v>
+      </c>
+      <c r="IN20">
+        <v>59</v>
+      </c>
     </row>
-    <row r="21" spans="1:234" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:248" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -15064,11 +15933,10 @@
         <v>22</v>
       </c>
       <c r="EZ21">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="FA21">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="FB21">
         <v>0</v>
@@ -15301,8 +16169,50 @@
       <c r="HZ21">
         <v>46</v>
       </c>
+      <c r="IA21">
+        <v>28</v>
+      </c>
+      <c r="IB21">
+        <v>25</v>
+      </c>
+      <c r="IC21">
+        <v>30</v>
+      </c>
+      <c r="ID21">
+        <v>37</v>
+      </c>
+      <c r="IE21">
+        <v>26</v>
+      </c>
+      <c r="IF21">
+        <v>30</v>
+      </c>
+      <c r="IG21">
+        <v>25</v>
+      </c>
+      <c r="IH21">
+        <v>24</v>
+      </c>
+      <c r="II21">
+        <v>31</v>
+      </c>
+      <c r="IJ21">
+        <v>29</v>
+      </c>
+      <c r="IK21">
+        <v>30</v>
+      </c>
+      <c r="IL21">
+        <v>46</v>
+      </c>
+      <c r="IM21">
+        <v>52</v>
+      </c>
+      <c r="IN21">
+        <v>79</v>
+      </c>
     </row>
-    <row r="22" spans="1:234" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:248" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -15769,11 +16679,10 @@
         <v>0</v>
       </c>
       <c r="EZ22">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="FA22">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="FB22">
         <v>0</v>
@@ -16006,8 +16915,50 @@
       <c r="HZ22">
         <v>58</v>
       </c>
+      <c r="IA22">
+        <v>9</v>
+      </c>
+      <c r="IB22">
+        <v>71</v>
+      </c>
+      <c r="IC22">
+        <v>43</v>
+      </c>
+      <c r="ID22">
+        <v>120</v>
+      </c>
+      <c r="IE22">
+        <v>94</v>
+      </c>
+      <c r="IF22">
+        <v>74</v>
+      </c>
+      <c r="IG22">
+        <v>26</v>
+      </c>
+      <c r="IH22">
+        <v>51</v>
+      </c>
+      <c r="II22">
+        <v>93</v>
+      </c>
+      <c r="IJ22">
+        <v>101</v>
+      </c>
+      <c r="IK22">
+        <v>107</v>
+      </c>
+      <c r="IL22">
+        <v>147</v>
+      </c>
+      <c r="IM22">
+        <v>11</v>
+      </c>
+      <c r="IN22">
+        <v>76</v>
+      </c>
     </row>
-    <row r="23" spans="1:234" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:248" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -16474,11 +17425,10 @@
         <v>0</v>
       </c>
       <c r="EZ23">
-        <f t="shared" si="0"/>
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="FA23">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="FB23">
         <v>0</v>
@@ -16711,8 +17661,50 @@
       <c r="HZ23">
         <v>20</v>
       </c>
+      <c r="IA23">
+        <v>14</v>
+      </c>
+      <c r="IB23">
+        <v>35</v>
+      </c>
+      <c r="IC23">
+        <v>34</v>
+      </c>
+      <c r="ID23">
+        <v>24</v>
+      </c>
+      <c r="IE23">
+        <v>37</v>
+      </c>
+      <c r="IF23">
+        <v>38</v>
+      </c>
+      <c r="IG23">
+        <v>23</v>
+      </c>
+      <c r="IH23">
+        <v>35</v>
+      </c>
+      <c r="II23">
+        <v>36</v>
+      </c>
+      <c r="IJ23">
+        <v>49</v>
+      </c>
+      <c r="IK23">
+        <v>72</v>
+      </c>
+      <c r="IL23">
+        <v>72</v>
+      </c>
+      <c r="IM23">
+        <v>55</v>
+      </c>
+      <c r="IN23">
+        <v>104</v>
+      </c>
     </row>
-    <row r="24" spans="1:234" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:248" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -17179,11 +18171,10 @@
         <v>0</v>
       </c>
       <c r="EZ24">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="FA24">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="FB24">
         <v>0</v>
@@ -17416,8 +18407,50 @@
       <c r="HZ24">
         <v>97</v>
       </c>
+      <c r="IA24">
+        <v>52</v>
+      </c>
+      <c r="IB24">
+        <v>38</v>
+      </c>
+      <c r="IC24">
+        <v>130</v>
+      </c>
+      <c r="ID24">
+        <v>120</v>
+      </c>
+      <c r="IE24">
+        <v>160</v>
+      </c>
+      <c r="IF24">
+        <v>112</v>
+      </c>
+      <c r="IG24">
+        <v>150</v>
+      </c>
+      <c r="IH24">
+        <v>45</v>
+      </c>
+      <c r="II24">
+        <v>131</v>
+      </c>
+      <c r="IJ24">
+        <v>129</v>
+      </c>
+      <c r="IK24">
+        <v>260</v>
+      </c>
+      <c r="IL24">
+        <v>237</v>
+      </c>
+      <c r="IM24">
+        <v>253</v>
+      </c>
+      <c r="IN24">
+        <v>50</v>
+      </c>
     </row>
-    <row r="25" spans="1:234" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:248" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -17884,11 +18917,10 @@
         <v>0</v>
       </c>
       <c r="EZ25">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="FA25">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="FB25">
         <v>0</v>
@@ -18121,8 +19153,50 @@
       <c r="HZ25">
         <v>94</v>
       </c>
+      <c r="IA25">
+        <v>54</v>
+      </c>
+      <c r="IB25">
+        <v>86</v>
+      </c>
+      <c r="IC25">
+        <v>234</v>
+      </c>
+      <c r="ID25">
+        <v>151</v>
+      </c>
+      <c r="IE25">
+        <v>170</v>
+      </c>
+      <c r="IF25">
+        <v>190</v>
+      </c>
+      <c r="IG25">
+        <v>137</v>
+      </c>
+      <c r="IH25">
+        <v>124</v>
+      </c>
+      <c r="II25">
+        <v>95</v>
+      </c>
+      <c r="IJ25">
+        <v>191</v>
+      </c>
+      <c r="IK25">
+        <v>160</v>
+      </c>
+      <c r="IL25">
+        <v>296</v>
+      </c>
+      <c r="IM25">
+        <v>293</v>
+      </c>
+      <c r="IN25">
+        <v>44</v>
+      </c>
     </row>
-    <row r="26" spans="1:234" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:248" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -18589,11 +19663,10 @@
         <v>0</v>
       </c>
       <c r="EZ26">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="FA26">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="FB26">
         <v>0</v>
@@ -18826,8 +19899,50 @@
       <c r="HZ26">
         <v>101</v>
       </c>
+      <c r="IA26">
+        <v>82</v>
+      </c>
+      <c r="IB26">
+        <v>44</v>
+      </c>
+      <c r="IC26">
+        <v>45</v>
+      </c>
+      <c r="ID26">
+        <v>71</v>
+      </c>
+      <c r="IE26">
+        <v>52</v>
+      </c>
+      <c r="IF26">
+        <v>64</v>
+      </c>
+      <c r="IG26">
+        <v>62</v>
+      </c>
+      <c r="IH26">
+        <v>38</v>
+      </c>
+      <c r="II26">
+        <v>100</v>
+      </c>
+      <c r="IJ26">
+        <v>80</v>
+      </c>
+      <c r="IK26">
+        <v>68</v>
+      </c>
+      <c r="IL26">
+        <v>113</v>
+      </c>
+      <c r="IM26">
+        <v>94</v>
+      </c>
+      <c r="IN26">
+        <v>76</v>
+      </c>
     </row>
-    <row r="27" spans="1:234" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:248" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -19294,11 +20409,10 @@
         <v>3</v>
       </c>
       <c r="EZ27">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="FA27">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="FB27">
         <v>0</v>
@@ -19531,8 +20645,50 @@
       <c r="HZ27">
         <v>87</v>
       </c>
+      <c r="IA27">
+        <v>36</v>
+      </c>
+      <c r="IB27">
+        <v>51</v>
+      </c>
+      <c r="IC27">
+        <v>55</v>
+      </c>
+      <c r="ID27">
+        <v>60</v>
+      </c>
+      <c r="IE27">
+        <v>55</v>
+      </c>
+      <c r="IF27">
+        <v>127</v>
+      </c>
+      <c r="IG27">
+        <v>46</v>
+      </c>
+      <c r="IH27">
+        <v>42</v>
+      </c>
+      <c r="II27">
+        <v>58</v>
+      </c>
+      <c r="IJ27">
+        <v>121</v>
+      </c>
+      <c r="IK27">
+        <v>110</v>
+      </c>
+      <c r="IL27">
+        <v>101</v>
+      </c>
+      <c r="IM27">
+        <v>100</v>
+      </c>
+      <c r="IN27">
+        <v>13</v>
+      </c>
     </row>
-    <row r="28" spans="1:234" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:248" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -19999,11 +21155,10 @@
         <v>0</v>
       </c>
       <c r="EZ28">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="FA28">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="FB28">
         <v>0</v>
@@ -20236,8 +21391,50 @@
       <c r="HZ28">
         <v>112</v>
       </c>
+      <c r="IA28">
+        <v>54</v>
+      </c>
+      <c r="IB28">
+        <v>34</v>
+      </c>
+      <c r="IC28">
+        <v>120</v>
+      </c>
+      <c r="ID28">
+        <v>122</v>
+      </c>
+      <c r="IE28">
+        <v>108</v>
+      </c>
+      <c r="IF28">
+        <v>100</v>
+      </c>
+      <c r="IG28">
+        <v>129</v>
+      </c>
+      <c r="IH28">
+        <v>112</v>
+      </c>
+      <c r="II28">
+        <v>43</v>
+      </c>
+      <c r="IJ28">
+        <v>100</v>
+      </c>
+      <c r="IK28">
+        <v>131</v>
+      </c>
+      <c r="IL28">
+        <v>139</v>
+      </c>
+      <c r="IM28">
+        <v>131</v>
+      </c>
+      <c r="IN28">
+        <v>71</v>
+      </c>
     </row>
-    <row r="29" spans="1:234" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:248" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -20704,11 +21901,10 @@
         <v>0</v>
       </c>
       <c r="EZ29">
-        <f t="shared" si="0"/>
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="FA29">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="FB29">
         <v>0</v>
@@ -20941,8 +22137,50 @@
       <c r="HZ29">
         <v>59</v>
       </c>
+      <c r="IA29">
+        <v>86</v>
+      </c>
+      <c r="IB29">
+        <v>79</v>
+      </c>
+      <c r="IC29">
+        <v>63</v>
+      </c>
+      <c r="ID29">
+        <v>128</v>
+      </c>
+      <c r="IE29">
+        <v>106</v>
+      </c>
+      <c r="IF29">
+        <v>57</v>
+      </c>
+      <c r="IG29">
+        <v>65</v>
+      </c>
+      <c r="IH29">
+        <v>181</v>
+      </c>
+      <c r="II29">
+        <v>155</v>
+      </c>
+      <c r="IJ29">
+        <v>100</v>
+      </c>
+      <c r="IK29">
+        <v>161</v>
+      </c>
+      <c r="IL29">
+        <v>218</v>
+      </c>
+      <c r="IM29">
+        <v>54</v>
+      </c>
+      <c r="IN29">
+        <v>90</v>
+      </c>
     </row>
-    <row r="30" spans="1:234" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:248" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -21409,11 +22647,10 @@
         <v>13</v>
       </c>
       <c r="EZ30">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="FA30">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="FB30">
         <v>0</v>
@@ -21646,8 +22883,50 @@
       <c r="HZ30">
         <v>26</v>
       </c>
+      <c r="IA30">
+        <v>0</v>
+      </c>
+      <c r="IB30">
+        <v>54</v>
+      </c>
+      <c r="IC30">
+        <v>50</v>
+      </c>
+      <c r="ID30">
+        <v>51</v>
+      </c>
+      <c r="IE30">
+        <v>51</v>
+      </c>
+      <c r="IF30">
+        <v>79</v>
+      </c>
+      <c r="IG30">
+        <v>62</v>
+      </c>
+      <c r="IH30">
+        <v>3</v>
+      </c>
+      <c r="II30">
+        <v>72</v>
+      </c>
+      <c r="IJ30">
+        <v>81</v>
+      </c>
+      <c r="IK30">
+        <v>85</v>
+      </c>
+      <c r="IL30">
+        <v>87</v>
+      </c>
+      <c r="IM30">
+        <v>114</v>
+      </c>
+      <c r="IN30">
+        <v>32</v>
+      </c>
     </row>
-    <row r="31" spans="1:234" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:248" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -22114,11 +23393,10 @@
         <v>0</v>
       </c>
       <c r="EZ31">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="FA31">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="FB31">
         <v>0</v>
@@ -22351,8 +23629,50 @@
       <c r="HZ31">
         <v>10</v>
       </c>
+      <c r="IA31">
+        <v>8</v>
+      </c>
+      <c r="IB31">
+        <v>30</v>
+      </c>
+      <c r="IC31">
+        <v>55</v>
+      </c>
+      <c r="ID31">
+        <v>24</v>
+      </c>
+      <c r="IE31">
+        <v>62</v>
+      </c>
+      <c r="IF31">
+        <v>32</v>
+      </c>
+      <c r="IG31">
+        <v>31</v>
+      </c>
+      <c r="IH31">
+        <v>9</v>
+      </c>
+      <c r="II31">
+        <v>52</v>
+      </c>
+      <c r="IJ31">
+        <v>29</v>
+      </c>
+      <c r="IK31">
+        <v>51</v>
+      </c>
+      <c r="IL31">
+        <v>45</v>
+      </c>
+      <c r="IM31">
+        <v>39</v>
+      </c>
+      <c r="IN31">
+        <v>79</v>
+      </c>
     </row>
-    <row r="32" spans="1:234" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:248" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -22819,11 +24139,10 @@
         <v>22</v>
       </c>
       <c r="EZ32">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="FA32">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="FB32">
         <v>1</v>
@@ -23056,8 +24375,50 @@
       <c r="HZ32">
         <v>131</v>
       </c>
+      <c r="IA32">
+        <v>60</v>
+      </c>
+      <c r="IB32">
+        <v>120</v>
+      </c>
+      <c r="IC32">
+        <v>170</v>
+      </c>
+      <c r="ID32">
+        <v>96</v>
+      </c>
+      <c r="IE32">
+        <v>96</v>
+      </c>
+      <c r="IF32">
+        <v>1</v>
+      </c>
+      <c r="IG32">
+        <v>227</v>
+      </c>
+      <c r="IH32">
+        <v>90</v>
+      </c>
+      <c r="II32">
+        <v>65</v>
+      </c>
+      <c r="IJ32">
+        <v>146</v>
+      </c>
+      <c r="IK32">
+        <v>195</v>
+      </c>
+      <c r="IL32">
+        <v>197</v>
+      </c>
+      <c r="IM32">
+        <v>192</v>
+      </c>
+      <c r="IN32">
+        <v>19</v>
+      </c>
     </row>
-    <row r="33" spans="1:234" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:248" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -23524,11 +24885,10 @@
         <v>0</v>
       </c>
       <c r="EZ33">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="FA33">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="FB33">
         <v>0</v>
@@ -23761,8 +25121,50 @@
       <c r="HZ33">
         <v>46</v>
       </c>
+      <c r="IA33">
+        <v>13</v>
+      </c>
+      <c r="IB33">
+        <v>45</v>
+      </c>
+      <c r="IC33">
+        <v>46</v>
+      </c>
+      <c r="ID33">
+        <v>21</v>
+      </c>
+      <c r="IE33">
+        <v>50</v>
+      </c>
+      <c r="IF33">
+        <v>20</v>
+      </c>
+      <c r="IG33">
+        <v>29</v>
+      </c>
+      <c r="IH33">
+        <v>12</v>
+      </c>
+      <c r="II33">
+        <v>50</v>
+      </c>
+      <c r="IJ33">
+        <v>47</v>
+      </c>
+      <c r="IK33">
+        <v>41</v>
+      </c>
+      <c r="IL33">
+        <v>47</v>
+      </c>
+      <c r="IM33">
+        <v>32</v>
+      </c>
+      <c r="IN33">
+        <v>24</v>
+      </c>
     </row>
-    <row r="34" spans="1:234" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:248" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -24229,11 +25631,10 @@
         <v>12</v>
       </c>
       <c r="EZ34">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="FA34">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="FB34">
         <v>0</v>
@@ -24466,8 +25867,50 @@
       <c r="HZ34">
         <v>50</v>
       </c>
+      <c r="IA34">
+        <v>2</v>
+      </c>
+      <c r="IB34">
+        <v>41</v>
+      </c>
+      <c r="IC34">
+        <v>37</v>
+      </c>
+      <c r="ID34">
+        <v>40</v>
+      </c>
+      <c r="IE34">
+        <v>23</v>
+      </c>
+      <c r="IF34">
+        <v>49</v>
+      </c>
+      <c r="IG34">
+        <v>56</v>
+      </c>
+      <c r="IH34">
+        <v>0</v>
+      </c>
+      <c r="II34">
+        <v>49</v>
+      </c>
+      <c r="IJ34">
+        <v>47</v>
+      </c>
+      <c r="IK34">
+        <v>57</v>
+      </c>
+      <c r="IL34">
+        <v>83</v>
+      </c>
+      <c r="IM34">
+        <v>35</v>
+      </c>
+      <c r="IN34">
+        <v>22</v>
+      </c>
     </row>
-    <row r="35" spans="1:234" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:248" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -24934,11 +26377,10 @@
         <v>20</v>
       </c>
       <c r="EZ35">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="FA35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="FB35">
         <v>0</v>
@@ -25171,8 +26613,50 @@
       <c r="HZ35">
         <v>31</v>
       </c>
+      <c r="IA35">
+        <v>0</v>
+      </c>
+      <c r="IB35">
+        <v>72</v>
+      </c>
+      <c r="IC35">
+        <v>69</v>
+      </c>
+      <c r="ID35">
+        <v>62</v>
+      </c>
+      <c r="IE35">
+        <v>53</v>
+      </c>
+      <c r="IF35">
+        <v>29</v>
+      </c>
+      <c r="IG35">
+        <v>28</v>
+      </c>
+      <c r="IH35">
+        <v>6</v>
+      </c>
+      <c r="II35">
+        <v>69</v>
+      </c>
+      <c r="IJ35">
+        <v>71</v>
+      </c>
+      <c r="IK35">
+        <v>73</v>
+      </c>
+      <c r="IL35">
+        <v>70</v>
+      </c>
+      <c r="IM35">
+        <v>76</v>
+      </c>
+      <c r="IN35">
+        <v>22</v>
+      </c>
     </row>
-    <row r="36" spans="1:234" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:248" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -25639,11 +27123,10 @@
         <v>0</v>
       </c>
       <c r="EZ36">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="FA36">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="FB36">
         <v>0</v>
@@ -25876,8 +27359,50 @@
       <c r="HZ36">
         <v>65</v>
       </c>
+      <c r="IA36">
+        <v>46</v>
+      </c>
+      <c r="IB36">
+        <v>85</v>
+      </c>
+      <c r="IC36">
+        <v>97</v>
+      </c>
+      <c r="ID36">
+        <v>121</v>
+      </c>
+      <c r="IE36">
+        <v>130</v>
+      </c>
+      <c r="IF36">
+        <v>99</v>
+      </c>
+      <c r="IG36">
+        <v>47</v>
+      </c>
+      <c r="IH36">
+        <v>32</v>
+      </c>
+      <c r="II36">
+        <v>65</v>
+      </c>
+      <c r="IJ36">
+        <v>92</v>
+      </c>
+      <c r="IK36">
+        <v>114</v>
+      </c>
+      <c r="IL36">
+        <v>62</v>
+      </c>
+      <c r="IM36">
+        <v>102</v>
+      </c>
+      <c r="IN36">
+        <v>26</v>
+      </c>
     </row>
-    <row r="37" spans="1:234" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:248" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -26344,11 +27869,10 @@
         <v>0</v>
       </c>
       <c r="EZ37">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="FA37">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="FB37">
         <v>0</v>
@@ -26581,8 +28105,50 @@
       <c r="HZ37">
         <v>32</v>
       </c>
+      <c r="IA37">
+        <v>14</v>
+      </c>
+      <c r="IB37">
+        <v>16</v>
+      </c>
+      <c r="IC37">
+        <v>24</v>
+      </c>
+      <c r="ID37">
+        <v>29</v>
+      </c>
+      <c r="IE37">
+        <v>19</v>
+      </c>
+      <c r="IF37">
+        <v>25</v>
+      </c>
+      <c r="IG37">
+        <v>13</v>
+      </c>
+      <c r="IH37">
+        <v>5</v>
+      </c>
+      <c r="II37">
+        <v>41</v>
+      </c>
+      <c r="IJ37">
+        <v>44</v>
+      </c>
+      <c r="IK37">
+        <v>27</v>
+      </c>
+      <c r="IL37">
+        <v>17</v>
+      </c>
+      <c r="IM37">
+        <v>85</v>
+      </c>
+      <c r="IN37">
+        <v>30</v>
+      </c>
     </row>
-    <row r="38" spans="1:234" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:248" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -27049,11 +28615,10 @@
         <v>0</v>
       </c>
       <c r="EZ38">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="FA38">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="FB38">
         <v>0</v>
@@ -27286,8 +28851,50 @@
       <c r="HZ38">
         <v>48</v>
       </c>
+      <c r="IA38">
+        <v>37</v>
+      </c>
+      <c r="IB38">
+        <v>95</v>
+      </c>
+      <c r="IC38">
+        <v>78</v>
+      </c>
+      <c r="ID38">
+        <v>12</v>
+      </c>
+      <c r="IE38">
+        <v>87</v>
+      </c>
+      <c r="IF38">
+        <v>109</v>
+      </c>
+      <c r="IG38">
+        <v>10</v>
+      </c>
+      <c r="IH38">
+        <v>25</v>
+      </c>
+      <c r="II38">
+        <v>120</v>
+      </c>
+      <c r="IJ38">
+        <v>38</v>
+      </c>
+      <c r="IK38">
+        <v>65</v>
+      </c>
+      <c r="IL38">
+        <v>96</v>
+      </c>
+      <c r="IM38">
+        <v>111</v>
+      </c>
+      <c r="IN38">
+        <v>25</v>
+      </c>
     </row>
-    <row r="39" spans="1:234" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:248" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -27754,11 +29361,10 @@
         <v>13</v>
       </c>
       <c r="EZ39">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="FA39">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="FB39">
         <v>0</v>
@@ -27991,8 +29597,50 @@
       <c r="HZ39">
         <v>42</v>
       </c>
+      <c r="IA39">
+        <v>22</v>
+      </c>
+      <c r="IB39">
+        <v>37</v>
+      </c>
+      <c r="IC39">
+        <v>41</v>
+      </c>
+      <c r="ID39">
+        <v>18</v>
+      </c>
+      <c r="IE39">
+        <v>52</v>
+      </c>
+      <c r="IF39">
+        <v>25</v>
+      </c>
+      <c r="IG39">
+        <v>53</v>
+      </c>
+      <c r="IH39">
+        <v>26</v>
+      </c>
+      <c r="II39">
+        <v>44</v>
+      </c>
+      <c r="IJ39">
+        <v>13</v>
+      </c>
+      <c r="IK39">
+        <v>56</v>
+      </c>
+      <c r="IL39">
+        <v>62</v>
+      </c>
+      <c r="IM39">
+        <v>33</v>
+      </c>
+      <c r="IN39">
+        <v>16</v>
+      </c>
     </row>
-    <row r="40" spans="1:234" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:248" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -28459,11 +30107,10 @@
         <v>0</v>
       </c>
       <c r="EZ40">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="FA40">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="FB40">
         <v>0</v>
@@ -28696,8 +30343,50 @@
       <c r="HZ40">
         <v>21</v>
       </c>
+      <c r="IA40">
+        <v>11</v>
+      </c>
+      <c r="IB40">
+        <v>14</v>
+      </c>
+      <c r="IC40">
+        <v>22</v>
+      </c>
+      <c r="ID40">
+        <v>35</v>
+      </c>
+      <c r="IE40">
+        <v>25</v>
+      </c>
+      <c r="IF40">
+        <v>26</v>
+      </c>
+      <c r="IG40">
+        <v>17</v>
+      </c>
+      <c r="IH40">
+        <v>7</v>
+      </c>
+      <c r="II40">
+        <v>22</v>
+      </c>
+      <c r="IJ40">
+        <v>20</v>
+      </c>
+      <c r="IK40">
+        <v>32</v>
+      </c>
+      <c r="IL40">
+        <v>25</v>
+      </c>
+      <c r="IM40">
+        <v>38</v>
+      </c>
+      <c r="IN40">
+        <v>25</v>
+      </c>
     </row>
-    <row r="41" spans="1:234" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:248" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -29164,11 +30853,10 @@
         <v>0</v>
       </c>
       <c r="EZ41">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="FA41">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="FB41">
         <v>0</v>
@@ -29401,8 +31089,50 @@
       <c r="HZ41">
         <v>55</v>
       </c>
+      <c r="IA41">
+        <v>26</v>
+      </c>
+      <c r="IB41">
+        <v>34</v>
+      </c>
+      <c r="IC41">
+        <v>145</v>
+      </c>
+      <c r="ID41">
+        <v>87</v>
+      </c>
+      <c r="IE41">
+        <v>141</v>
+      </c>
+      <c r="IF41">
+        <v>93</v>
+      </c>
+      <c r="IG41">
+        <v>100</v>
+      </c>
+      <c r="IH41">
+        <v>4</v>
+      </c>
+      <c r="II41">
+        <v>84</v>
+      </c>
+      <c r="IJ41">
+        <v>113</v>
+      </c>
+      <c r="IK41">
+        <v>198</v>
+      </c>
+      <c r="IL41">
+        <v>122</v>
+      </c>
+      <c r="IM41">
+        <v>208</v>
+      </c>
+      <c r="IN41">
+        <v>16</v>
+      </c>
     </row>
-    <row r="42" spans="1:234" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:248" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -29869,11 +31599,10 @@
         <v>0</v>
       </c>
       <c r="EZ42">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="FA42">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="FB42">
         <v>0</v>
@@ -30106,8 +31835,50 @@
       <c r="HZ42">
         <v>33</v>
       </c>
+      <c r="IA42">
+        <v>30</v>
+      </c>
+      <c r="IB42">
+        <v>3</v>
+      </c>
+      <c r="IC42">
+        <v>64</v>
+      </c>
+      <c r="ID42">
+        <v>36</v>
+      </c>
+      <c r="IE42">
+        <v>37</v>
+      </c>
+      <c r="IF42">
+        <v>40</v>
+      </c>
+      <c r="IG42">
+        <v>41</v>
+      </c>
+      <c r="IH42">
+        <v>1</v>
+      </c>
+      <c r="II42">
+        <v>97</v>
+      </c>
+      <c r="IJ42">
+        <v>54</v>
+      </c>
+      <c r="IK42">
+        <v>97</v>
+      </c>
+      <c r="IL42">
+        <v>78</v>
+      </c>
+      <c r="IM42">
+        <v>70</v>
+      </c>
+      <c r="IN42">
+        <v>11</v>
+      </c>
     </row>
-    <row r="43" spans="1:234" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:248" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -30574,11 +32345,10 @@
         <v>27</v>
       </c>
       <c r="EZ43">
-        <f t="shared" si="0"/>
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="FA43">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="FB43">
         <v>0</v>
@@ -30811,8 +32581,50 @@
       <c r="HZ43">
         <v>80</v>
       </c>
+      <c r="IA43">
+        <v>73</v>
+      </c>
+      <c r="IB43">
+        <v>101</v>
+      </c>
+      <c r="IC43">
+        <v>158</v>
+      </c>
+      <c r="ID43">
+        <v>132</v>
+      </c>
+      <c r="IE43">
+        <v>117</v>
+      </c>
+      <c r="IF43">
+        <v>108</v>
+      </c>
+      <c r="IG43">
+        <v>79</v>
+      </c>
+      <c r="IH43">
+        <v>102</v>
+      </c>
+      <c r="II43">
+        <v>121</v>
+      </c>
+      <c r="IJ43">
+        <v>133</v>
+      </c>
+      <c r="IK43">
+        <v>145</v>
+      </c>
+      <c r="IL43">
+        <v>205</v>
+      </c>
+      <c r="IM43">
+        <v>128</v>
+      </c>
+      <c r="IN43">
+        <v>141</v>
+      </c>
     </row>
-    <row r="44" spans="1:234" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:248" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -31279,11 +33091,10 @@
         <v>0</v>
       </c>
       <c r="EZ44">
-        <f t="shared" si="0"/>
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="FA44">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="FB44">
         <v>0</v>
@@ -31515,6 +33326,48 @@
       </c>
       <c r="HZ44">
         <v>75</v>
+      </c>
+      <c r="IA44">
+        <v>35</v>
+      </c>
+      <c r="IB44">
+        <v>98</v>
+      </c>
+      <c r="IC44">
+        <v>130</v>
+      </c>
+      <c r="ID44">
+        <v>206</v>
+      </c>
+      <c r="IE44">
+        <v>136</v>
+      </c>
+      <c r="IF44">
+        <v>182</v>
+      </c>
+      <c r="IG44">
+        <v>102</v>
+      </c>
+      <c r="IH44">
+        <v>65</v>
+      </c>
+      <c r="II44">
+        <v>160</v>
+      </c>
+      <c r="IJ44">
+        <v>90</v>
+      </c>
+      <c r="IK44">
+        <v>99</v>
+      </c>
+      <c r="IL44">
+        <v>90</v>
+      </c>
+      <c r="IM44">
+        <v>81</v>
+      </c>
+      <c r="IN44">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
